--- a/tmpA3.xlsx
+++ b/tmpA3.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DaiLamMoc\KeToanDaiLamMoc\DaiLamMoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D294DF1F-2460-4197-BE1D-2FEE87D19B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D410B513-11B5-446B-8D67-AC91A6B7B5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8835" yWindow="960" windowWidth="19545" windowHeight="13770" xr2:uid="{7295F9C0-1D23-42CE-9F19-08E01B072D9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7295F9C0-1D23-42CE-9F19-08E01B072D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="a3" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="NamedRange1">#REF!</definedName>
@@ -38,7 +37,223 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="W27" authorId="0" shapeId="0" xr:uid="{DB8779F5-1894-47C4-B658-8FE6E1DEEF4E}">
+    <comment ref="W27" authorId="0" shapeId="0" xr:uid="{5DCDE42B-255D-4277-AF79-10E6BA16E305}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+xe tq 4.2m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W41" authorId="0" shapeId="0" xr:uid="{7E51EF3B-EB73-4785-89FA-1E9262C16BCA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+xe tq 4.2m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W55" authorId="0" shapeId="0" xr:uid="{CC1751F6-622E-4E5F-8F69-3715909377E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+xe tq 4.2m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W69" authorId="0" shapeId="0" xr:uid="{B5D01694-C840-4526-9CC9-1B0488BB3598}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+xe tq 4.2m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W83" authorId="0" shapeId="0" xr:uid="{85CD08B6-1790-4F7B-9D01-8A778E3FA471}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+xe tq 4.2m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W97" authorId="0" shapeId="0" xr:uid="{85FE41A3-BFD3-412A-875D-EA03AACC0F9E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+xe tq 4.2m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W111" authorId="0" shapeId="0" xr:uid="{2B405333-C61F-4180-8C7C-06871ABFA4F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+xe tq 4.2m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W125" authorId="0" shapeId="0" xr:uid="{7BE2CE7F-F1BA-4DF8-9AF5-A6819A804DCE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+xe tq 4.2m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W135" authorId="0" shapeId="0" xr:uid="{058BF969-B9E2-4ACB-A6E8-19BE578C1CD4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+xe tq 4.2m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W149" authorId="0" shapeId="0" xr:uid="{DB8779F5-1894-47C4-B658-8FE6E1DEEF4E}">
       <text>
         <r>
           <rPr>
@@ -67,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="74">
   <si>
     <t>CÔNG TY TNHH THƯƠNG MẠI XUẤT NHẬP KHẨU VÀ VẬN TẢI ĐẠI LÂM MỘC</t>
   </si>
@@ -521,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -574,17 +789,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -623,7 +827,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -640,13 +844,7 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,24 +860,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,9 +877,6 @@
     </xf>
     <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -717,9 +900,6 @@
     <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -741,88 +921,19 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -831,21 +942,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -861,34 +957,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -927,9 +1011,6 @@
     </xf>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -947,6 +1028,93 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1066,38 +1234,6 @@
       <sheetData sheetId="39" refreshError="1"/>
       <sheetData sheetId="40" refreshError="1"/>
       <sheetData sheetId="41" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Điều Vận1"/>
-      <sheetName val="A Thắng"/>
-      <sheetName val="a3"/>
-      <sheetName val="Dầu t07"/>
-      <sheetName val="TC T02"/>
-      <sheetName val="Viettin"/>
-      <sheetName val="Vietcom"/>
-      <sheetName val="vetc"/>
-      <sheetName val="Điều Vận"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1400,45 +1536,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280711F1-7150-419D-A4FB-49B7C866E7C8}">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G135" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q19" sqref="Q19:Q21"/>
       <selection pane="topRight" activeCell="Q19" sqref="Q19:Q21"/>
       <selection pane="bottomLeft" activeCell="Q19" sqref="Q19:Q21"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="111" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14" style="112" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11" style="7" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="112" customWidth="1"/>
-    <col min="17" max="17" width="31.42578125" style="113" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="12" style="7" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="7" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="7" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="7" customWidth="1"/>
-    <col min="26" max="26" width="20.28515625" style="7" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="7.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14" style="71" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="11" style="6" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="71" customWidth="1"/>
+    <col min="17" max="17" width="31.42578125" style="72" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="12" style="6" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="6" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="6" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25.5" customHeight="1">
@@ -1460,1073 +1596,5716 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="4"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
     </row>
     <row r="2" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
     </row>
     <row r="3" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
     </row>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
     </row>
     <row r="5" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
     </row>
     <row r="6" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
     </row>
     <row r="7" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
     </row>
     <row r="8" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="99"/>
+      <c r="X8" s="99"/>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="99"/>
     </row>
     <row r="9" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24">
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="100">
         <f>+'[1]25.9'!E17:F17</f>
         <v>1899002428.4285715</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="30"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="23"/>
     </row>
     <row r="10" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32">
-        <f>+Y28</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="30"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="91">
+        <f>+Y150</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="91"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="23"/>
     </row>
     <row r="11" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="40" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="51" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:26" s="34" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A12" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="42" t="s">
+      <c r="D12" s="94"/>
+      <c r="E12" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="42" t="s">
+      <c r="L12" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="46" t="s">
+      <c r="N12" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="46" t="s">
+      <c r="O12" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="42" t="s">
+      <c r="P12" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="47" t="s">
+      <c r="Q12" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="R12" s="48" t="s">
+      <c r="R12" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="48" t="s">
+      <c r="S12" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="T12" s="49" t="s">
+      <c r="T12" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="48" t="s">
+      <c r="U12" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="V12" s="48" t="s">
+      <c r="V12" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="W12" s="48" t="s">
+      <c r="W12" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="X12" s="49" t="s">
+      <c r="X12" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="Y12" s="48" t="s">
+      <c r="Y12" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" s="50" t="s">
+      <c r="Z12" s="75" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="51" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54" t="s">
+    <row r="13" spans="1:26" s="34" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A13" s="93"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="61"/>
-    </row>
-    <row r="14" spans="1:26" s="51" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A14" s="62" t="s">
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="76"/>
+    </row>
+    <row r="14" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A14" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="63">
-        <v>45929</v>
-      </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65" t="s">
+      <c r="B14" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65" t="s">
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="68" t="s">
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="Q14" s="65" t="s">
+      <c r="Q14" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="70">
-        <f t="shared" ref="Y14:Y27" si="0">SUM(R14:X14)</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="71"/>
-    </row>
-    <row r="15" spans="1:26" s="78" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A15" s="72"/>
-      <c r="B15" s="63">
-        <v>45929</v>
-      </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="70">
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="39">
+        <f t="shared" ref="Y14:Y69" si="0">SUM(R14:X14)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="40"/>
+    </row>
+    <row r="15" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A15" s="48"/>
+      <c r="B15" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="77"/>
-    </row>
-    <row r="16" spans="1:26" s="78" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A16" s="72"/>
-      <c r="B16" s="63">
-        <v>45929</v>
-      </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64" t="s">
+      <c r="Z15" s="41"/>
+    </row>
+    <row r="16" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A16" s="48"/>
+      <c r="B16" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="79" t="s">
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="70">
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="77"/>
-    </row>
-    <row r="17" spans="1:26" s="78" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A17" s="72"/>
-      <c r="B17" s="63">
-        <v>45929</v>
-      </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64" t="s">
+      <c r="Z16" s="41"/>
+    </row>
+    <row r="17" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A17" s="48"/>
+      <c r="B17" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="79" t="s">
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="70">
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="77"/>
-    </row>
-    <row r="18" spans="1:26" s="78" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A18" s="72"/>
-      <c r="B18" s="63">
-        <v>45929</v>
-      </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64" t="s">
+      <c r="Z17" s="41"/>
+    </row>
+    <row r="18" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A18" s="48"/>
+      <c r="B18" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="79" t="s">
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="70">
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="77"/>
-    </row>
-    <row r="19" spans="1:26" s="82" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="63">
-        <v>45929</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64" t="s">
+      <c r="Z18" s="41"/>
+    </row>
+    <row r="19" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A19" s="48"/>
+      <c r="B19" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="79" t="s">
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="70">
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="81"/>
-    </row>
-    <row r="20" spans="1:26" s="82" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A20" s="83"/>
-      <c r="B20" s="63">
-        <v>45929</v>
-      </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="85" t="s">
+      <c r="Z19" s="45"/>
+    </row>
+    <row r="20" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A20" s="48"/>
+      <c r="B20" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="79" t="s">
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="70">
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="81"/>
-    </row>
-    <row r="21" spans="1:26" s="82" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A21" s="62" t="s">
+      <c r="Z20" s="45"/>
+    </row>
+    <row r="21" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A21" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="63">
-        <v>45929</v>
-      </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="65" t="s">
+      <c r="B21" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="85" t="s">
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="79" t="s">
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="70">
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="81"/>
-    </row>
-    <row r="22" spans="1:26" s="82" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A22" s="72"/>
-      <c r="B22" s="63">
-        <v>45929</v>
-      </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64" t="s">
+      <c r="Z21" s="45"/>
+    </row>
+    <row r="22" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A22" s="48"/>
+      <c r="B22" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="85" t="s">
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="70">
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="81"/>
-    </row>
-    <row r="23" spans="1:26" s="82" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A23" s="72"/>
-      <c r="B23" s="63">
-        <v>45929</v>
-      </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64" t="s">
+      <c r="Z22" s="45"/>
+    </row>
+    <row r="23" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A23" s="48"/>
+      <c r="B23" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="85" t="s">
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="70">
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="81"/>
-    </row>
-    <row r="24" spans="1:26" s="82" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="63">
-        <v>45929</v>
-      </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65" t="s">
+      <c r="Z23" s="45"/>
+    </row>
+    <row r="24" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A24" s="48"/>
+      <c r="B24" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="65" t="s">
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="70">
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="81"/>
-    </row>
-    <row r="25" spans="1:26" s="82" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A25" s="72"/>
-      <c r="B25" s="63">
-        <v>45929</v>
-      </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="70">
+      <c r="Z24" s="45"/>
+    </row>
+    <row r="25" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A25" s="48"/>
+      <c r="B25" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="81"/>
-    </row>
-    <row r="26" spans="1:26" s="82" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A26" s="83"/>
-      <c r="B26" s="63">
-        <v>45929</v>
-      </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64" t="s">
+      <c r="Z25" s="45"/>
+    </row>
+    <row r="26" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A26" s="48"/>
+      <c r="B26" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="85" t="s">
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="70">
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="77"/>
-    </row>
-    <row r="27" spans="1:26" s="82" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A27" s="87" t="s">
+      <c r="Z26" s="41"/>
+    </row>
+    <row r="27" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A27" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="63">
-        <v>45929</v>
-      </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="85" t="s">
+      <c r="B27" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="88" t="s">
+      <c r="F27" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="64"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="64" t="s">
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="64" t="s">
+      <c r="J27" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K27" s="64" t="s">
+      <c r="K27" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="L27" s="64" t="s">
+      <c r="L27" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="67"/>
-      <c r="N27" s="64">
+      <c r="M27" s="37"/>
+      <c r="N27" s="36">
         <v>142</v>
       </c>
-      <c r="O27" s="64">
+      <c r="O27" s="36">
         <v>3139</v>
       </c>
-      <c r="P27" s="88" t="s">
+      <c r="P27" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="Q27" s="85" t="s">
+      <c r="Q27" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="70">
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="81"/>
-    </row>
-    <row r="28" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A28" s="89" t="s">
+      <c r="Z27" s="45"/>
+    </row>
+    <row r="28" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A28" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q28" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="40"/>
+    </row>
+    <row r="29" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A29" s="48"/>
+      <c r="B29" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="41"/>
+    </row>
+    <row r="30" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A30" s="48"/>
+      <c r="B30" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="41"/>
+    </row>
+    <row r="31" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A31" s="48"/>
+      <c r="B31" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="41"/>
+    </row>
+    <row r="32" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A32" s="48"/>
+      <c r="B32" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="41"/>
+    </row>
+    <row r="33" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A33" s="48"/>
+      <c r="B33" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="45"/>
+    </row>
+    <row r="34" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A34" s="48"/>
+      <c r="B34" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="45"/>
+    </row>
+    <row r="35" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A35" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="45"/>
+    </row>
+    <row r="36" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A36" s="48"/>
+      <c r="B36" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="45"/>
+    </row>
+    <row r="37" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A37" s="48"/>
+      <c r="B37" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="45"/>
+    </row>
+    <row r="38" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A38" s="48"/>
+      <c r="B38" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="45"/>
+    </row>
+    <row r="39" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A39" s="48"/>
+      <c r="B39" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="45"/>
+    </row>
+    <row r="40" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A40" s="48"/>
+      <c r="B40" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="41"/>
+    </row>
+    <row r="41" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A41" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K41" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L41" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M41" s="37"/>
+      <c r="N41" s="36">
+        <v>142</v>
+      </c>
+      <c r="O41" s="36">
+        <v>3139</v>
+      </c>
+      <c r="P41" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q41" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="45"/>
+    </row>
+    <row r="42" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A42" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q42" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="40"/>
+    </row>
+    <row r="43" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A43" s="48"/>
+      <c r="B43" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="41"/>
+    </row>
+    <row r="44" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A44" s="48"/>
+      <c r="B44" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="41"/>
+    </row>
+    <row r="45" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A45" s="48"/>
+      <c r="B45" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="41"/>
+    </row>
+    <row r="46" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A46" s="48"/>
+      <c r="B46" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="41"/>
+    </row>
+    <row r="47" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A47" s="48"/>
+      <c r="B47" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="45"/>
+    </row>
+    <row r="48" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A48" s="48"/>
+      <c r="B48" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="45"/>
+    </row>
+    <row r="49" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A49" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="36"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="45"/>
+    </row>
+    <row r="50" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A50" s="48"/>
+      <c r="B50" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="45"/>
+    </row>
+    <row r="51" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A51" s="48"/>
+      <c r="B51" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="38"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="45"/>
+    </row>
+    <row r="52" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A52" s="48"/>
+      <c r="B52" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="38"/>
+      <c r="Y52" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="45"/>
+    </row>
+    <row r="53" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A53" s="48"/>
+      <c r="B53" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="38"/>
+      <c r="V53" s="38"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="45"/>
+    </row>
+    <row r="54" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A54" s="48"/>
+      <c r="B54" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="R54" s="38"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="38"/>
+      <c r="V54" s="38"/>
+      <c r="W54" s="38"/>
+      <c r="X54" s="38"/>
+      <c r="Y54" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="41"/>
+    </row>
+    <row r="55" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A55" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="36"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J55" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K55" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L55" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M55" s="37"/>
+      <c r="N55" s="36">
+        <v>142</v>
+      </c>
+      <c r="O55" s="36">
+        <v>3139</v>
+      </c>
+      <c r="P55" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q55" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="38"/>
+      <c r="V55" s="38"/>
+      <c r="W55" s="38"/>
+      <c r="X55" s="38"/>
+      <c r="Y55" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="45"/>
+    </row>
+    <row r="56" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A56" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="36"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q56" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="40"/>
+    </row>
+    <row r="57" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A57" s="48"/>
+      <c r="B57" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="38"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="38"/>
+      <c r="Y57" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="41"/>
+    </row>
+    <row r="58" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A58" s="48"/>
+      <c r="B58" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="38"/>
+      <c r="V58" s="38"/>
+      <c r="W58" s="38"/>
+      <c r="X58" s="38"/>
+      <c r="Y58" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="41"/>
+    </row>
+    <row r="59" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A59" s="48"/>
+      <c r="B59" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="38"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="38"/>
+      <c r="Y59" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="41"/>
+    </row>
+    <row r="60" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A60" s="48"/>
+      <c r="B60" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="38"/>
+      <c r="Y60" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="41"/>
+    </row>
+    <row r="61" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A61" s="48"/>
+      <c r="B61" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="38"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="38"/>
+      <c r="Y61" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="45"/>
+    </row>
+    <row r="62" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A62" s="48"/>
+      <c r="B62" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z62" s="45"/>
+    </row>
+    <row r="63" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A63" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" s="36"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="38"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="38"/>
+      <c r="Y63" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="45"/>
+    </row>
+    <row r="64" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A64" s="48"/>
+      <c r="B64" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="38"/>
+      <c r="Y64" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="45"/>
+    </row>
+    <row r="65" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A65" s="48"/>
+      <c r="B65" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="45"/>
+    </row>
+    <row r="66" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A66" s="48"/>
+      <c r="B66" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="38"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="38"/>
+      <c r="Y66" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="45"/>
+    </row>
+    <row r="67" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A67" s="48"/>
+      <c r="B67" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="38"/>
+      <c r="W67" s="38"/>
+      <c r="X67" s="38"/>
+      <c r="Y67" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z67" s="45"/>
+    </row>
+    <row r="68" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A68" s="48"/>
+      <c r="B68" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="R68" s="38"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="38"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="38"/>
+      <c r="X68" s="38"/>
+      <c r="Y68" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="41"/>
+    </row>
+    <row r="69" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A69" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" s="36"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J69" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K69" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L69" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M69" s="37"/>
+      <c r="N69" s="36">
+        <v>142</v>
+      </c>
+      <c r="O69" s="36">
+        <v>3139</v>
+      </c>
+      <c r="P69" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q69" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="R69" s="38"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
+      <c r="Y69" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z69" s="45"/>
+    </row>
+    <row r="70" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A70" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70" s="36"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q70" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="R70" s="38"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="38"/>
+      <c r="Y70" s="39">
+        <f t="shared" ref="Y70:Y97" si="1">SUM(R70:X70)</f>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="40"/>
+    </row>
+    <row r="71" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A71" s="48"/>
+      <c r="B71" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="38"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="38"/>
+      <c r="X71" s="38"/>
+      <c r="Y71" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z71" s="41"/>
+    </row>
+    <row r="72" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A72" s="48"/>
+      <c r="B72" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38"/>
+      <c r="Y72" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z72" s="41"/>
+    </row>
+    <row r="73" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A73" s="48"/>
+      <c r="B73" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="49"/>
+      <c r="Q73" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R73" s="38"/>
+      <c r="S73" s="38"/>
+      <c r="T73" s="38"/>
+      <c r="U73" s="38"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="38"/>
+      <c r="X73" s="38"/>
+      <c r="Y73" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z73" s="41"/>
+    </row>
+    <row r="74" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A74" s="48"/>
+      <c r="B74" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="R74" s="38"/>
+      <c r="S74" s="38"/>
+      <c r="T74" s="38"/>
+      <c r="U74" s="38"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="38"/>
+      <c r="X74" s="38"/>
+      <c r="Y74" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="41"/>
+    </row>
+    <row r="75" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A75" s="48"/>
+      <c r="B75" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="49"/>
+      <c r="Q75" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="R75" s="38"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="38"/>
+      <c r="U75" s="38"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="38"/>
+      <c r="Y75" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="45"/>
+    </row>
+    <row r="76" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A76" s="48"/>
+      <c r="B76" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="49"/>
+      <c r="Q76" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="R76" s="38"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="38"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="38"/>
+      <c r="X76" s="38"/>
+      <c r="Y76" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="45"/>
+    </row>
+    <row r="77" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A77" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" s="36"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="49"/>
+      <c r="Q77" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="R77" s="38"/>
+      <c r="S77" s="38"/>
+      <c r="T77" s="38"/>
+      <c r="U77" s="38"/>
+      <c r="V77" s="38"/>
+      <c r="W77" s="38"/>
+      <c r="X77" s="38"/>
+      <c r="Y77" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="45"/>
+    </row>
+    <row r="78" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A78" s="48"/>
+      <c r="B78" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="49"/>
+      <c r="Q78" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="R78" s="38"/>
+      <c r="S78" s="38"/>
+      <c r="T78" s="38"/>
+      <c r="U78" s="38"/>
+      <c r="V78" s="38"/>
+      <c r="W78" s="38"/>
+      <c r="X78" s="38"/>
+      <c r="Y78" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="45"/>
+    </row>
+    <row r="79" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A79" s="48"/>
+      <c r="B79" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="49"/>
+      <c r="Q79" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="R79" s="38"/>
+      <c r="S79" s="38"/>
+      <c r="T79" s="38"/>
+      <c r="U79" s="38"/>
+      <c r="V79" s="38"/>
+      <c r="W79" s="38"/>
+      <c r="X79" s="38"/>
+      <c r="Y79" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z79" s="45"/>
+    </row>
+    <row r="80" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A80" s="48"/>
+      <c r="B80" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="R80" s="38"/>
+      <c r="S80" s="38"/>
+      <c r="T80" s="38"/>
+      <c r="U80" s="38"/>
+      <c r="V80" s="38"/>
+      <c r="W80" s="38"/>
+      <c r="X80" s="38"/>
+      <c r="Y80" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z80" s="45"/>
+    </row>
+    <row r="81" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A81" s="48"/>
+      <c r="B81" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="49"/>
+      <c r="Q81" s="47"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="38"/>
+      <c r="T81" s="38"/>
+      <c r="U81" s="38"/>
+      <c r="V81" s="38"/>
+      <c r="W81" s="38"/>
+      <c r="X81" s="38"/>
+      <c r="Y81" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z81" s="45"/>
+    </row>
+    <row r="82" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A82" s="48"/>
+      <c r="B82" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="49"/>
+      <c r="Q82" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="R82" s="38"/>
+      <c r="S82" s="38"/>
+      <c r="T82" s="38"/>
+      <c r="U82" s="38"/>
+      <c r="V82" s="38"/>
+      <c r="W82" s="38"/>
+      <c r="X82" s="38"/>
+      <c r="Y82" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z82" s="41"/>
+    </row>
+    <row r="83" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A83" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G83" s="36"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J83" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K83" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L83" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M83" s="37"/>
+      <c r="N83" s="36">
+        <v>142</v>
+      </c>
+      <c r="O83" s="36">
+        <v>3139</v>
+      </c>
+      <c r="P83" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q83" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="R83" s="38"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="38"/>
+      <c r="U83" s="38"/>
+      <c r="V83" s="38"/>
+      <c r="W83" s="38"/>
+      <c r="X83" s="38"/>
+      <c r="Y83" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z83" s="45"/>
+    </row>
+    <row r="84" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A84" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="36"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q84" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="R84" s="38"/>
+      <c r="S84" s="38"/>
+      <c r="T84" s="38"/>
+      <c r="U84" s="38"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="38"/>
+      <c r="X84" s="38"/>
+      <c r="Y84" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z84" s="40"/>
+    </row>
+    <row r="85" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A85" s="48"/>
+      <c r="B85" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="49"/>
+      <c r="Q85" s="47"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="38"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="38"/>
+      <c r="X85" s="38"/>
+      <c r="Y85" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z85" s="41"/>
+    </row>
+    <row r="86" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A86" s="48"/>
+      <c r="B86" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="49"/>
+      <c r="Q86" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R86" s="38"/>
+      <c r="S86" s="38"/>
+      <c r="T86" s="38"/>
+      <c r="U86" s="38"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="38"/>
+      <c r="X86" s="38"/>
+      <c r="Y86" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z86" s="41"/>
+    </row>
+    <row r="87" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A87" s="48"/>
+      <c r="B87" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="49"/>
+      <c r="Q87" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R87" s="38"/>
+      <c r="S87" s="38"/>
+      <c r="T87" s="38"/>
+      <c r="U87" s="38"/>
+      <c r="V87" s="38"/>
+      <c r="W87" s="38"/>
+      <c r="X87" s="38"/>
+      <c r="Y87" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z87" s="41"/>
+    </row>
+    <row r="88" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A88" s="48"/>
+      <c r="B88" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="49"/>
+      <c r="Q88" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="R88" s="38"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="38"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="38"/>
+      <c r="X88" s="38"/>
+      <c r="Y88" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z88" s="41"/>
+    </row>
+    <row r="89" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A89" s="48"/>
+      <c r="B89" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="49"/>
+      <c r="Q89" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="R89" s="38"/>
+      <c r="S89" s="38"/>
+      <c r="T89" s="38"/>
+      <c r="U89" s="38"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="38"/>
+      <c r="X89" s="38"/>
+      <c r="Y89" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z89" s="45"/>
+    </row>
+    <row r="90" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A90" s="48"/>
+      <c r="B90" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="49"/>
+      <c r="Q90" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="R90" s="38"/>
+      <c r="S90" s="38"/>
+      <c r="T90" s="38"/>
+      <c r="U90" s="38"/>
+      <c r="V90" s="38"/>
+      <c r="W90" s="38"/>
+      <c r="X90" s="38"/>
+      <c r="Y90" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z90" s="45"/>
+    </row>
+    <row r="91" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A91" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F91" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="36"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="49"/>
+      <c r="Q91" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="R91" s="38"/>
+      <c r="S91" s="38"/>
+      <c r="T91" s="38"/>
+      <c r="U91" s="38"/>
+      <c r="V91" s="38"/>
+      <c r="W91" s="38"/>
+      <c r="X91" s="38"/>
+      <c r="Y91" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z91" s="45"/>
+    </row>
+    <row r="92" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A92" s="48"/>
+      <c r="B92" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="49"/>
+      <c r="Q92" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="R92" s="38"/>
+      <c r="S92" s="38"/>
+      <c r="T92" s="38"/>
+      <c r="U92" s="38"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="38"/>
+      <c r="X92" s="38"/>
+      <c r="Y92" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z92" s="45"/>
+    </row>
+    <row r="93" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A93" s="48"/>
+      <c r="B93" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="49"/>
+      <c r="Q93" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="R93" s="38"/>
+      <c r="S93" s="38"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="38"/>
+      <c r="V93" s="38"/>
+      <c r="W93" s="38"/>
+      <c r="X93" s="38"/>
+      <c r="Y93" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z93" s="45"/>
+    </row>
+    <row r="94" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A94" s="48"/>
+      <c r="B94" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="49"/>
+      <c r="Q94" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="R94" s="38"/>
+      <c r="S94" s="38"/>
+      <c r="T94" s="38"/>
+      <c r="U94" s="38"/>
+      <c r="V94" s="38"/>
+      <c r="W94" s="38"/>
+      <c r="X94" s="38"/>
+      <c r="Y94" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z94" s="45"/>
+    </row>
+    <row r="95" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A95" s="48"/>
+      <c r="B95" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="49"/>
+      <c r="Q95" s="47"/>
+      <c r="R95" s="38"/>
+      <c r="S95" s="38"/>
+      <c r="T95" s="38"/>
+      <c r="U95" s="38"/>
+      <c r="V95" s="38"/>
+      <c r="W95" s="38"/>
+      <c r="X95" s="38"/>
+      <c r="Y95" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z95" s="45"/>
+    </row>
+    <row r="96" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A96" s="48"/>
+      <c r="B96" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="49"/>
+      <c r="Q96" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="R96" s="38"/>
+      <c r="S96" s="38"/>
+      <c r="T96" s="38"/>
+      <c r="U96" s="38"/>
+      <c r="V96" s="38"/>
+      <c r="W96" s="38"/>
+      <c r="X96" s="38"/>
+      <c r="Y96" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z96" s="41"/>
+    </row>
+    <row r="97" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A97" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F97" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G97" s="36"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J97" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K97" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L97" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M97" s="37"/>
+      <c r="N97" s="36">
+        <v>142</v>
+      </c>
+      <c r="O97" s="36">
+        <v>3139</v>
+      </c>
+      <c r="P97" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q97" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="R97" s="38"/>
+      <c r="S97" s="38"/>
+      <c r="T97" s="38"/>
+      <c r="U97" s="38"/>
+      <c r="V97" s="38"/>
+      <c r="W97" s="38"/>
+      <c r="X97" s="38"/>
+      <c r="Y97" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z97" s="45"/>
+    </row>
+    <row r="98" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A98" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G98" s="36"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K98" s="36"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q98" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="R98" s="38"/>
+      <c r="S98" s="38"/>
+      <c r="T98" s="38"/>
+      <c r="U98" s="38"/>
+      <c r="V98" s="38"/>
+      <c r="W98" s="38"/>
+      <c r="X98" s="38"/>
+      <c r="Y98" s="39">
+        <f t="shared" ref="Y98:Y135" si="2">SUM(R98:X98)</f>
+        <v>0</v>
+      </c>
+      <c r="Z98" s="40"/>
+    </row>
+    <row r="99" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A99" s="48"/>
+      <c r="B99" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="47"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="37"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36"/>
+      <c r="P99" s="49"/>
+      <c r="Q99" s="47"/>
+      <c r="R99" s="38"/>
+      <c r="S99" s="38"/>
+      <c r="T99" s="38"/>
+      <c r="U99" s="38"/>
+      <c r="V99" s="38"/>
+      <c r="W99" s="38"/>
+      <c r="X99" s="38"/>
+      <c r="Y99" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z99" s="41"/>
+    </row>
+    <row r="100" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A100" s="48"/>
+      <c r="B100" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K100" s="36"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="49"/>
+      <c r="Q100" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R100" s="38"/>
+      <c r="S100" s="38"/>
+      <c r="T100" s="38"/>
+      <c r="U100" s="38"/>
+      <c r="V100" s="38"/>
+      <c r="W100" s="38"/>
+      <c r="X100" s="38"/>
+      <c r="Y100" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z100" s="41"/>
+    </row>
+    <row r="101" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A101" s="48"/>
+      <c r="B101" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="47"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K101" s="36"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="49"/>
+      <c r="Q101" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R101" s="38"/>
+      <c r="S101" s="38"/>
+      <c r="T101" s="38"/>
+      <c r="U101" s="38"/>
+      <c r="V101" s="38"/>
+      <c r="W101" s="38"/>
+      <c r="X101" s="38"/>
+      <c r="Y101" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z101" s="41"/>
+    </row>
+    <row r="102" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A102" s="48"/>
+      <c r="B102" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K102" s="36"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="36"/>
+      <c r="O102" s="36"/>
+      <c r="P102" s="49"/>
+      <c r="Q102" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="R102" s="38"/>
+      <c r="S102" s="38"/>
+      <c r="T102" s="38"/>
+      <c r="U102" s="38"/>
+      <c r="V102" s="38"/>
+      <c r="W102" s="38"/>
+      <c r="X102" s="38"/>
+      <c r="Y102" s="39">
+        <f t="shared" ref="Y102:Y125" si="3">SUM(R102:X102)</f>
+        <v>0</v>
+      </c>
+      <c r="Z102" s="41"/>
+    </row>
+    <row r="103" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A103" s="48"/>
+      <c r="B103" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="49"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="37"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="49"/>
+      <c r="Q103" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="R103" s="38"/>
+      <c r="S103" s="38"/>
+      <c r="T103" s="38"/>
+      <c r="U103" s="38"/>
+      <c r="V103" s="38"/>
+      <c r="W103" s="38"/>
+      <c r="X103" s="38"/>
+      <c r="Y103" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z103" s="45"/>
+    </row>
+    <row r="104" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A104" s="48"/>
+      <c r="B104" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="49"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="K104" s="36"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="37"/>
+      <c r="N104" s="36"/>
+      <c r="O104" s="36"/>
+      <c r="P104" s="49"/>
+      <c r="Q104" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="R104" s="38"/>
+      <c r="S104" s="38"/>
+      <c r="T104" s="38"/>
+      <c r="U104" s="38"/>
+      <c r="V104" s="38"/>
+      <c r="W104" s="38"/>
+      <c r="X104" s="38"/>
+      <c r="Y104" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z104" s="45"/>
+    </row>
+    <row r="105" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A105" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F105" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G105" s="36"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K105" s="36"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="37"/>
+      <c r="N105" s="36"/>
+      <c r="O105" s="36"/>
+      <c r="P105" s="49"/>
+      <c r="Q105" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="R105" s="38"/>
+      <c r="S105" s="38"/>
+      <c r="T105" s="38"/>
+      <c r="U105" s="38"/>
+      <c r="V105" s="38"/>
+      <c r="W105" s="38"/>
+      <c r="X105" s="38"/>
+      <c r="Y105" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z105" s="45"/>
+    </row>
+    <row r="106" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A106" s="48"/>
+      <c r="B106" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="47"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K106" s="36"/>
+      <c r="L106" s="36"/>
+      <c r="M106" s="37"/>
+      <c r="N106" s="36"/>
+      <c r="O106" s="36"/>
+      <c r="P106" s="49"/>
+      <c r="Q106" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="R106" s="38"/>
+      <c r="S106" s="38"/>
+      <c r="T106" s="38"/>
+      <c r="U106" s="38"/>
+      <c r="V106" s="38"/>
+      <c r="W106" s="38"/>
+      <c r="X106" s="38"/>
+      <c r="Y106" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z106" s="45"/>
+    </row>
+    <row r="107" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A107" s="48"/>
+      <c r="B107" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="47"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K107" s="36"/>
+      <c r="L107" s="36"/>
+      <c r="M107" s="37"/>
+      <c r="N107" s="36"/>
+      <c r="O107" s="36"/>
+      <c r="P107" s="49"/>
+      <c r="Q107" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="R107" s="38"/>
+      <c r="S107" s="38"/>
+      <c r="T107" s="38"/>
+      <c r="U107" s="38"/>
+      <c r="V107" s="38"/>
+      <c r="W107" s="38"/>
+      <c r="X107" s="38"/>
+      <c r="Y107" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z107" s="45"/>
+    </row>
+    <row r="108" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A108" s="48"/>
+      <c r="B108" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K108" s="36"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="36"/>
+      <c r="O108" s="36"/>
+      <c r="P108" s="49"/>
+      <c r="Q108" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="R108" s="38"/>
+      <c r="S108" s="38"/>
+      <c r="T108" s="38"/>
+      <c r="U108" s="38"/>
+      <c r="V108" s="38"/>
+      <c r="W108" s="38"/>
+      <c r="X108" s="38"/>
+      <c r="Y108" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z108" s="45"/>
+    </row>
+    <row r="109" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A109" s="48"/>
+      <c r="B109" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="47"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="37"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="47"/>
+      <c r="K109" s="36"/>
+      <c r="L109" s="36"/>
+      <c r="M109" s="37"/>
+      <c r="N109" s="36"/>
+      <c r="O109" s="36"/>
+      <c r="P109" s="49"/>
+      <c r="Q109" s="47"/>
+      <c r="R109" s="38"/>
+      <c r="S109" s="38"/>
+      <c r="T109" s="38"/>
+      <c r="U109" s="38"/>
+      <c r="V109" s="38"/>
+      <c r="W109" s="38"/>
+      <c r="X109" s="38"/>
+      <c r="Y109" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z109" s="45"/>
+    </row>
+    <row r="110" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A110" s="48"/>
+      <c r="B110" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="47"/>
+      <c r="F110" s="49"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="37"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K110" s="36"/>
+      <c r="L110" s="36"/>
+      <c r="M110" s="37"/>
+      <c r="N110" s="36"/>
+      <c r="O110" s="36"/>
+      <c r="P110" s="49"/>
+      <c r="Q110" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="R110" s="38"/>
+      <c r="S110" s="38"/>
+      <c r="T110" s="38"/>
+      <c r="U110" s="38"/>
+      <c r="V110" s="38"/>
+      <c r="W110" s="38"/>
+      <c r="X110" s="38"/>
+      <c r="Y110" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z110" s="41"/>
+    </row>
+    <row r="111" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A111" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B111" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F111" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G111" s="36"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J111" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K111" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L111" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M111" s="37"/>
+      <c r="N111" s="36">
+        <v>142</v>
+      </c>
+      <c r="O111" s="36">
+        <v>3139</v>
+      </c>
+      <c r="P111" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q111" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="R111" s="38"/>
+      <c r="S111" s="38"/>
+      <c r="T111" s="38"/>
+      <c r="U111" s="38"/>
+      <c r="V111" s="38"/>
+      <c r="W111" s="38"/>
+      <c r="X111" s="38"/>
+      <c r="Y111" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z111" s="45"/>
+    </row>
+    <row r="112" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A112" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B112" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" s="36"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K112" s="36"/>
+      <c r="L112" s="36"/>
+      <c r="M112" s="37"/>
+      <c r="N112" s="36"/>
+      <c r="O112" s="36"/>
+      <c r="P112" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q112" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="R112" s="38"/>
+      <c r="S112" s="38"/>
+      <c r="T112" s="38"/>
+      <c r="U112" s="38"/>
+      <c r="V112" s="38"/>
+      <c r="W112" s="38"/>
+      <c r="X112" s="38"/>
+      <c r="Y112" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z112" s="40"/>
+    </row>
+    <row r="113" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A113" s="48"/>
+      <c r="B113" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="49"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="47"/>
+      <c r="K113" s="36"/>
+      <c r="L113" s="36"/>
+      <c r="M113" s="37"/>
+      <c r="N113" s="36"/>
+      <c r="O113" s="36"/>
+      <c r="P113" s="49"/>
+      <c r="Q113" s="47"/>
+      <c r="R113" s="38"/>
+      <c r="S113" s="38"/>
+      <c r="T113" s="38"/>
+      <c r="U113" s="38"/>
+      <c r="V113" s="38"/>
+      <c r="W113" s="38"/>
+      <c r="X113" s="38"/>
+      <c r="Y113" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z113" s="41"/>
+    </row>
+    <row r="114" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A114" s="48"/>
+      <c r="B114" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C114" s="36"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="49"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K114" s="36"/>
+      <c r="L114" s="36"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="36"/>
+      <c r="O114" s="36"/>
+      <c r="P114" s="49"/>
+      <c r="Q114" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R114" s="38"/>
+      <c r="S114" s="38"/>
+      <c r="T114" s="38"/>
+      <c r="U114" s="38"/>
+      <c r="V114" s="38"/>
+      <c r="W114" s="38"/>
+      <c r="X114" s="38"/>
+      <c r="Y114" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z114" s="41"/>
+    </row>
+    <row r="115" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A115" s="48"/>
+      <c r="B115" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="49"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K115" s="36"/>
+      <c r="L115" s="36"/>
+      <c r="M115" s="37"/>
+      <c r="N115" s="36"/>
+      <c r="O115" s="36"/>
+      <c r="P115" s="49"/>
+      <c r="Q115" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R115" s="38"/>
+      <c r="S115" s="38"/>
+      <c r="T115" s="38"/>
+      <c r="U115" s="38"/>
+      <c r="V115" s="38"/>
+      <c r="W115" s="38"/>
+      <c r="X115" s="38"/>
+      <c r="Y115" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z115" s="41"/>
+    </row>
+    <row r="116" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A116" s="48"/>
+      <c r="B116" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="49"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K116" s="36"/>
+      <c r="L116" s="36"/>
+      <c r="M116" s="37"/>
+      <c r="N116" s="36"/>
+      <c r="O116" s="36"/>
+      <c r="P116" s="49"/>
+      <c r="Q116" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="R116" s="38"/>
+      <c r="S116" s="38"/>
+      <c r="T116" s="38"/>
+      <c r="U116" s="38"/>
+      <c r="V116" s="38"/>
+      <c r="W116" s="38"/>
+      <c r="X116" s="38"/>
+      <c r="Y116" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z116" s="41"/>
+    </row>
+    <row r="117" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A117" s="48"/>
+      <c r="B117" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C117" s="36"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="36"/>
+      <c r="J117" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K117" s="36"/>
+      <c r="L117" s="36"/>
+      <c r="M117" s="37"/>
+      <c r="N117" s="36"/>
+      <c r="O117" s="36"/>
+      <c r="P117" s="49"/>
+      <c r="Q117" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="R117" s="38"/>
+      <c r="S117" s="38"/>
+      <c r="T117" s="38"/>
+      <c r="U117" s="38"/>
+      <c r="V117" s="38"/>
+      <c r="W117" s="38"/>
+      <c r="X117" s="38"/>
+      <c r="Y117" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z117" s="45"/>
+    </row>
+    <row r="118" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A118" s="48"/>
+      <c r="B118" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="49"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="K118" s="36"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="37"/>
+      <c r="N118" s="36"/>
+      <c r="O118" s="36"/>
+      <c r="P118" s="49"/>
+      <c r="Q118" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="R118" s="38"/>
+      <c r="S118" s="38"/>
+      <c r="T118" s="38"/>
+      <c r="U118" s="38"/>
+      <c r="V118" s="38"/>
+      <c r="W118" s="38"/>
+      <c r="X118" s="38"/>
+      <c r="Y118" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z118" s="45"/>
+    </row>
+    <row r="119" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A119" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F119" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G119" s="36"/>
+      <c r="H119" s="37"/>
+      <c r="I119" s="36"/>
+      <c r="J119" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K119" s="36"/>
+      <c r="L119" s="36"/>
+      <c r="M119" s="37"/>
+      <c r="N119" s="36"/>
+      <c r="O119" s="36"/>
+      <c r="P119" s="49"/>
+      <c r="Q119" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="R119" s="38"/>
+      <c r="S119" s="38"/>
+      <c r="T119" s="38"/>
+      <c r="U119" s="38"/>
+      <c r="V119" s="38"/>
+      <c r="W119" s="38"/>
+      <c r="X119" s="38"/>
+      <c r="Y119" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z119" s="45"/>
+    </row>
+    <row r="120" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A120" s="48"/>
+      <c r="B120" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="49"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="36"/>
+      <c r="J120" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K120" s="36"/>
+      <c r="L120" s="36"/>
+      <c r="M120" s="37"/>
+      <c r="N120" s="36"/>
+      <c r="O120" s="36"/>
+      <c r="P120" s="49"/>
+      <c r="Q120" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="R120" s="38"/>
+      <c r="S120" s="38"/>
+      <c r="T120" s="38"/>
+      <c r="U120" s="38"/>
+      <c r="V120" s="38"/>
+      <c r="W120" s="38"/>
+      <c r="X120" s="38"/>
+      <c r="Y120" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z120" s="45"/>
+    </row>
+    <row r="121" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A121" s="48"/>
+      <c r="B121" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="49"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="36"/>
+      <c r="J121" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K121" s="36"/>
+      <c r="L121" s="36"/>
+      <c r="M121" s="37"/>
+      <c r="N121" s="36"/>
+      <c r="O121" s="36"/>
+      <c r="P121" s="49"/>
+      <c r="Q121" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="R121" s="38"/>
+      <c r="S121" s="38"/>
+      <c r="T121" s="38"/>
+      <c r="U121" s="38"/>
+      <c r="V121" s="38"/>
+      <c r="W121" s="38"/>
+      <c r="X121" s="38"/>
+      <c r="Y121" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z121" s="45"/>
+    </row>
+    <row r="122" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A122" s="48"/>
+      <c r="B122" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="49"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="37"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K122" s="36"/>
+      <c r="L122" s="36"/>
+      <c r="M122" s="37"/>
+      <c r="N122" s="36"/>
+      <c r="O122" s="36"/>
+      <c r="P122" s="49"/>
+      <c r="Q122" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="R122" s="38"/>
+      <c r="S122" s="38"/>
+      <c r="T122" s="38"/>
+      <c r="U122" s="38"/>
+      <c r="V122" s="38"/>
+      <c r="W122" s="38"/>
+      <c r="X122" s="38"/>
+      <c r="Y122" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z122" s="45"/>
+    </row>
+    <row r="123" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A123" s="48"/>
+      <c r="B123" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C123" s="36"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="49"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="37"/>
+      <c r="I123" s="36"/>
+      <c r="J123" s="47"/>
+      <c r="K123" s="36"/>
+      <c r="L123" s="36"/>
+      <c r="M123" s="37"/>
+      <c r="N123" s="36"/>
+      <c r="O123" s="36"/>
+      <c r="P123" s="49"/>
+      <c r="Q123" s="47"/>
+      <c r="R123" s="38"/>
+      <c r="S123" s="38"/>
+      <c r="T123" s="38"/>
+      <c r="U123" s="38"/>
+      <c r="V123" s="38"/>
+      <c r="W123" s="38"/>
+      <c r="X123" s="38"/>
+      <c r="Y123" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z123" s="45"/>
+    </row>
+    <row r="124" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A124" s="48"/>
+      <c r="B124" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="49"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="37"/>
+      <c r="I124" s="36"/>
+      <c r="J124" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K124" s="36"/>
+      <c r="L124" s="36"/>
+      <c r="M124" s="37"/>
+      <c r="N124" s="36"/>
+      <c r="O124" s="36"/>
+      <c r="P124" s="49"/>
+      <c r="Q124" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="R124" s="38"/>
+      <c r="S124" s="38"/>
+      <c r="T124" s="38"/>
+      <c r="U124" s="38"/>
+      <c r="V124" s="38"/>
+      <c r="W124" s="38"/>
+      <c r="X124" s="38"/>
+      <c r="Y124" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z124" s="41"/>
+    </row>
+    <row r="125" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A125" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B125" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F125" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G125" s="36"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J125" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K125" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L125" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M125" s="37"/>
+      <c r="N125" s="36">
+        <v>142</v>
+      </c>
+      <c r="O125" s="36">
+        <v>3139</v>
+      </c>
+      <c r="P125" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q125" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="R125" s="38"/>
+      <c r="S125" s="38"/>
+      <c r="T125" s="38"/>
+      <c r="U125" s="38"/>
+      <c r="V125" s="38"/>
+      <c r="W125" s="38"/>
+      <c r="X125" s="38"/>
+      <c r="Y125" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z125" s="45"/>
+    </row>
+    <row r="126" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A126" s="48"/>
+      <c r="B126" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="49"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="36"/>
+      <c r="J126" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K126" s="36"/>
+      <c r="L126" s="36"/>
+      <c r="M126" s="37"/>
+      <c r="N126" s="36"/>
+      <c r="O126" s="36"/>
+      <c r="P126" s="49"/>
+      <c r="Q126" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="R126" s="38"/>
+      <c r="S126" s="38"/>
+      <c r="T126" s="38"/>
+      <c r="U126" s="38"/>
+      <c r="V126" s="38"/>
+      <c r="W126" s="38"/>
+      <c r="X126" s="38"/>
+      <c r="Y126" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z126" s="41"/>
+    </row>
+    <row r="127" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A127" s="48"/>
+      <c r="B127" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C127" s="36"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="49"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="37"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K127" s="36"/>
+      <c r="L127" s="36"/>
+      <c r="M127" s="37"/>
+      <c r="N127" s="36"/>
+      <c r="O127" s="36"/>
+      <c r="P127" s="49"/>
+      <c r="Q127" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="R127" s="38"/>
+      <c r="S127" s="38"/>
+      <c r="T127" s="38"/>
+      <c r="U127" s="38"/>
+      <c r="V127" s="38"/>
+      <c r="W127" s="38"/>
+      <c r="X127" s="38"/>
+      <c r="Y127" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z127" s="45"/>
+    </row>
+    <row r="128" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A128" s="48"/>
+      <c r="B128" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C128" s="36"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="49"/>
+      <c r="G128" s="44"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="36"/>
+      <c r="J128" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="K128" s="36"/>
+      <c r="L128" s="36"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="36"/>
+      <c r="O128" s="36"/>
+      <c r="P128" s="49"/>
+      <c r="Q128" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="R128" s="38"/>
+      <c r="S128" s="38"/>
+      <c r="T128" s="38"/>
+      <c r="U128" s="38"/>
+      <c r="V128" s="38"/>
+      <c r="W128" s="38"/>
+      <c r="X128" s="38"/>
+      <c r="Y128" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z128" s="45"/>
+    </row>
+    <row r="129" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A129" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B129" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C129" s="36"/>
+      <c r="D129" s="36"/>
+      <c r="E129" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F129" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G129" s="36"/>
+      <c r="H129" s="37"/>
+      <c r="I129" s="36"/>
+      <c r="J129" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K129" s="36"/>
+      <c r="L129" s="36"/>
+      <c r="M129" s="37"/>
+      <c r="N129" s="36"/>
+      <c r="O129" s="36"/>
+      <c r="P129" s="49"/>
+      <c r="Q129" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="R129" s="38"/>
+      <c r="S129" s="38"/>
+      <c r="T129" s="38"/>
+      <c r="U129" s="38"/>
+      <c r="V129" s="38"/>
+      <c r="W129" s="38"/>
+      <c r="X129" s="38"/>
+      <c r="Y129" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z129" s="45"/>
+    </row>
+    <row r="130" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A130" s="48"/>
+      <c r="B130" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C130" s="36"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="47"/>
+      <c r="F130" s="49"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="36"/>
+      <c r="J130" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K130" s="36"/>
+      <c r="L130" s="36"/>
+      <c r="M130" s="37"/>
+      <c r="N130" s="36"/>
+      <c r="O130" s="36"/>
+      <c r="P130" s="49"/>
+      <c r="Q130" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="R130" s="38"/>
+      <c r="S130" s="38"/>
+      <c r="T130" s="38"/>
+      <c r="U130" s="38"/>
+      <c r="V130" s="38"/>
+      <c r="W130" s="38"/>
+      <c r="X130" s="38"/>
+      <c r="Y130" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z130" s="45"/>
+    </row>
+    <row r="131" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A131" s="48"/>
+      <c r="B131" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="49"/>
+      <c r="G131" s="36"/>
+      <c r="H131" s="37"/>
+      <c r="I131" s="36"/>
+      <c r="J131" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K131" s="36"/>
+      <c r="L131" s="36"/>
+      <c r="M131" s="37"/>
+      <c r="N131" s="36"/>
+      <c r="O131" s="36"/>
+      <c r="P131" s="49"/>
+      <c r="Q131" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="R131" s="38"/>
+      <c r="S131" s="38"/>
+      <c r="T131" s="38"/>
+      <c r="U131" s="38"/>
+      <c r="V131" s="38"/>
+      <c r="W131" s="38"/>
+      <c r="X131" s="38"/>
+      <c r="Y131" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z131" s="45"/>
+    </row>
+    <row r="132" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A132" s="48"/>
+      <c r="B132" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="49"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="37"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K132" s="36"/>
+      <c r="L132" s="36"/>
+      <c r="M132" s="37"/>
+      <c r="N132" s="36"/>
+      <c r="O132" s="36"/>
+      <c r="P132" s="49"/>
+      <c r="Q132" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="R132" s="38"/>
+      <c r="S132" s="38"/>
+      <c r="T132" s="38"/>
+      <c r="U132" s="38"/>
+      <c r="V132" s="38"/>
+      <c r="W132" s="38"/>
+      <c r="X132" s="38"/>
+      <c r="Y132" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z132" s="45"/>
+    </row>
+    <row r="133" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A133" s="48"/>
+      <c r="B133" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="49"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="37"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="47"/>
+      <c r="K133" s="36"/>
+      <c r="L133" s="36"/>
+      <c r="M133" s="37"/>
+      <c r="N133" s="36"/>
+      <c r="O133" s="36"/>
+      <c r="P133" s="49"/>
+      <c r="Q133" s="47"/>
+      <c r="R133" s="38"/>
+      <c r="S133" s="38"/>
+      <c r="T133" s="38"/>
+      <c r="U133" s="38"/>
+      <c r="V133" s="38"/>
+      <c r="W133" s="38"/>
+      <c r="X133" s="38"/>
+      <c r="Y133" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z133" s="45"/>
+    </row>
+    <row r="134" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A134" s="48"/>
+      <c r="B134" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C134" s="36"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="49"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="37"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K134" s="36"/>
+      <c r="L134" s="36"/>
+      <c r="M134" s="37"/>
+      <c r="N134" s="36"/>
+      <c r="O134" s="36"/>
+      <c r="P134" s="49"/>
+      <c r="Q134" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="R134" s="38"/>
+      <c r="S134" s="38"/>
+      <c r="T134" s="38"/>
+      <c r="U134" s="38"/>
+      <c r="V134" s="38"/>
+      <c r="W134" s="38"/>
+      <c r="X134" s="38"/>
+      <c r="Y134" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z134" s="41"/>
+    </row>
+    <row r="135" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A135" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B135" s="35">
+        <v>45929</v>
+      </c>
+      <c r="C135" s="36"/>
+      <c r="D135" s="36"/>
+      <c r="E135" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F135" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G135" s="36"/>
+      <c r="H135" s="37"/>
+      <c r="I135" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J135" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K135" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L135" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M135" s="37"/>
+      <c r="N135" s="36">
+        <v>142</v>
+      </c>
+      <c r="O135" s="36">
+        <v>3139</v>
+      </c>
+      <c r="P135" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q135" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="R135" s="38"/>
+      <c r="S135" s="38"/>
+      <c r="T135" s="38"/>
+      <c r="U135" s="38"/>
+      <c r="V135" s="38"/>
+      <c r="W135" s="38"/>
+      <c r="X135" s="38"/>
+      <c r="Y135" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z135" s="45"/>
+    </row>
+    <row r="136" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A136" s="48"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="49"/>
+      <c r="G136" s="36"/>
+      <c r="H136" s="37"/>
+      <c r="I136" s="36"/>
+      <c r="J136" s="47"/>
+      <c r="K136" s="36"/>
+      <c r="L136" s="36"/>
+      <c r="M136" s="37"/>
+      <c r="N136" s="36"/>
+      <c r="O136" s="36"/>
+      <c r="P136" s="49"/>
+      <c r="Q136" s="47"/>
+      <c r="R136" s="38"/>
+      <c r="S136" s="38"/>
+      <c r="T136" s="38"/>
+      <c r="U136" s="38"/>
+      <c r="V136" s="38"/>
+      <c r="W136" s="38"/>
+      <c r="X136" s="38"/>
+      <c r="Y136" s="39">
+        <f t="shared" ref="Y136:Y149" si="4">SUM(R136:X136)</f>
+        <v>0</v>
+      </c>
+      <c r="Z136" s="40"/>
+    </row>
+    <row r="137" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A137" s="48"/>
+      <c r="B137" s="35"/>
+      <c r="C137" s="36"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="47"/>
+      <c r="F137" s="49"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="37"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="47"/>
+      <c r="K137" s="36"/>
+      <c r="L137" s="36"/>
+      <c r="M137" s="37"/>
+      <c r="N137" s="36"/>
+      <c r="O137" s="36"/>
+      <c r="P137" s="49"/>
+      <c r="Q137" s="47"/>
+      <c r="R137" s="38"/>
+      <c r="S137" s="38"/>
+      <c r="T137" s="38"/>
+      <c r="U137" s="38"/>
+      <c r="V137" s="38"/>
+      <c r="W137" s="38"/>
+      <c r="X137" s="38"/>
+      <c r="Y137" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z137" s="41"/>
+    </row>
+    <row r="138" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A138" s="48"/>
+      <c r="B138" s="35"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="36"/>
+      <c r="H138" s="37"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="36"/>
+      <c r="K138" s="36"/>
+      <c r="L138" s="36"/>
+      <c r="M138" s="37"/>
+      <c r="N138" s="36"/>
+      <c r="O138" s="36"/>
+      <c r="P138" s="49"/>
+      <c r="Q138" s="43"/>
+      <c r="R138" s="38"/>
+      <c r="S138" s="38"/>
+      <c r="T138" s="38"/>
+      <c r="U138" s="38"/>
+      <c r="V138" s="38"/>
+      <c r="W138" s="38"/>
+      <c r="X138" s="38"/>
+      <c r="Y138" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z138" s="41"/>
+    </row>
+    <row r="139" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A139" s="48"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="36"/>
+      <c r="D139" s="36"/>
+      <c r="E139" s="47"/>
+      <c r="F139" s="49"/>
+      <c r="G139" s="36"/>
+      <c r="H139" s="37"/>
+      <c r="I139" s="36"/>
+      <c r="J139" s="36"/>
+      <c r="K139" s="36"/>
+      <c r="L139" s="36"/>
+      <c r="M139" s="37"/>
+      <c r="N139" s="36"/>
+      <c r="O139" s="36"/>
+      <c r="P139" s="49"/>
+      <c r="Q139" s="43"/>
+      <c r="R139" s="38"/>
+      <c r="S139" s="38"/>
+      <c r="T139" s="38"/>
+      <c r="U139" s="38"/>
+      <c r="V139" s="38"/>
+      <c r="W139" s="38"/>
+      <c r="X139" s="38"/>
+      <c r="Y139" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z139" s="41"/>
+    </row>
+    <row r="140" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A140" s="48"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="47"/>
+      <c r="F140" s="49"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="37"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="36"/>
+      <c r="K140" s="36"/>
+      <c r="L140" s="36"/>
+      <c r="M140" s="37"/>
+      <c r="N140" s="36"/>
+      <c r="O140" s="36"/>
+      <c r="P140" s="49"/>
+      <c r="Q140" s="43"/>
+      <c r="R140" s="38"/>
+      <c r="S140" s="38"/>
+      <c r="T140" s="38"/>
+      <c r="U140" s="38"/>
+      <c r="V140" s="38"/>
+      <c r="W140" s="38"/>
+      <c r="X140" s="38"/>
+      <c r="Y140" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z140" s="41"/>
+    </row>
+    <row r="141" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A141" s="48"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="36"/>
+      <c r="E141" s="47"/>
+      <c r="F141" s="49"/>
+      <c r="G141" s="44"/>
+      <c r="H141" s="37"/>
+      <c r="I141" s="36"/>
+      <c r="J141" s="36"/>
+      <c r="K141" s="36"/>
+      <c r="L141" s="36"/>
+      <c r="M141" s="37"/>
+      <c r="N141" s="36"/>
+      <c r="O141" s="36"/>
+      <c r="P141" s="49"/>
+      <c r="Q141" s="43"/>
+      <c r="R141" s="38"/>
+      <c r="S141" s="38"/>
+      <c r="T141" s="38"/>
+      <c r="U141" s="38"/>
+      <c r="V141" s="38"/>
+      <c r="W141" s="38"/>
+      <c r="X141" s="38"/>
+      <c r="Y141" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z141" s="45"/>
+    </row>
+    <row r="142" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A142" s="48"/>
+      <c r="B142" s="35"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="36"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="49"/>
+      <c r="G142" s="44"/>
+      <c r="H142" s="37"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="47"/>
+      <c r="K142" s="36"/>
+      <c r="L142" s="36"/>
+      <c r="M142" s="37"/>
+      <c r="N142" s="36"/>
+      <c r="O142" s="36"/>
+      <c r="P142" s="49"/>
+      <c r="Q142" s="43"/>
+      <c r="R142" s="38"/>
+      <c r="S142" s="38"/>
+      <c r="T142" s="38"/>
+      <c r="U142" s="38"/>
+      <c r="V142" s="38"/>
+      <c r="W142" s="38"/>
+      <c r="X142" s="38"/>
+      <c r="Y142" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z142" s="45"/>
+    </row>
+    <row r="143" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A143" s="48"/>
+      <c r="B143" s="35"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="36"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="49"/>
+      <c r="G143" s="36"/>
+      <c r="H143" s="37"/>
+      <c r="I143" s="36"/>
+      <c r="J143" s="47"/>
+      <c r="K143" s="36"/>
+      <c r="L143" s="36"/>
+      <c r="M143" s="37"/>
+      <c r="N143" s="36"/>
+      <c r="O143" s="36"/>
+      <c r="P143" s="49"/>
+      <c r="Q143" s="43"/>
+      <c r="R143" s="38"/>
+      <c r="S143" s="38"/>
+      <c r="T143" s="38"/>
+      <c r="U143" s="38"/>
+      <c r="V143" s="38"/>
+      <c r="W143" s="38"/>
+      <c r="X143" s="38"/>
+      <c r="Y143" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z143" s="45"/>
+    </row>
+    <row r="144" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A144" s="48"/>
+      <c r="B144" s="35"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="49"/>
+      <c r="G144" s="36"/>
+      <c r="H144" s="37"/>
+      <c r="I144" s="36"/>
+      <c r="J144" s="36"/>
+      <c r="K144" s="36"/>
+      <c r="L144" s="36"/>
+      <c r="M144" s="37"/>
+      <c r="N144" s="36"/>
+      <c r="O144" s="36"/>
+      <c r="P144" s="49"/>
+      <c r="Q144" s="47"/>
+      <c r="R144" s="38"/>
+      <c r="S144" s="38"/>
+      <c r="T144" s="38"/>
+      <c r="U144" s="38"/>
+      <c r="V144" s="38"/>
+      <c r="W144" s="38"/>
+      <c r="X144" s="38"/>
+      <c r="Y144" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z144" s="45"/>
+    </row>
+    <row r="145" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A145" s="48"/>
+      <c r="B145" s="35"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="36"/>
+      <c r="E145" s="47"/>
+      <c r="F145" s="49"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="37"/>
+      <c r="I145" s="36"/>
+      <c r="J145" s="36"/>
+      <c r="K145" s="36"/>
+      <c r="L145" s="36"/>
+      <c r="M145" s="37"/>
+      <c r="N145" s="36"/>
+      <c r="O145" s="36"/>
+      <c r="P145" s="49"/>
+      <c r="Q145" s="47"/>
+      <c r="R145" s="38"/>
+      <c r="S145" s="38"/>
+      <c r="T145" s="38"/>
+      <c r="U145" s="38"/>
+      <c r="V145" s="38"/>
+      <c r="W145" s="38"/>
+      <c r="X145" s="38"/>
+      <c r="Y145" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z145" s="45"/>
+    </row>
+    <row r="146" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A146" s="48"/>
+      <c r="B146" s="35"/>
+      <c r="C146" s="36"/>
+      <c r="D146" s="36"/>
+      <c r="E146" s="47"/>
+      <c r="F146" s="49"/>
+      <c r="G146" s="36"/>
+      <c r="H146" s="37"/>
+      <c r="I146" s="36"/>
+      <c r="J146" s="47"/>
+      <c r="K146" s="36"/>
+      <c r="L146" s="36"/>
+      <c r="M146" s="37"/>
+      <c r="N146" s="36"/>
+      <c r="O146" s="36"/>
+      <c r="P146" s="49"/>
+      <c r="Q146" s="47"/>
+      <c r="R146" s="38"/>
+      <c r="S146" s="38"/>
+      <c r="T146" s="38"/>
+      <c r="U146" s="38"/>
+      <c r="V146" s="38"/>
+      <c r="W146" s="38"/>
+      <c r="X146" s="38"/>
+      <c r="Y146" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z146" s="45"/>
+    </row>
+    <row r="147" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A147" s="48"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="47"/>
+      <c r="F147" s="49"/>
+      <c r="G147" s="36"/>
+      <c r="H147" s="37"/>
+      <c r="I147" s="36"/>
+      <c r="J147" s="47"/>
+      <c r="K147" s="36"/>
+      <c r="L147" s="36"/>
+      <c r="M147" s="37"/>
+      <c r="N147" s="36"/>
+      <c r="O147" s="36"/>
+      <c r="P147" s="49"/>
+      <c r="Q147" s="47"/>
+      <c r="R147" s="38"/>
+      <c r="S147" s="38"/>
+      <c r="T147" s="38"/>
+      <c r="U147" s="38"/>
+      <c r="V147" s="38"/>
+      <c r="W147" s="38"/>
+      <c r="X147" s="38"/>
+      <c r="Y147" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z147" s="45"/>
+    </row>
+    <row r="148" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A148" s="48"/>
+      <c r="B148" s="35"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="36"/>
+      <c r="E148" s="47"/>
+      <c r="F148" s="49"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="37"/>
+      <c r="I148" s="36"/>
+      <c r="J148" s="36"/>
+      <c r="K148" s="36"/>
+      <c r="L148" s="36"/>
+      <c r="M148" s="37"/>
+      <c r="N148" s="36"/>
+      <c r="O148" s="36"/>
+      <c r="P148" s="49"/>
+      <c r="Q148" s="47"/>
+      <c r="R148" s="38"/>
+      <c r="S148" s="38"/>
+      <c r="T148" s="38"/>
+      <c r="U148" s="38"/>
+      <c r="V148" s="38"/>
+      <c r="W148" s="38"/>
+      <c r="X148" s="38"/>
+      <c r="Y148" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z148" s="41"/>
+    </row>
+    <row r="149" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A149" s="48"/>
+      <c r="B149" s="35"/>
+      <c r="C149" s="36"/>
+      <c r="D149" s="36"/>
+      <c r="E149" s="47"/>
+      <c r="F149" s="49"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="37"/>
+      <c r="I149" s="36"/>
+      <c r="J149" s="36"/>
+      <c r="K149" s="36"/>
+      <c r="L149" s="36"/>
+      <c r="M149" s="37"/>
+      <c r="N149" s="36"/>
+      <c r="O149" s="36"/>
+      <c r="P149" s="49"/>
+      <c r="Q149" s="47"/>
+      <c r="R149" s="38"/>
+      <c r="S149" s="38"/>
+      <c r="T149" s="38"/>
+      <c r="U149" s="38"/>
+      <c r="V149" s="38"/>
+      <c r="W149" s="38"/>
+      <c r="X149" s="38"/>
+      <c r="Y149" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z149" s="45"/>
+    </row>
+    <row r="150" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A150" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="91"/>
-      <c r="U28" s="91"/>
-      <c r="V28" s="91"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="93">
-        <f>SUM(Y14:Y27)</f>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="94"/>
-    </row>
-    <row r="29" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A29" s="95"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="98"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="97"/>
-      <c r="U29" s="97"/>
-      <c r="V29" s="97"/>
-      <c r="W29" s="97"/>
-      <c r="X29" s="97"/>
-      <c r="Y29" s="97"/>
-      <c r="Z29" s="102"/>
-    </row>
-    <row r="30" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A30" s="95"/>
-      <c r="B30" s="103" t="s">
+      <c r="B150" s="77"/>
+      <c r="C150" s="77"/>
+      <c r="D150" s="77"/>
+      <c r="E150" s="77"/>
+      <c r="F150" s="77"/>
+      <c r="G150" s="77"/>
+      <c r="H150" s="77"/>
+      <c r="I150" s="77"/>
+      <c r="J150" s="77"/>
+      <c r="K150" s="77"/>
+      <c r="L150" s="77"/>
+      <c r="M150" s="77"/>
+      <c r="N150" s="77"/>
+      <c r="O150" s="77"/>
+      <c r="P150" s="77"/>
+      <c r="Q150" s="77"/>
+      <c r="R150" s="50"/>
+      <c r="S150" s="51"/>
+      <c r="T150" s="51"/>
+      <c r="U150" s="51"/>
+      <c r="V150" s="51"/>
+      <c r="W150" s="51"/>
+      <c r="X150" s="52"/>
+      <c r="Y150" s="53">
+        <f>SUM(Y14:Y149)</f>
+        <v>0</v>
+      </c>
+      <c r="Z150" s="54"/>
+    </row>
+    <row r="151" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A151" s="55"/>
+      <c r="B151" s="56"/>
+      <c r="C151" s="57"/>
+      <c r="D151" s="57"/>
+      <c r="E151" s="58"/>
+      <c r="F151" s="58"/>
+      <c r="G151" s="58"/>
+      <c r="H151" s="59"/>
+      <c r="I151" s="58"/>
+      <c r="J151" s="58"/>
+      <c r="K151" s="58"/>
+      <c r="L151" s="58"/>
+      <c r="M151" s="58"/>
+      <c r="N151" s="60"/>
+      <c r="O151" s="60"/>
+      <c r="P151" s="58"/>
+      <c r="Q151" s="61"/>
+      <c r="R151" s="57"/>
+      <c r="S151" s="57"/>
+      <c r="T151" s="57"/>
+      <c r="U151" s="57"/>
+      <c r="V151" s="57"/>
+      <c r="W151" s="57"/>
+      <c r="X151" s="57"/>
+      <c r="Y151" s="57"/>
+      <c r="Z151" s="62"/>
+    </row>
+    <row r="152" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A152" s="55"/>
+      <c r="B152" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="106">
+      <c r="C152" s="64"/>
+      <c r="D152" s="65"/>
+      <c r="E152" s="78">
         <f>+E9+E10</f>
         <v>1899002428.4285715</v>
       </c>
-      <c r="F30" s="106"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="107">
+      <c r="F152" s="78"/>
+      <c r="G152" s="64"/>
+      <c r="H152" s="66">
         <f>+H9+H10</f>
         <v>0</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9" t="s">
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="109"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="110"/>
+      <c r="N152" s="8"/>
+      <c r="O152" s="67"/>
+      <c r="P152" s="67"/>
+      <c r="Q152" s="68"/>
+      <c r="X152" s="7"/>
+      <c r="Y152" s="7"/>
+      <c r="Z152" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="41">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="Q3:Z3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="Q4:Z4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="Q5:Z5"/>
+    <mergeCell ref="A6:Z6"/>
+    <mergeCell ref="A7:Z7"/>
+    <mergeCell ref="C8:Z8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
     <mergeCell ref="Y12:Y13"/>
     <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="P14:P26"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A150:Q150"/>
+    <mergeCell ref="E152:F152"/>
     <mergeCell ref="S12:S13"/>
     <mergeCell ref="T12:T13"/>
     <mergeCell ref="U12:U13"/>
@@ -2538,32 +7317,6 @@
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="Q5:Z5"/>
-    <mergeCell ref="A6:Z6"/>
-    <mergeCell ref="A7:Z7"/>
-    <mergeCell ref="C8:Z8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="Q3:Z3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="Q4:Z4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{D88860E5-26A2-400E-9CD6-A0A7F92B8419}"/>

--- a/tmpA3.xlsx
+++ b/tmpA3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DaiLamMoc\KeToanDaiLamMoc\DaiLamMoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D410B513-11B5-446B-8D67-AC91A6B7B5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236286CE-D7F1-4D10-A770-212B7CB1D944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7295F9C0-1D23-42CE-9F19-08E01B072D9F}"/>
+    <workbookView xWindow="3510" yWindow="2430" windowWidth="19545" windowHeight="13770" xr2:uid="{7295F9C0-1D23-42CE-9F19-08E01B072D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="a3" sheetId="2" r:id="rId1"/>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>CÔNG TY TNHH THƯƠNG MẠI XUẤT NHẬP KHẨU VÀ VẬN TẢI ĐẠI LÂM MỘC</t>
   </si>
@@ -403,111 +403,6 @@
   <si>
     <t>Ngày
 日期</t>
-  </si>
-  <si>
-    <t>SEP303</t>
-  </si>
-  <si>
-    <t>98H07704</t>
-  </si>
-  <si>
-    <t>10 TẤN</t>
-  </si>
-  <si>
-    <t>YILAI</t>
-  </si>
-  <si>
-    <t>FB9063</t>
-  </si>
-  <si>
-    <t>TÂN THANH - ĐÔNG ANH HÀ NỘI</t>
-  </si>
-  <si>
-    <t>TECH AIR</t>
-  </si>
-  <si>
-    <t>TÂN THANH - HÀ ĐÔNG HÀ NỘI</t>
-  </si>
-  <si>
-    <t>HÀ ANH</t>
-  </si>
-  <si>
-    <t>SUNSPACE</t>
-  </si>
-  <si>
-    <t>TÂN THANH - PHỐ NỐI HƯNG YÊN</t>
-  </si>
-  <si>
-    <t>NEW HANOI</t>
-  </si>
-  <si>
-    <t>TÂN THANH - TRUNG LỘC NGHỆ AN</t>
-  </si>
-  <si>
-    <t>SERVICE</t>
-  </si>
-  <si>
-    <t>TÂN THANH - NAM TỪ LIÊM HÀ NỘI</t>
-  </si>
-  <si>
-    <t>SEP304</t>
-  </si>
-  <si>
-    <t>98G00364</t>
-  </si>
-  <si>
-    <t>HUA RUI</t>
-  </si>
-  <si>
-    <t>TÂN THANH - VÂN TRUNG BẮC GIANG</t>
-  </si>
-  <si>
-    <t>HKC</t>
-  </si>
-  <si>
-    <t>TÂN THANH - THÚY LĨNH HÀ NỘI</t>
-  </si>
-  <si>
-    <t>INORSEN</t>
-  </si>
-  <si>
-    <t>TÂN THANH - PHÙ NINH PHÚ THỌ</t>
-  </si>
-  <si>
-    <t>INTERPLEX</t>
-  </si>
-  <si>
-    <t>TÂN THANH - QuẾ VÕ BẮC NINH</t>
-  </si>
-  <si>
-    <t>TBT</t>
-  </si>
-  <si>
-    <t>TÂN THANH - ĐA MAI BẮC GIANG</t>
-  </si>
-  <si>
-    <t>SEP316</t>
-  </si>
-  <si>
-    <t>12H04200</t>
-  </si>
-  <si>
-    <t>5 TẤN</t>
-  </si>
-  <si>
-    <t>S762B5</t>
-  </si>
-  <si>
-    <t>SOUTH FAME</t>
-  </si>
-  <si>
-    <t>莫</t>
-  </si>
-  <si>
-    <t>捷高</t>
-  </si>
-  <si>
-    <t>CỐC NAM - THƯỜNG XUÂN THANH HÓA</t>
   </si>
   <si>
     <t>Tổng tiền 合计</t>
@@ -1029,12 +924,63 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="16" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1053,68 +999,17 @@
     <xf numFmtId="165" fontId="17" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="16" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1539,11 +1434,11 @@
   <dimension ref="A1:Z152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G140" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q19" sqref="Q19:Q21"/>
       <selection pane="topRight" activeCell="Q19" sqref="Q19:Q21"/>
       <selection pane="bottomLeft" activeCell="Q19" sqref="Q19:Q21"/>
-      <selection pane="bottomRight" activeCell="H138" sqref="H138"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:Q135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="25.5" customHeight="1"/>
@@ -1596,224 +1491,224 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="4"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
     </row>
     <row r="2" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
     </row>
     <row r="3" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
     </row>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
     </row>
     <row r="5" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
     </row>
     <row r="6" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="97"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
     </row>
     <row r="7" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
     </row>
     <row r="8" spans="1:26" ht="25.5" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="99"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="99"/>
-      <c r="Z8" s="99"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
     </row>
     <row r="9" spans="1:26" ht="25.5" customHeight="1">
       <c r="A9" s="14"/>
@@ -1822,11 +1717,11 @@
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="100">
+      <c r="E9" s="73">
         <f>+'[1]25.9'!E17:F17</f>
         <v>1899002428.4285715</v>
       </c>
-      <c r="F9" s="100"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19"/>
       <c r="I9" s="20"/>
@@ -1855,11 +1750,11 @@
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="91">
+      <c r="E10" s="80">
         <f>+Y150</f>
         <v>0</v>
       </c>
-      <c r="F10" s="91"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
       <c r="I10" s="20"/>
@@ -1912,147 +1807,133 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="34" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="81" t="s">
+      <c r="D12" s="85"/>
+      <c r="E12" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="81" t="s">
+      <c r="F12" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="89" t="s">
+      <c r="H12" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="81" t="s">
+      <c r="I12" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="81" t="s">
+      <c r="J12" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="81" t="s">
+      <c r="K12" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="81" t="s">
+      <c r="L12" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="81" t="s">
+      <c r="M12" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="83" t="s">
+      <c r="N12" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="83" t="s">
+      <c r="O12" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="81" t="s">
+      <c r="P12" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="86" t="s">
+      <c r="Q12" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="R12" s="73" t="s">
+      <c r="R12" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="73" t="s">
+      <c r="S12" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="T12" s="79" t="s">
+      <c r="T12" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="V12" s="73" t="s">
+      <c r="V12" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="W12" s="73" t="s">
+      <c r="W12" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="X12" s="79" t="s">
+      <c r="X12" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="Y12" s="73" t="s">
+      <c r="Y12" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" s="75" t="s">
+      <c r="Z12" s="92" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="34" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A13" s="93"/>
-      <c r="B13" s="82"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="33" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="76"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="93"/>
     </row>
     <row r="14" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A14" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A14" s="48"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="E14" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="36"/>
       <c r="H14" s="37"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="47" t="s">
-        <v>39</v>
-      </c>
+      <c r="J14" s="47"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="37"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
-      <c r="P14" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="47" t="s">
-        <v>41</v>
-      </c>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="47"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
@@ -2068,9 +1949,7 @@
     </row>
     <row r="15" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
       <c r="A15" s="48"/>
-      <c r="B15" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
       <c r="E15" s="47"/>
@@ -2101,9 +1980,7 @@
     </row>
     <row r="16" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A16" s="48"/>
-      <c r="B16" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
       <c r="E16" s="47"/>
@@ -2111,18 +1988,14 @@
       <c r="G16" s="36"/>
       <c r="H16" s="37"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="36" t="s">
-        <v>42</v>
-      </c>
+      <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="37"/>
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
       <c r="P16" s="49"/>
-      <c r="Q16" s="43" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q16" s="43"/>
       <c r="R16" s="38"/>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
@@ -2138,9 +2011,7 @@
     </row>
     <row r="17" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A17" s="48"/>
-      <c r="B17" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="47"/>
@@ -2148,18 +2019,14 @@
       <c r="G17" s="36"/>
       <c r="H17" s="37"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
       <c r="M17" s="37"/>
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="49"/>
-      <c r="Q17" s="43" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q17" s="43"/>
       <c r="R17" s="38"/>
       <c r="S17" s="38"/>
       <c r="T17" s="38"/>
@@ -2175,9 +2042,7 @@
     </row>
     <row r="18" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A18" s="48"/>
-      <c r="B18" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
       <c r="E18" s="47"/>
@@ -2185,18 +2050,14 @@
       <c r="G18" s="44"/>
       <c r="H18" s="37"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="36" t="s">
-        <v>45</v>
-      </c>
+      <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
       <c r="M18" s="37"/>
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
       <c r="P18" s="49"/>
-      <c r="Q18" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q18" s="43"/>
       <c r="R18" s="38"/>
       <c r="S18" s="38"/>
       <c r="T18" s="38"/>
@@ -2212,9 +2073,7 @@
     </row>
     <row r="19" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A19" s="48"/>
-      <c r="B19" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="47"/>
@@ -2222,18 +2081,14 @@
       <c r="G19" s="44"/>
       <c r="H19" s="37"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="36" t="s">
-        <v>47</v>
-      </c>
+      <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="37"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="49"/>
-      <c r="Q19" s="43" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q19" s="43"/>
       <c r="R19" s="38"/>
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
@@ -2249,9 +2104,7 @@
     </row>
     <row r="20" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A20" s="48"/>
-      <c r="B20" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
       <c r="E20" s="47"/>
@@ -2259,18 +2112,14 @@
       <c r="G20" s="44"/>
       <c r="H20" s="37"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="47" t="s">
-        <v>49</v>
-      </c>
+      <c r="J20" s="47"/>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
       <c r="M20" s="37"/>
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
       <c r="P20" s="49"/>
-      <c r="Q20" s="43" t="s">
-        <v>50</v>
-      </c>
+      <c r="Q20" s="43"/>
       <c r="R20" s="38"/>
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
@@ -2285,35 +2134,23 @@
       <c r="Z20" s="45"/>
     </row>
     <row r="21" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A21" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A21" s="48"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="36"/>
       <c r="H21" s="37"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="47" t="s">
-        <v>53</v>
-      </c>
+      <c r="J21" s="47"/>
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
       <c r="M21" s="37"/>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
       <c r="P21" s="49"/>
-      <c r="Q21" s="43" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q21" s="43"/>
       <c r="R21" s="38"/>
       <c r="S21" s="38"/>
       <c r="T21" s="38"/>
@@ -2329,9 +2166,7 @@
     </row>
     <row r="22" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A22" s="48"/>
-      <c r="B22" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
       <c r="E22" s="47"/>
@@ -2339,18 +2174,14 @@
       <c r="G22" s="36"/>
       <c r="H22" s="37"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="36" t="s">
-        <v>55</v>
-      </c>
+      <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
       <c r="M22" s="37"/>
       <c r="N22" s="36"/>
       <c r="O22" s="36"/>
       <c r="P22" s="49"/>
-      <c r="Q22" s="47" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q22" s="47"/>
       <c r="R22" s="38"/>
       <c r="S22" s="38"/>
       <c r="T22" s="38"/>
@@ -2366,9 +2197,7 @@
     </row>
     <row r="23" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A23" s="48"/>
-      <c r="B23" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
       <c r="E23" s="47"/>
@@ -2376,18 +2205,14 @@
       <c r="G23" s="36"/>
       <c r="H23" s="37"/>
       <c r="I23" s="36"/>
-      <c r="J23" s="36" t="s">
-        <v>57</v>
-      </c>
+      <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
       <c r="M23" s="37"/>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
       <c r="P23" s="49"/>
-      <c r="Q23" s="47" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q23" s="47"/>
       <c r="R23" s="38"/>
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
@@ -2403,9 +2228,7 @@
     </row>
     <row r="24" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A24" s="48"/>
-      <c r="B24" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
       <c r="E24" s="47"/>
@@ -2413,18 +2236,14 @@
       <c r="G24" s="36"/>
       <c r="H24" s="37"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="47" t="s">
-        <v>59</v>
-      </c>
+      <c r="J24" s="47"/>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="37"/>
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
       <c r="P24" s="49"/>
-      <c r="Q24" s="47" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q24" s="47"/>
       <c r="R24" s="38"/>
       <c r="S24" s="38"/>
       <c r="T24" s="38"/>
@@ -2440,9 +2259,7 @@
     </row>
     <row r="25" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A25" s="48"/>
-      <c r="B25" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
       <c r="E25" s="47"/>
@@ -2473,9 +2290,7 @@
     </row>
     <row r="26" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A26" s="48"/>
-      <c r="B26" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
       <c r="E26" s="47"/>
@@ -2483,18 +2298,14 @@
       <c r="G26" s="36"/>
       <c r="H26" s="37"/>
       <c r="I26" s="36"/>
-      <c r="J26" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="J26" s="36"/>
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
       <c r="M26" s="37"/>
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
       <c r="P26" s="49"/>
-      <c r="Q26" s="47" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q26" s="47"/>
       <c r="R26" s="38"/>
       <c r="S26" s="38"/>
       <c r="T26" s="38"/>
@@ -2509,47 +2320,23 @@
       <c r="Z26" s="41"/>
     </row>
     <row r="27" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A27" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A27" s="48"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>65</v>
-      </c>
+      <c r="E27" s="47"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="36"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="K27" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="L27" s="36" t="s">
-        <v>69</v>
-      </c>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
       <c r="M27" s="37"/>
-      <c r="N27" s="36">
-        <v>142</v>
-      </c>
-      <c r="O27" s="36">
-        <v>3139</v>
-      </c>
-      <c r="P27" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q27" s="47" t="s">
-        <v>70</v>
-      </c>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="47"/>
       <c r="R27" s="38"/>
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
@@ -2564,37 +2351,23 @@
       <c r="Z27" s="45"/>
     </row>
     <row r="28" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A28" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A28" s="48"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E28" s="47"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="36"/>
       <c r="H28" s="37"/>
       <c r="I28" s="36"/>
-      <c r="J28" s="47" t="s">
-        <v>39</v>
-      </c>
+      <c r="J28" s="47"/>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
       <c r="M28" s="37"/>
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
-      <c r="P28" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q28" s="47" t="s">
-        <v>41</v>
-      </c>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="47"/>
       <c r="R28" s="38"/>
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
@@ -2610,9 +2383,7 @@
     </row>
     <row r="29" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
       <c r="A29" s="48"/>
-      <c r="B29" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
       <c r="E29" s="47"/>
@@ -2643,9 +2414,7 @@
     </row>
     <row r="30" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A30" s="48"/>
-      <c r="B30" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
       <c r="E30" s="47"/>
@@ -2653,18 +2422,14 @@
       <c r="G30" s="36"/>
       <c r="H30" s="37"/>
       <c r="I30" s="36"/>
-      <c r="J30" s="36" t="s">
-        <v>42</v>
-      </c>
+      <c r="J30" s="36"/>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
       <c r="M30" s="37"/>
       <c r="N30" s="36"/>
       <c r="O30" s="36"/>
       <c r="P30" s="49"/>
-      <c r="Q30" s="43" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q30" s="43"/>
       <c r="R30" s="38"/>
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
@@ -2680,9 +2445,7 @@
     </row>
     <row r="31" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A31" s="48"/>
-      <c r="B31" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
       <c r="E31" s="47"/>
@@ -2690,18 +2453,14 @@
       <c r="G31" s="36"/>
       <c r="H31" s="37"/>
       <c r="I31" s="36"/>
-      <c r="J31" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="J31" s="36"/>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
       <c r="M31" s="37"/>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="49"/>
-      <c r="Q31" s="43" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q31" s="43"/>
       <c r="R31" s="38"/>
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
@@ -2717,9 +2476,7 @@
     </row>
     <row r="32" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A32" s="48"/>
-      <c r="B32" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
       <c r="E32" s="47"/>
@@ -2727,18 +2484,14 @@
       <c r="G32" s="44"/>
       <c r="H32" s="37"/>
       <c r="I32" s="36"/>
-      <c r="J32" s="36" t="s">
-        <v>45</v>
-      </c>
+      <c r="J32" s="36"/>
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
       <c r="M32" s="37"/>
       <c r="N32" s="36"/>
       <c r="O32" s="36"/>
       <c r="P32" s="49"/>
-      <c r="Q32" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q32" s="43"/>
       <c r="R32" s="38"/>
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
@@ -2754,9 +2507,7 @@
     </row>
     <row r="33" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A33" s="48"/>
-      <c r="B33" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
       <c r="E33" s="47"/>
@@ -2764,18 +2515,14 @@
       <c r="G33" s="44"/>
       <c r="H33" s="37"/>
       <c r="I33" s="36"/>
-      <c r="J33" s="36" t="s">
-        <v>47</v>
-      </c>
+      <c r="J33" s="36"/>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
       <c r="M33" s="37"/>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
       <c r="P33" s="49"/>
-      <c r="Q33" s="43" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q33" s="43"/>
       <c r="R33" s="38"/>
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
@@ -2791,9 +2538,7 @@
     </row>
     <row r="34" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A34" s="48"/>
-      <c r="B34" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
       <c r="E34" s="47"/>
@@ -2801,18 +2546,14 @@
       <c r="G34" s="44"/>
       <c r="H34" s="37"/>
       <c r="I34" s="36"/>
-      <c r="J34" s="47" t="s">
-        <v>49</v>
-      </c>
+      <c r="J34" s="47"/>
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
       <c r="M34" s="37"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="49"/>
-      <c r="Q34" s="43" t="s">
-        <v>50</v>
-      </c>
+      <c r="Q34" s="43"/>
       <c r="R34" s="38"/>
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
@@ -2827,35 +2568,23 @@
       <c r="Z34" s="45"/>
     </row>
     <row r="35" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A35" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A35" s="48"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E35" s="47"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="36"/>
       <c r="H35" s="37"/>
       <c r="I35" s="36"/>
-      <c r="J35" s="47" t="s">
-        <v>53</v>
-      </c>
+      <c r="J35" s="47"/>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
       <c r="M35" s="37"/>
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
       <c r="P35" s="49"/>
-      <c r="Q35" s="43" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q35" s="43"/>
       <c r="R35" s="38"/>
       <c r="S35" s="38"/>
       <c r="T35" s="38"/>
@@ -2871,9 +2600,7 @@
     </row>
     <row r="36" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A36" s="48"/>
-      <c r="B36" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
       <c r="E36" s="47"/>
@@ -2881,18 +2608,14 @@
       <c r="G36" s="36"/>
       <c r="H36" s="37"/>
       <c r="I36" s="36"/>
-      <c r="J36" s="36" t="s">
-        <v>55</v>
-      </c>
+      <c r="J36" s="36"/>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
       <c r="M36" s="37"/>
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="49"/>
-      <c r="Q36" s="47" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q36" s="47"/>
       <c r="R36" s="38"/>
       <c r="S36" s="38"/>
       <c r="T36" s="38"/>
@@ -2908,9 +2631,7 @@
     </row>
     <row r="37" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A37" s="48"/>
-      <c r="B37" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
       <c r="E37" s="47"/>
@@ -2918,18 +2639,14 @@
       <c r="G37" s="36"/>
       <c r="H37" s="37"/>
       <c r="I37" s="36"/>
-      <c r="J37" s="36" t="s">
-        <v>57</v>
-      </c>
+      <c r="J37" s="36"/>
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
       <c r="M37" s="37"/>
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="49"/>
-      <c r="Q37" s="47" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q37" s="47"/>
       <c r="R37" s="38"/>
       <c r="S37" s="38"/>
       <c r="T37" s="38"/>
@@ -2945,9 +2662,7 @@
     </row>
     <row r="38" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A38" s="48"/>
-      <c r="B38" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
       <c r="E38" s="47"/>
@@ -2955,18 +2670,14 @@
       <c r="G38" s="36"/>
       <c r="H38" s="37"/>
       <c r="I38" s="36"/>
-      <c r="J38" s="47" t="s">
-        <v>59</v>
-      </c>
+      <c r="J38" s="47"/>
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
       <c r="M38" s="37"/>
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
       <c r="P38" s="49"/>
-      <c r="Q38" s="47" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q38" s="47"/>
       <c r="R38" s="38"/>
       <c r="S38" s="38"/>
       <c r="T38" s="38"/>
@@ -2982,9 +2693,7 @@
     </row>
     <row r="39" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A39" s="48"/>
-      <c r="B39" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
       <c r="E39" s="47"/>
@@ -3015,9 +2724,7 @@
     </row>
     <row r="40" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A40" s="48"/>
-      <c r="B40" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
       <c r="E40" s="47"/>
@@ -3025,18 +2732,14 @@
       <c r="G40" s="36"/>
       <c r="H40" s="37"/>
       <c r="I40" s="36"/>
-      <c r="J40" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="J40" s="36"/>
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
       <c r="M40" s="37"/>
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
       <c r="P40" s="49"/>
-      <c r="Q40" s="47" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q40" s="47"/>
       <c r="R40" s="38"/>
       <c r="S40" s="38"/>
       <c r="T40" s="38"/>
@@ -3051,47 +2754,23 @@
       <c r="Z40" s="41"/>
     </row>
     <row r="41" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A41" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A41" s="48"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="49" t="s">
-        <v>65</v>
-      </c>
+      <c r="E41" s="47"/>
+      <c r="F41" s="49"/>
       <c r="G41" s="36"/>
       <c r="H41" s="37"/>
-      <c r="I41" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J41" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="K41" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="L41" s="36" t="s">
-        <v>69</v>
-      </c>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
       <c r="M41" s="37"/>
-      <c r="N41" s="36">
-        <v>142</v>
-      </c>
-      <c r="O41" s="36">
-        <v>3139</v>
-      </c>
-      <c r="P41" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q41" s="47" t="s">
-        <v>70</v>
-      </c>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="47"/>
       <c r="R41" s="38"/>
       <c r="S41" s="38"/>
       <c r="T41" s="38"/>
@@ -3106,37 +2785,23 @@
       <c r="Z41" s="45"/>
     </row>
     <row r="42" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A42" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A42" s="48"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E42" s="47"/>
+      <c r="F42" s="49"/>
       <c r="G42" s="36"/>
       <c r="H42" s="37"/>
       <c r="I42" s="36"/>
-      <c r="J42" s="47" t="s">
-        <v>39</v>
-      </c>
+      <c r="J42" s="47"/>
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
       <c r="M42" s="37"/>
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
-      <c r="P42" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q42" s="47" t="s">
-        <v>41</v>
-      </c>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="47"/>
       <c r="R42" s="38"/>
       <c r="S42" s="38"/>
       <c r="T42" s="38"/>
@@ -3152,9 +2817,7 @@
     </row>
     <row r="43" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
       <c r="A43" s="48"/>
-      <c r="B43" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B43" s="35"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
       <c r="E43" s="47"/>
@@ -3185,9 +2848,7 @@
     </row>
     <row r="44" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A44" s="48"/>
-      <c r="B44" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B44" s="35"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
       <c r="E44" s="47"/>
@@ -3195,18 +2856,14 @@
       <c r="G44" s="36"/>
       <c r="H44" s="37"/>
       <c r="I44" s="36"/>
-      <c r="J44" s="36" t="s">
-        <v>42</v>
-      </c>
+      <c r="J44" s="36"/>
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
       <c r="M44" s="37"/>
       <c r="N44" s="36"/>
       <c r="O44" s="36"/>
       <c r="P44" s="49"/>
-      <c r="Q44" s="43" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q44" s="43"/>
       <c r="R44" s="38"/>
       <c r="S44" s="38"/>
       <c r="T44" s="38"/>
@@ -3222,9 +2879,7 @@
     </row>
     <row r="45" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A45" s="48"/>
-      <c r="B45" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B45" s="35"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
       <c r="E45" s="47"/>
@@ -3232,18 +2887,14 @@
       <c r="G45" s="36"/>
       <c r="H45" s="37"/>
       <c r="I45" s="36"/>
-      <c r="J45" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="J45" s="36"/>
       <c r="K45" s="36"/>
       <c r="L45" s="36"/>
       <c r="M45" s="37"/>
       <c r="N45" s="36"/>
       <c r="O45" s="36"/>
       <c r="P45" s="49"/>
-      <c r="Q45" s="43" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q45" s="43"/>
       <c r="R45" s="38"/>
       <c r="S45" s="38"/>
       <c r="T45" s="38"/>
@@ -3259,9 +2910,7 @@
     </row>
     <row r="46" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A46" s="48"/>
-      <c r="B46" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B46" s="35"/>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
       <c r="E46" s="47"/>
@@ -3269,18 +2918,14 @@
       <c r="G46" s="44"/>
       <c r="H46" s="37"/>
       <c r="I46" s="36"/>
-      <c r="J46" s="36" t="s">
-        <v>45</v>
-      </c>
+      <c r="J46" s="36"/>
       <c r="K46" s="36"/>
       <c r="L46" s="36"/>
       <c r="M46" s="37"/>
       <c r="N46" s="36"/>
       <c r="O46" s="36"/>
       <c r="P46" s="49"/>
-      <c r="Q46" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q46" s="43"/>
       <c r="R46" s="38"/>
       <c r="S46" s="38"/>
       <c r="T46" s="38"/>
@@ -3296,9 +2941,7 @@
     </row>
     <row r="47" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A47" s="48"/>
-      <c r="B47" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B47" s="35"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
       <c r="E47" s="47"/>
@@ -3306,18 +2949,14 @@
       <c r="G47" s="44"/>
       <c r="H47" s="37"/>
       <c r="I47" s="36"/>
-      <c r="J47" s="36" t="s">
-        <v>47</v>
-      </c>
+      <c r="J47" s="36"/>
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="37"/>
       <c r="N47" s="36"/>
       <c r="O47" s="36"/>
       <c r="P47" s="49"/>
-      <c r="Q47" s="43" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q47" s="43"/>
       <c r="R47" s="38"/>
       <c r="S47" s="38"/>
       <c r="T47" s="38"/>
@@ -3333,9 +2972,7 @@
     </row>
     <row r="48" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A48" s="48"/>
-      <c r="B48" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B48" s="35"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
       <c r="E48" s="47"/>
@@ -3343,18 +2980,14 @@
       <c r="G48" s="44"/>
       <c r="H48" s="37"/>
       <c r="I48" s="36"/>
-      <c r="J48" s="47" t="s">
-        <v>49</v>
-      </c>
+      <c r="J48" s="47"/>
       <c r="K48" s="36"/>
       <c r="L48" s="36"/>
       <c r="M48" s="37"/>
       <c r="N48" s="36"/>
       <c r="O48" s="36"/>
       <c r="P48" s="49"/>
-      <c r="Q48" s="43" t="s">
-        <v>50</v>
-      </c>
+      <c r="Q48" s="43"/>
       <c r="R48" s="38"/>
       <c r="S48" s="38"/>
       <c r="T48" s="38"/>
@@ -3369,35 +3002,23 @@
       <c r="Z48" s="45"/>
     </row>
     <row r="49" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A49" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A49" s="48"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
-      <c r="E49" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E49" s="47"/>
+      <c r="F49" s="49"/>
       <c r="G49" s="36"/>
       <c r="H49" s="37"/>
       <c r="I49" s="36"/>
-      <c r="J49" s="47" t="s">
-        <v>53</v>
-      </c>
+      <c r="J49" s="47"/>
       <c r="K49" s="36"/>
       <c r="L49" s="36"/>
       <c r="M49" s="37"/>
       <c r="N49" s="36"/>
       <c r="O49" s="36"/>
       <c r="P49" s="49"/>
-      <c r="Q49" s="43" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q49" s="43"/>
       <c r="R49" s="38"/>
       <c r="S49" s="38"/>
       <c r="T49" s="38"/>
@@ -3413,9 +3034,7 @@
     </row>
     <row r="50" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A50" s="48"/>
-      <c r="B50" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B50" s="35"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
       <c r="E50" s="47"/>
@@ -3423,18 +3042,14 @@
       <c r="G50" s="36"/>
       <c r="H50" s="37"/>
       <c r="I50" s="36"/>
-      <c r="J50" s="36" t="s">
-        <v>55</v>
-      </c>
+      <c r="J50" s="36"/>
       <c r="K50" s="36"/>
       <c r="L50" s="36"/>
       <c r="M50" s="37"/>
       <c r="N50" s="36"/>
       <c r="O50" s="36"/>
       <c r="P50" s="49"/>
-      <c r="Q50" s="47" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q50" s="47"/>
       <c r="R50" s="38"/>
       <c r="S50" s="38"/>
       <c r="T50" s="38"/>
@@ -3450,9 +3065,7 @@
     </row>
     <row r="51" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A51" s="48"/>
-      <c r="B51" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B51" s="35"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
       <c r="E51" s="47"/>
@@ -3460,18 +3073,14 @@
       <c r="G51" s="36"/>
       <c r="H51" s="37"/>
       <c r="I51" s="36"/>
-      <c r="J51" s="36" t="s">
-        <v>57</v>
-      </c>
+      <c r="J51" s="36"/>
       <c r="K51" s="36"/>
       <c r="L51" s="36"/>
       <c r="M51" s="37"/>
       <c r="N51" s="36"/>
       <c r="O51" s="36"/>
       <c r="P51" s="49"/>
-      <c r="Q51" s="47" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q51" s="47"/>
       <c r="R51" s="38"/>
       <c r="S51" s="38"/>
       <c r="T51" s="38"/>
@@ -3487,9 +3096,7 @@
     </row>
     <row r="52" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A52" s="48"/>
-      <c r="B52" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B52" s="35"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
       <c r="E52" s="47"/>
@@ -3497,18 +3104,14 @@
       <c r="G52" s="36"/>
       <c r="H52" s="37"/>
       <c r="I52" s="36"/>
-      <c r="J52" s="47" t="s">
-        <v>59</v>
-      </c>
+      <c r="J52" s="47"/>
       <c r="K52" s="36"/>
       <c r="L52" s="36"/>
       <c r="M52" s="37"/>
       <c r="N52" s="36"/>
       <c r="O52" s="36"/>
       <c r="P52" s="49"/>
-      <c r="Q52" s="47" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q52" s="47"/>
       <c r="R52" s="38"/>
       <c r="S52" s="38"/>
       <c r="T52" s="38"/>
@@ -3524,9 +3127,7 @@
     </row>
     <row r="53" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A53" s="48"/>
-      <c r="B53" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B53" s="35"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
       <c r="E53" s="47"/>
@@ -3557,9 +3158,7 @@
     </row>
     <row r="54" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A54" s="48"/>
-      <c r="B54" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B54" s="35"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
       <c r="E54" s="47"/>
@@ -3567,18 +3166,14 @@
       <c r="G54" s="36"/>
       <c r="H54" s="37"/>
       <c r="I54" s="36"/>
-      <c r="J54" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="J54" s="36"/>
       <c r="K54" s="36"/>
       <c r="L54" s="36"/>
       <c r="M54" s="37"/>
       <c r="N54" s="36"/>
       <c r="O54" s="36"/>
       <c r="P54" s="49"/>
-      <c r="Q54" s="47" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q54" s="47"/>
       <c r="R54" s="38"/>
       <c r="S54" s="38"/>
       <c r="T54" s="38"/>
@@ -3593,47 +3188,23 @@
       <c r="Z54" s="41"/>
     </row>
     <row r="55" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A55" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A55" s="48"/>
+      <c r="B55" s="35"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
-      <c r="E55" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" s="49" t="s">
-        <v>65</v>
-      </c>
+      <c r="E55" s="47"/>
+      <c r="F55" s="49"/>
       <c r="G55" s="36"/>
       <c r="H55" s="37"/>
-      <c r="I55" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J55" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="K55" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="L55" s="36" t="s">
-        <v>69</v>
-      </c>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
       <c r="M55" s="37"/>
-      <c r="N55" s="36">
-        <v>142</v>
-      </c>
-      <c r="O55" s="36">
-        <v>3139</v>
-      </c>
-      <c r="P55" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q55" s="47" t="s">
-        <v>70</v>
-      </c>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="47"/>
       <c r="R55" s="38"/>
       <c r="S55" s="38"/>
       <c r="T55" s="38"/>
@@ -3648,37 +3219,23 @@
       <c r="Z55" s="45"/>
     </row>
     <row r="56" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A56" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A56" s="48"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
-      <c r="E56" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F56" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E56" s="47"/>
+      <c r="F56" s="49"/>
       <c r="G56" s="36"/>
       <c r="H56" s="37"/>
       <c r="I56" s="36"/>
-      <c r="J56" s="47" t="s">
-        <v>39</v>
-      </c>
+      <c r="J56" s="47"/>
       <c r="K56" s="36"/>
       <c r="L56" s="36"/>
       <c r="M56" s="37"/>
       <c r="N56" s="36"/>
       <c r="O56" s="36"/>
-      <c r="P56" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q56" s="47" t="s">
-        <v>41</v>
-      </c>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="47"/>
       <c r="R56" s="38"/>
       <c r="S56" s="38"/>
       <c r="T56" s="38"/>
@@ -3694,9 +3251,7 @@
     </row>
     <row r="57" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
       <c r="A57" s="48"/>
-      <c r="B57" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B57" s="35"/>
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
       <c r="E57" s="47"/>
@@ -3727,9 +3282,7 @@
     </row>
     <row r="58" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A58" s="48"/>
-      <c r="B58" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B58" s="35"/>
       <c r="C58" s="36"/>
       <c r="D58" s="36"/>
       <c r="E58" s="47"/>
@@ -3737,18 +3290,14 @@
       <c r="G58" s="36"/>
       <c r="H58" s="37"/>
       <c r="I58" s="36"/>
-      <c r="J58" s="36" t="s">
-        <v>42</v>
-      </c>
+      <c r="J58" s="36"/>
       <c r="K58" s="36"/>
       <c r="L58" s="36"/>
       <c r="M58" s="37"/>
       <c r="N58" s="36"/>
       <c r="O58" s="36"/>
       <c r="P58" s="49"/>
-      <c r="Q58" s="43" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q58" s="43"/>
       <c r="R58" s="38"/>
       <c r="S58" s="38"/>
       <c r="T58" s="38"/>
@@ -3764,9 +3313,7 @@
     </row>
     <row r="59" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A59" s="48"/>
-      <c r="B59" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B59" s="35"/>
       <c r="C59" s="36"/>
       <c r="D59" s="36"/>
       <c r="E59" s="47"/>
@@ -3774,18 +3321,14 @@
       <c r="G59" s="36"/>
       <c r="H59" s="37"/>
       <c r="I59" s="36"/>
-      <c r="J59" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="36"/>
       <c r="M59" s="37"/>
       <c r="N59" s="36"/>
       <c r="O59" s="36"/>
       <c r="P59" s="49"/>
-      <c r="Q59" s="43" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q59" s="43"/>
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
       <c r="T59" s="38"/>
@@ -3801,9 +3344,7 @@
     </row>
     <row r="60" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A60" s="48"/>
-      <c r="B60" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B60" s="35"/>
       <c r="C60" s="36"/>
       <c r="D60" s="36"/>
       <c r="E60" s="47"/>
@@ -3811,18 +3352,14 @@
       <c r="G60" s="44"/>
       <c r="H60" s="37"/>
       <c r="I60" s="36"/>
-      <c r="J60" s="36" t="s">
-        <v>45</v>
-      </c>
+      <c r="J60" s="36"/>
       <c r="K60" s="36"/>
       <c r="L60" s="36"/>
       <c r="M60" s="37"/>
       <c r="N60" s="36"/>
       <c r="O60" s="36"/>
       <c r="P60" s="49"/>
-      <c r="Q60" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q60" s="43"/>
       <c r="R60" s="38"/>
       <c r="S60" s="38"/>
       <c r="T60" s="38"/>
@@ -3838,9 +3375,7 @@
     </row>
     <row r="61" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A61" s="48"/>
-      <c r="B61" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B61" s="35"/>
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
       <c r="E61" s="47"/>
@@ -3848,18 +3383,14 @@
       <c r="G61" s="44"/>
       <c r="H61" s="37"/>
       <c r="I61" s="36"/>
-      <c r="J61" s="36" t="s">
-        <v>47</v>
-      </c>
+      <c r="J61" s="36"/>
       <c r="K61" s="36"/>
       <c r="L61" s="36"/>
       <c r="M61" s="37"/>
       <c r="N61" s="36"/>
       <c r="O61" s="36"/>
       <c r="P61" s="49"/>
-      <c r="Q61" s="43" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q61" s="43"/>
       <c r="R61" s="38"/>
       <c r="S61" s="38"/>
       <c r="T61" s="38"/>
@@ -3875,9 +3406,7 @@
     </row>
     <row r="62" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A62" s="48"/>
-      <c r="B62" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B62" s="35"/>
       <c r="C62" s="36"/>
       <c r="D62" s="36"/>
       <c r="E62" s="47"/>
@@ -3885,18 +3414,14 @@
       <c r="G62" s="44"/>
       <c r="H62" s="37"/>
       <c r="I62" s="36"/>
-      <c r="J62" s="47" t="s">
-        <v>49</v>
-      </c>
+      <c r="J62" s="47"/>
       <c r="K62" s="36"/>
       <c r="L62" s="36"/>
       <c r="M62" s="37"/>
       <c r="N62" s="36"/>
       <c r="O62" s="36"/>
       <c r="P62" s="49"/>
-      <c r="Q62" s="43" t="s">
-        <v>50</v>
-      </c>
+      <c r="Q62" s="43"/>
       <c r="R62" s="38"/>
       <c r="S62" s="38"/>
       <c r="T62" s="38"/>
@@ -3911,35 +3436,23 @@
       <c r="Z62" s="45"/>
     </row>
     <row r="63" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A63" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A63" s="48"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="36"/>
       <c r="D63" s="36"/>
-      <c r="E63" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F63" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E63" s="47"/>
+      <c r="F63" s="49"/>
       <c r="G63" s="36"/>
       <c r="H63" s="37"/>
       <c r="I63" s="36"/>
-      <c r="J63" s="47" t="s">
-        <v>53</v>
-      </c>
+      <c r="J63" s="47"/>
       <c r="K63" s="36"/>
       <c r="L63" s="36"/>
       <c r="M63" s="37"/>
       <c r="N63" s="36"/>
       <c r="O63" s="36"/>
       <c r="P63" s="49"/>
-      <c r="Q63" s="43" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q63" s="43"/>
       <c r="R63" s="38"/>
       <c r="S63" s="38"/>
       <c r="T63" s="38"/>
@@ -3955,9 +3468,7 @@
     </row>
     <row r="64" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A64" s="48"/>
-      <c r="B64" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B64" s="35"/>
       <c r="C64" s="36"/>
       <c r="D64" s="36"/>
       <c r="E64" s="47"/>
@@ -3965,18 +3476,14 @@
       <c r="G64" s="36"/>
       <c r="H64" s="37"/>
       <c r="I64" s="36"/>
-      <c r="J64" s="36" t="s">
-        <v>55</v>
-      </c>
+      <c r="J64" s="36"/>
       <c r="K64" s="36"/>
       <c r="L64" s="36"/>
       <c r="M64" s="37"/>
       <c r="N64" s="36"/>
       <c r="O64" s="36"/>
       <c r="P64" s="49"/>
-      <c r="Q64" s="47" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q64" s="47"/>
       <c r="R64" s="38"/>
       <c r="S64" s="38"/>
       <c r="T64" s="38"/>
@@ -3992,9 +3499,7 @@
     </row>
     <row r="65" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A65" s="48"/>
-      <c r="B65" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B65" s="35"/>
       <c r="C65" s="36"/>
       <c r="D65" s="36"/>
       <c r="E65" s="47"/>
@@ -4002,18 +3507,14 @@
       <c r="G65" s="36"/>
       <c r="H65" s="37"/>
       <c r="I65" s="36"/>
-      <c r="J65" s="36" t="s">
-        <v>57</v>
-      </c>
+      <c r="J65" s="36"/>
       <c r="K65" s="36"/>
       <c r="L65" s="36"/>
       <c r="M65" s="37"/>
       <c r="N65" s="36"/>
       <c r="O65" s="36"/>
       <c r="P65" s="49"/>
-      <c r="Q65" s="47" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q65" s="47"/>
       <c r="R65" s="38"/>
       <c r="S65" s="38"/>
       <c r="T65" s="38"/>
@@ -4029,9 +3530,7 @@
     </row>
     <row r="66" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A66" s="48"/>
-      <c r="B66" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B66" s="35"/>
       <c r="C66" s="36"/>
       <c r="D66" s="36"/>
       <c r="E66" s="47"/>
@@ -4039,18 +3538,14 @@
       <c r="G66" s="36"/>
       <c r="H66" s="37"/>
       <c r="I66" s="36"/>
-      <c r="J66" s="47" t="s">
-        <v>59</v>
-      </c>
+      <c r="J66" s="47"/>
       <c r="K66" s="36"/>
       <c r="L66" s="36"/>
       <c r="M66" s="37"/>
       <c r="N66" s="36"/>
       <c r="O66" s="36"/>
       <c r="P66" s="49"/>
-      <c r="Q66" s="47" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q66" s="47"/>
       <c r="R66" s="38"/>
       <c r="S66" s="38"/>
       <c r="T66" s="38"/>
@@ -4066,9 +3561,7 @@
     </row>
     <row r="67" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A67" s="48"/>
-      <c r="B67" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B67" s="35"/>
       <c r="C67" s="36"/>
       <c r="D67" s="36"/>
       <c r="E67" s="47"/>
@@ -4099,9 +3592,7 @@
     </row>
     <row r="68" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A68" s="48"/>
-      <c r="B68" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B68" s="35"/>
       <c r="C68" s="36"/>
       <c r="D68" s="36"/>
       <c r="E68" s="47"/>
@@ -4109,18 +3600,14 @@
       <c r="G68" s="36"/>
       <c r="H68" s="37"/>
       <c r="I68" s="36"/>
-      <c r="J68" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="36"/>
       <c r="M68" s="37"/>
       <c r="N68" s="36"/>
       <c r="O68" s="36"/>
       <c r="P68" s="49"/>
-      <c r="Q68" s="47" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q68" s="47"/>
       <c r="R68" s="38"/>
       <c r="S68" s="38"/>
       <c r="T68" s="38"/>
@@ -4135,47 +3622,23 @@
       <c r="Z68" s="41"/>
     </row>
     <row r="69" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A69" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A69" s="48"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="36"/>
       <c r="D69" s="36"/>
-      <c r="E69" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F69" s="49" t="s">
-        <v>65</v>
-      </c>
+      <c r="E69" s="47"/>
+      <c r="F69" s="49"/>
       <c r="G69" s="36"/>
       <c r="H69" s="37"/>
-      <c r="I69" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J69" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="K69" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="L69" s="36" t="s">
-        <v>69</v>
-      </c>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
       <c r="M69" s="37"/>
-      <c r="N69" s="36">
-        <v>142</v>
-      </c>
-      <c r="O69" s="36">
-        <v>3139</v>
-      </c>
-      <c r="P69" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q69" s="47" t="s">
-        <v>70</v>
-      </c>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="47"/>
       <c r="R69" s="38"/>
       <c r="S69" s="38"/>
       <c r="T69" s="38"/>
@@ -4190,37 +3653,23 @@
       <c r="Z69" s="45"/>
     </row>
     <row r="70" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A70" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A70" s="48"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="36"/>
       <c r="D70" s="36"/>
-      <c r="E70" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F70" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E70" s="47"/>
+      <c r="F70" s="49"/>
       <c r="G70" s="36"/>
       <c r="H70" s="37"/>
       <c r="I70" s="36"/>
-      <c r="J70" s="47" t="s">
-        <v>39</v>
-      </c>
+      <c r="J70" s="47"/>
       <c r="K70" s="36"/>
       <c r="L70" s="36"/>
       <c r="M70" s="37"/>
       <c r="N70" s="36"/>
       <c r="O70" s="36"/>
-      <c r="P70" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q70" s="47" t="s">
-        <v>41</v>
-      </c>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="47"/>
       <c r="R70" s="38"/>
       <c r="S70" s="38"/>
       <c r="T70" s="38"/>
@@ -4236,9 +3685,7 @@
     </row>
     <row r="71" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
       <c r="A71" s="48"/>
-      <c r="B71" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B71" s="35"/>
       <c r="C71" s="36"/>
       <c r="D71" s="36"/>
       <c r="E71" s="47"/>
@@ -4269,9 +3716,7 @@
     </row>
     <row r="72" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A72" s="48"/>
-      <c r="B72" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B72" s="35"/>
       <c r="C72" s="36"/>
       <c r="D72" s="36"/>
       <c r="E72" s="47"/>
@@ -4279,18 +3724,14 @@
       <c r="G72" s="36"/>
       <c r="H72" s="37"/>
       <c r="I72" s="36"/>
-      <c r="J72" s="36" t="s">
-        <v>42</v>
-      </c>
+      <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="36"/>
       <c r="M72" s="37"/>
       <c r="N72" s="36"/>
       <c r="O72" s="36"/>
       <c r="P72" s="49"/>
-      <c r="Q72" s="43" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q72" s="43"/>
       <c r="R72" s="38"/>
       <c r="S72" s="38"/>
       <c r="T72" s="38"/>
@@ -4306,9 +3747,7 @@
     </row>
     <row r="73" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A73" s="48"/>
-      <c r="B73" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B73" s="35"/>
       <c r="C73" s="36"/>
       <c r="D73" s="36"/>
       <c r="E73" s="47"/>
@@ -4316,18 +3755,14 @@
       <c r="G73" s="36"/>
       <c r="H73" s="37"/>
       <c r="I73" s="36"/>
-      <c r="J73" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="36"/>
       <c r="M73" s="37"/>
       <c r="N73" s="36"/>
       <c r="O73" s="36"/>
       <c r="P73" s="49"/>
-      <c r="Q73" s="43" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q73" s="43"/>
       <c r="R73" s="38"/>
       <c r="S73" s="38"/>
       <c r="T73" s="38"/>
@@ -4343,9 +3778,7 @@
     </row>
     <row r="74" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A74" s="48"/>
-      <c r="B74" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B74" s="35"/>
       <c r="C74" s="36"/>
       <c r="D74" s="36"/>
       <c r="E74" s="47"/>
@@ -4353,18 +3786,14 @@
       <c r="G74" s="44"/>
       <c r="H74" s="37"/>
       <c r="I74" s="36"/>
-      <c r="J74" s="36" t="s">
-        <v>45</v>
-      </c>
+      <c r="J74" s="36"/>
       <c r="K74" s="36"/>
       <c r="L74" s="36"/>
       <c r="M74" s="37"/>
       <c r="N74" s="36"/>
       <c r="O74" s="36"/>
       <c r="P74" s="49"/>
-      <c r="Q74" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q74" s="43"/>
       <c r="R74" s="38"/>
       <c r="S74" s="38"/>
       <c r="T74" s="38"/>
@@ -4380,9 +3809,7 @@
     </row>
     <row r="75" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A75" s="48"/>
-      <c r="B75" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B75" s="35"/>
       <c r="C75" s="36"/>
       <c r="D75" s="36"/>
       <c r="E75" s="47"/>
@@ -4390,18 +3817,14 @@
       <c r="G75" s="44"/>
       <c r="H75" s="37"/>
       <c r="I75" s="36"/>
-      <c r="J75" s="36" t="s">
-        <v>47</v>
-      </c>
+      <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="36"/>
       <c r="M75" s="37"/>
       <c r="N75" s="36"/>
       <c r="O75" s="36"/>
       <c r="P75" s="49"/>
-      <c r="Q75" s="43" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q75" s="43"/>
       <c r="R75" s="38"/>
       <c r="S75" s="38"/>
       <c r="T75" s="38"/>
@@ -4417,9 +3840,7 @@
     </row>
     <row r="76" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A76" s="48"/>
-      <c r="B76" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B76" s="35"/>
       <c r="C76" s="36"/>
       <c r="D76" s="36"/>
       <c r="E76" s="47"/>
@@ -4427,18 +3848,14 @@
       <c r="G76" s="44"/>
       <c r="H76" s="37"/>
       <c r="I76" s="36"/>
-      <c r="J76" s="47" t="s">
-        <v>49</v>
-      </c>
+      <c r="J76" s="47"/>
       <c r="K76" s="36"/>
       <c r="L76" s="36"/>
       <c r="M76" s="37"/>
       <c r="N76" s="36"/>
       <c r="O76" s="36"/>
       <c r="P76" s="49"/>
-      <c r="Q76" s="43" t="s">
-        <v>50</v>
-      </c>
+      <c r="Q76" s="43"/>
       <c r="R76" s="38"/>
       <c r="S76" s="38"/>
       <c r="T76" s="38"/>
@@ -4453,35 +3870,23 @@
       <c r="Z76" s="45"/>
     </row>
     <row r="77" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A77" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A77" s="48"/>
+      <c r="B77" s="35"/>
       <c r="C77" s="36"/>
       <c r="D77" s="36"/>
-      <c r="E77" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F77" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E77" s="47"/>
+      <c r="F77" s="49"/>
       <c r="G77" s="36"/>
       <c r="H77" s="37"/>
       <c r="I77" s="36"/>
-      <c r="J77" s="47" t="s">
-        <v>53</v>
-      </c>
+      <c r="J77" s="47"/>
       <c r="K77" s="36"/>
       <c r="L77" s="36"/>
       <c r="M77" s="37"/>
       <c r="N77" s="36"/>
       <c r="O77" s="36"/>
       <c r="P77" s="49"/>
-      <c r="Q77" s="43" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q77" s="43"/>
       <c r="R77" s="38"/>
       <c r="S77" s="38"/>
       <c r="T77" s="38"/>
@@ -4497,9 +3902,7 @@
     </row>
     <row r="78" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A78" s="48"/>
-      <c r="B78" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B78" s="35"/>
       <c r="C78" s="36"/>
       <c r="D78" s="36"/>
       <c r="E78" s="47"/>
@@ -4507,18 +3910,14 @@
       <c r="G78" s="36"/>
       <c r="H78" s="37"/>
       <c r="I78" s="36"/>
-      <c r="J78" s="36" t="s">
-        <v>55</v>
-      </c>
+      <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="36"/>
       <c r="M78" s="37"/>
       <c r="N78" s="36"/>
       <c r="O78" s="36"/>
       <c r="P78" s="49"/>
-      <c r="Q78" s="47" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q78" s="47"/>
       <c r="R78" s="38"/>
       <c r="S78" s="38"/>
       <c r="T78" s="38"/>
@@ -4534,9 +3933,7 @@
     </row>
     <row r="79" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A79" s="48"/>
-      <c r="B79" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B79" s="35"/>
       <c r="C79" s="36"/>
       <c r="D79" s="36"/>
       <c r="E79" s="47"/>
@@ -4544,18 +3941,14 @@
       <c r="G79" s="36"/>
       <c r="H79" s="37"/>
       <c r="I79" s="36"/>
-      <c r="J79" s="36" t="s">
-        <v>57</v>
-      </c>
+      <c r="J79" s="36"/>
       <c r="K79" s="36"/>
       <c r="L79" s="36"/>
       <c r="M79" s="37"/>
       <c r="N79" s="36"/>
       <c r="O79" s="36"/>
       <c r="P79" s="49"/>
-      <c r="Q79" s="47" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q79" s="47"/>
       <c r="R79" s="38"/>
       <c r="S79" s="38"/>
       <c r="T79" s="38"/>
@@ -4571,9 +3964,7 @@
     </row>
     <row r="80" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A80" s="48"/>
-      <c r="B80" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B80" s="35"/>
       <c r="C80" s="36"/>
       <c r="D80" s="36"/>
       <c r="E80" s="47"/>
@@ -4581,18 +3972,14 @@
       <c r="G80" s="36"/>
       <c r="H80" s="37"/>
       <c r="I80" s="36"/>
-      <c r="J80" s="47" t="s">
-        <v>59</v>
-      </c>
+      <c r="J80" s="47"/>
       <c r="K80" s="36"/>
       <c r="L80" s="36"/>
       <c r="M80" s="37"/>
       <c r="N80" s="36"/>
       <c r="O80" s="36"/>
       <c r="P80" s="49"/>
-      <c r="Q80" s="47" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q80" s="47"/>
       <c r="R80" s="38"/>
       <c r="S80" s="38"/>
       <c r="T80" s="38"/>
@@ -4608,9 +3995,7 @@
     </row>
     <row r="81" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A81" s="48"/>
-      <c r="B81" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B81" s="35"/>
       <c r="C81" s="36"/>
       <c r="D81" s="36"/>
       <c r="E81" s="47"/>
@@ -4641,9 +4026,7 @@
     </row>
     <row r="82" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A82" s="48"/>
-      <c r="B82" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B82" s="35"/>
       <c r="C82" s="36"/>
       <c r="D82" s="36"/>
       <c r="E82" s="47"/>
@@ -4651,18 +4034,14 @@
       <c r="G82" s="36"/>
       <c r="H82" s="37"/>
       <c r="I82" s="36"/>
-      <c r="J82" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="J82" s="36"/>
       <c r="K82" s="36"/>
       <c r="L82" s="36"/>
       <c r="M82" s="37"/>
       <c r="N82" s="36"/>
       <c r="O82" s="36"/>
       <c r="P82" s="49"/>
-      <c r="Q82" s="47" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q82" s="47"/>
       <c r="R82" s="38"/>
       <c r="S82" s="38"/>
       <c r="T82" s="38"/>
@@ -4677,47 +4056,23 @@
       <c r="Z82" s="41"/>
     </row>
     <row r="83" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A83" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B83" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A83" s="48"/>
+      <c r="B83" s="35"/>
       <c r="C83" s="36"/>
       <c r="D83" s="36"/>
-      <c r="E83" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F83" s="49" t="s">
-        <v>65</v>
-      </c>
+      <c r="E83" s="47"/>
+      <c r="F83" s="49"/>
       <c r="G83" s="36"/>
       <c r="H83" s="37"/>
-      <c r="I83" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J83" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="K83" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="L83" s="36" t="s">
-        <v>69</v>
-      </c>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
       <c r="M83" s="37"/>
-      <c r="N83" s="36">
-        <v>142</v>
-      </c>
-      <c r="O83" s="36">
-        <v>3139</v>
-      </c>
-      <c r="P83" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q83" s="47" t="s">
-        <v>70</v>
-      </c>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="49"/>
+      <c r="Q83" s="47"/>
       <c r="R83" s="38"/>
       <c r="S83" s="38"/>
       <c r="T83" s="38"/>
@@ -4732,37 +4087,23 @@
       <c r="Z83" s="45"/>
     </row>
     <row r="84" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A84" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B84" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A84" s="48"/>
+      <c r="B84" s="35"/>
       <c r="C84" s="36"/>
       <c r="D84" s="36"/>
-      <c r="E84" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F84" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E84" s="47"/>
+      <c r="F84" s="49"/>
       <c r="G84" s="36"/>
       <c r="H84" s="37"/>
       <c r="I84" s="36"/>
-      <c r="J84" s="47" t="s">
-        <v>39</v>
-      </c>
+      <c r="J84" s="47"/>
       <c r="K84" s="36"/>
       <c r="L84" s="36"/>
       <c r="M84" s="37"/>
       <c r="N84" s="36"/>
       <c r="O84" s="36"/>
-      <c r="P84" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q84" s="47" t="s">
-        <v>41</v>
-      </c>
+      <c r="P84" s="49"/>
+      <c r="Q84" s="47"/>
       <c r="R84" s="38"/>
       <c r="S84" s="38"/>
       <c r="T84" s="38"/>
@@ -4778,9 +4119,7 @@
     </row>
     <row r="85" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
       <c r="A85" s="48"/>
-      <c r="B85" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B85" s="35"/>
       <c r="C85" s="36"/>
       <c r="D85" s="36"/>
       <c r="E85" s="47"/>
@@ -4811,9 +4150,7 @@
     </row>
     <row r="86" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A86" s="48"/>
-      <c r="B86" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B86" s="35"/>
       <c r="C86" s="36"/>
       <c r="D86" s="36"/>
       <c r="E86" s="47"/>
@@ -4821,18 +4158,14 @@
       <c r="G86" s="36"/>
       <c r="H86" s="37"/>
       <c r="I86" s="36"/>
-      <c r="J86" s="36" t="s">
-        <v>42</v>
-      </c>
+      <c r="J86" s="36"/>
       <c r="K86" s="36"/>
       <c r="L86" s="36"/>
       <c r="M86" s="37"/>
       <c r="N86" s="36"/>
       <c r="O86" s="36"/>
       <c r="P86" s="49"/>
-      <c r="Q86" s="43" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q86" s="43"/>
       <c r="R86" s="38"/>
       <c r="S86" s="38"/>
       <c r="T86" s="38"/>
@@ -4848,9 +4181,7 @@
     </row>
     <row r="87" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A87" s="48"/>
-      <c r="B87" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B87" s="35"/>
       <c r="C87" s="36"/>
       <c r="D87" s="36"/>
       <c r="E87" s="47"/>
@@ -4858,18 +4189,14 @@
       <c r="G87" s="36"/>
       <c r="H87" s="37"/>
       <c r="I87" s="36"/>
-      <c r="J87" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="J87" s="36"/>
       <c r="K87" s="36"/>
       <c r="L87" s="36"/>
       <c r="M87" s="37"/>
       <c r="N87" s="36"/>
       <c r="O87" s="36"/>
       <c r="P87" s="49"/>
-      <c r="Q87" s="43" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q87" s="43"/>
       <c r="R87" s="38"/>
       <c r="S87" s="38"/>
       <c r="T87" s="38"/>
@@ -4885,9 +4212,7 @@
     </row>
     <row r="88" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A88" s="48"/>
-      <c r="B88" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B88" s="35"/>
       <c r="C88" s="36"/>
       <c r="D88" s="36"/>
       <c r="E88" s="47"/>
@@ -4895,18 +4220,14 @@
       <c r="G88" s="44"/>
       <c r="H88" s="37"/>
       <c r="I88" s="36"/>
-      <c r="J88" s="36" t="s">
-        <v>45</v>
-      </c>
+      <c r="J88" s="36"/>
       <c r="K88" s="36"/>
       <c r="L88" s="36"/>
       <c r="M88" s="37"/>
       <c r="N88" s="36"/>
       <c r="O88" s="36"/>
       <c r="P88" s="49"/>
-      <c r="Q88" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q88" s="43"/>
       <c r="R88" s="38"/>
       <c r="S88" s="38"/>
       <c r="T88" s="38"/>
@@ -4922,9 +4243,7 @@
     </row>
     <row r="89" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A89" s="48"/>
-      <c r="B89" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B89" s="35"/>
       <c r="C89" s="36"/>
       <c r="D89" s="36"/>
       <c r="E89" s="47"/>
@@ -4932,18 +4251,14 @@
       <c r="G89" s="44"/>
       <c r="H89" s="37"/>
       <c r="I89" s="36"/>
-      <c r="J89" s="36" t="s">
-        <v>47</v>
-      </c>
+      <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="36"/>
       <c r="M89" s="37"/>
       <c r="N89" s="36"/>
       <c r="O89" s="36"/>
       <c r="P89" s="49"/>
-      <c r="Q89" s="43" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q89" s="43"/>
       <c r="R89" s="38"/>
       <c r="S89" s="38"/>
       <c r="T89" s="38"/>
@@ -4959,9 +4274,7 @@
     </row>
     <row r="90" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A90" s="48"/>
-      <c r="B90" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B90" s="35"/>
       <c r="C90" s="36"/>
       <c r="D90" s="36"/>
       <c r="E90" s="47"/>
@@ -4969,18 +4282,14 @@
       <c r="G90" s="44"/>
       <c r="H90" s="37"/>
       <c r="I90" s="36"/>
-      <c r="J90" s="47" t="s">
-        <v>49</v>
-      </c>
+      <c r="J90" s="47"/>
       <c r="K90" s="36"/>
       <c r="L90" s="36"/>
       <c r="M90" s="37"/>
       <c r="N90" s="36"/>
       <c r="O90" s="36"/>
       <c r="P90" s="49"/>
-      <c r="Q90" s="43" t="s">
-        <v>50</v>
-      </c>
+      <c r="Q90" s="43"/>
       <c r="R90" s="38"/>
       <c r="S90" s="38"/>
       <c r="T90" s="38"/>
@@ -4995,35 +4304,23 @@
       <c r="Z90" s="45"/>
     </row>
     <row r="91" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A91" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B91" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A91" s="48"/>
+      <c r="B91" s="35"/>
       <c r="C91" s="36"/>
       <c r="D91" s="36"/>
-      <c r="E91" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F91" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E91" s="47"/>
+      <c r="F91" s="49"/>
       <c r="G91" s="36"/>
       <c r="H91" s="37"/>
       <c r="I91" s="36"/>
-      <c r="J91" s="47" t="s">
-        <v>53</v>
-      </c>
+      <c r="J91" s="47"/>
       <c r="K91" s="36"/>
       <c r="L91" s="36"/>
       <c r="M91" s="37"/>
       <c r="N91" s="36"/>
       <c r="O91" s="36"/>
       <c r="P91" s="49"/>
-      <c r="Q91" s="43" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q91" s="43"/>
       <c r="R91" s="38"/>
       <c r="S91" s="38"/>
       <c r="T91" s="38"/>
@@ -5039,9 +4336,7 @@
     </row>
     <row r="92" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A92" s="48"/>
-      <c r="B92" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B92" s="35"/>
       <c r="C92" s="36"/>
       <c r="D92" s="36"/>
       <c r="E92" s="47"/>
@@ -5049,18 +4344,14 @@
       <c r="G92" s="36"/>
       <c r="H92" s="37"/>
       <c r="I92" s="36"/>
-      <c r="J92" s="36" t="s">
-        <v>55</v>
-      </c>
+      <c r="J92" s="36"/>
       <c r="K92" s="36"/>
       <c r="L92" s="36"/>
       <c r="M92" s="37"/>
       <c r="N92" s="36"/>
       <c r="O92" s="36"/>
       <c r="P92" s="49"/>
-      <c r="Q92" s="47" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q92" s="47"/>
       <c r="R92" s="38"/>
       <c r="S92" s="38"/>
       <c r="T92" s="38"/>
@@ -5076,9 +4367,7 @@
     </row>
     <row r="93" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A93" s="48"/>
-      <c r="B93" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B93" s="35"/>
       <c r="C93" s="36"/>
       <c r="D93" s="36"/>
       <c r="E93" s="47"/>
@@ -5086,18 +4375,14 @@
       <c r="G93" s="36"/>
       <c r="H93" s="37"/>
       <c r="I93" s="36"/>
-      <c r="J93" s="36" t="s">
-        <v>57</v>
-      </c>
+      <c r="J93" s="36"/>
       <c r="K93" s="36"/>
       <c r="L93" s="36"/>
       <c r="M93" s="37"/>
       <c r="N93" s="36"/>
       <c r="O93" s="36"/>
       <c r="P93" s="49"/>
-      <c r="Q93" s="47" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q93" s="47"/>
       <c r="R93" s="38"/>
       <c r="S93" s="38"/>
       <c r="T93" s="38"/>
@@ -5113,9 +4398,7 @@
     </row>
     <row r="94" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A94" s="48"/>
-      <c r="B94" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B94" s="35"/>
       <c r="C94" s="36"/>
       <c r="D94" s="36"/>
       <c r="E94" s="47"/>
@@ -5123,18 +4406,14 @@
       <c r="G94" s="36"/>
       <c r="H94" s="37"/>
       <c r="I94" s="36"/>
-      <c r="J94" s="47" t="s">
-        <v>59</v>
-      </c>
+      <c r="J94" s="47"/>
       <c r="K94" s="36"/>
       <c r="L94" s="36"/>
       <c r="M94" s="37"/>
       <c r="N94" s="36"/>
       <c r="O94" s="36"/>
       <c r="P94" s="49"/>
-      <c r="Q94" s="47" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q94" s="47"/>
       <c r="R94" s="38"/>
       <c r="S94" s="38"/>
       <c r="T94" s="38"/>
@@ -5150,9 +4429,7 @@
     </row>
     <row r="95" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A95" s="48"/>
-      <c r="B95" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B95" s="35"/>
       <c r="C95" s="36"/>
       <c r="D95" s="36"/>
       <c r="E95" s="47"/>
@@ -5183,9 +4460,7 @@
     </row>
     <row r="96" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A96" s="48"/>
-      <c r="B96" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B96" s="35"/>
       <c r="C96" s="36"/>
       <c r="D96" s="36"/>
       <c r="E96" s="47"/>
@@ -5193,18 +4468,14 @@
       <c r="G96" s="36"/>
       <c r="H96" s="37"/>
       <c r="I96" s="36"/>
-      <c r="J96" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="J96" s="36"/>
       <c r="K96" s="36"/>
       <c r="L96" s="36"/>
       <c r="M96" s="37"/>
       <c r="N96" s="36"/>
       <c r="O96" s="36"/>
       <c r="P96" s="49"/>
-      <c r="Q96" s="47" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q96" s="47"/>
       <c r="R96" s="38"/>
       <c r="S96" s="38"/>
       <c r="T96" s="38"/>
@@ -5219,47 +4490,23 @@
       <c r="Z96" s="41"/>
     </row>
     <row r="97" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A97" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B97" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A97" s="48"/>
+      <c r="B97" s="35"/>
       <c r="C97" s="36"/>
       <c r="D97" s="36"/>
-      <c r="E97" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F97" s="49" t="s">
-        <v>65</v>
-      </c>
+      <c r="E97" s="47"/>
+      <c r="F97" s="49"/>
       <c r="G97" s="36"/>
       <c r="H97" s="37"/>
-      <c r="I97" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J97" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="K97" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="L97" s="36" t="s">
-        <v>69</v>
-      </c>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="36"/>
       <c r="M97" s="37"/>
-      <c r="N97" s="36">
-        <v>142</v>
-      </c>
-      <c r="O97" s="36">
-        <v>3139</v>
-      </c>
-      <c r="P97" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q97" s="47" t="s">
-        <v>70</v>
-      </c>
+      <c r="N97" s="36"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="49"/>
+      <c r="Q97" s="47"/>
       <c r="R97" s="38"/>
       <c r="S97" s="38"/>
       <c r="T97" s="38"/>
@@ -5274,37 +4521,23 @@
       <c r="Z97" s="45"/>
     </row>
     <row r="98" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A98" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B98" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A98" s="48"/>
+      <c r="B98" s="35"/>
       <c r="C98" s="36"/>
       <c r="D98" s="36"/>
-      <c r="E98" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F98" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E98" s="47"/>
+      <c r="F98" s="49"/>
       <c r="G98" s="36"/>
       <c r="H98" s="37"/>
       <c r="I98" s="36"/>
-      <c r="J98" s="47" t="s">
-        <v>39</v>
-      </c>
+      <c r="J98" s="47"/>
       <c r="K98" s="36"/>
       <c r="L98" s="36"/>
       <c r="M98" s="37"/>
       <c r="N98" s="36"/>
       <c r="O98" s="36"/>
-      <c r="P98" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q98" s="47" t="s">
-        <v>41</v>
-      </c>
+      <c r="P98" s="49"/>
+      <c r="Q98" s="47"/>
       <c r="R98" s="38"/>
       <c r="S98" s="38"/>
       <c r="T98" s="38"/>
@@ -5320,9 +4553,7 @@
     </row>
     <row r="99" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
       <c r="A99" s="48"/>
-      <c r="B99" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B99" s="35"/>
       <c r="C99" s="36"/>
       <c r="D99" s="36"/>
       <c r="E99" s="47"/>
@@ -5353,9 +4584,7 @@
     </row>
     <row r="100" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A100" s="48"/>
-      <c r="B100" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B100" s="35"/>
       <c r="C100" s="36"/>
       <c r="D100" s="36"/>
       <c r="E100" s="47"/>
@@ -5363,18 +4592,14 @@
       <c r="G100" s="36"/>
       <c r="H100" s="37"/>
       <c r="I100" s="36"/>
-      <c r="J100" s="36" t="s">
-        <v>42</v>
-      </c>
+      <c r="J100" s="36"/>
       <c r="K100" s="36"/>
       <c r="L100" s="36"/>
       <c r="M100" s="37"/>
       <c r="N100" s="36"/>
       <c r="O100" s="36"/>
       <c r="P100" s="49"/>
-      <c r="Q100" s="43" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q100" s="43"/>
       <c r="R100" s="38"/>
       <c r="S100" s="38"/>
       <c r="T100" s="38"/>
@@ -5390,9 +4615,7 @@
     </row>
     <row r="101" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A101" s="48"/>
-      <c r="B101" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B101" s="35"/>
       <c r="C101" s="36"/>
       <c r="D101" s="36"/>
       <c r="E101" s="47"/>
@@ -5400,18 +4623,14 @@
       <c r="G101" s="36"/>
       <c r="H101" s="37"/>
       <c r="I101" s="36"/>
-      <c r="J101" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="36"/>
       <c r="M101" s="37"/>
       <c r="N101" s="36"/>
       <c r="O101" s="36"/>
       <c r="P101" s="49"/>
-      <c r="Q101" s="43" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q101" s="43"/>
       <c r="R101" s="38"/>
       <c r="S101" s="38"/>
       <c r="T101" s="38"/>
@@ -5427,9 +4646,7 @@
     </row>
     <row r="102" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A102" s="48"/>
-      <c r="B102" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B102" s="35"/>
       <c r="C102" s="36"/>
       <c r="D102" s="36"/>
       <c r="E102" s="47"/>
@@ -5437,18 +4654,14 @@
       <c r="G102" s="44"/>
       <c r="H102" s="37"/>
       <c r="I102" s="36"/>
-      <c r="J102" s="36" t="s">
-        <v>45</v>
-      </c>
+      <c r="J102" s="36"/>
       <c r="K102" s="36"/>
       <c r="L102" s="36"/>
       <c r="M102" s="37"/>
       <c r="N102" s="36"/>
       <c r="O102" s="36"/>
       <c r="P102" s="49"/>
-      <c r="Q102" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q102" s="43"/>
       <c r="R102" s="38"/>
       <c r="S102" s="38"/>
       <c r="T102" s="38"/>
@@ -5464,9 +4677,7 @@
     </row>
     <row r="103" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A103" s="48"/>
-      <c r="B103" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B103" s="35"/>
       <c r="C103" s="36"/>
       <c r="D103" s="36"/>
       <c r="E103" s="47"/>
@@ -5474,18 +4685,14 @@
       <c r="G103" s="44"/>
       <c r="H103" s="37"/>
       <c r="I103" s="36"/>
-      <c r="J103" s="36" t="s">
-        <v>47</v>
-      </c>
+      <c r="J103" s="36"/>
       <c r="K103" s="36"/>
       <c r="L103" s="36"/>
       <c r="M103" s="37"/>
       <c r="N103" s="36"/>
       <c r="O103" s="36"/>
       <c r="P103" s="49"/>
-      <c r="Q103" s="43" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q103" s="43"/>
       <c r="R103" s="38"/>
       <c r="S103" s="38"/>
       <c r="T103" s="38"/>
@@ -5501,9 +4708,7 @@
     </row>
     <row r="104" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A104" s="48"/>
-      <c r="B104" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B104" s="35"/>
       <c r="C104" s="36"/>
       <c r="D104" s="36"/>
       <c r="E104" s="47"/>
@@ -5511,18 +4716,14 @@
       <c r="G104" s="44"/>
       <c r="H104" s="37"/>
       <c r="I104" s="36"/>
-      <c r="J104" s="47" t="s">
-        <v>49</v>
-      </c>
+      <c r="J104" s="47"/>
       <c r="K104" s="36"/>
       <c r="L104" s="36"/>
       <c r="M104" s="37"/>
       <c r="N104" s="36"/>
       <c r="O104" s="36"/>
       <c r="P104" s="49"/>
-      <c r="Q104" s="43" t="s">
-        <v>50</v>
-      </c>
+      <c r="Q104" s="43"/>
       <c r="R104" s="38"/>
       <c r="S104" s="38"/>
       <c r="T104" s="38"/>
@@ -5537,35 +4738,23 @@
       <c r="Z104" s="45"/>
     </row>
     <row r="105" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A105" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B105" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A105" s="48"/>
+      <c r="B105" s="35"/>
       <c r="C105" s="36"/>
       <c r="D105" s="36"/>
-      <c r="E105" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F105" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E105" s="47"/>
+      <c r="F105" s="49"/>
       <c r="G105" s="36"/>
       <c r="H105" s="37"/>
       <c r="I105" s="36"/>
-      <c r="J105" s="47" t="s">
-        <v>53</v>
-      </c>
+      <c r="J105" s="47"/>
       <c r="K105" s="36"/>
       <c r="L105" s="36"/>
       <c r="M105" s="37"/>
       <c r="N105" s="36"/>
       <c r="O105" s="36"/>
       <c r="P105" s="49"/>
-      <c r="Q105" s="43" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q105" s="43"/>
       <c r="R105" s="38"/>
       <c r="S105" s="38"/>
       <c r="T105" s="38"/>
@@ -5581,9 +4770,7 @@
     </row>
     <row r="106" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A106" s="48"/>
-      <c r="B106" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B106" s="35"/>
       <c r="C106" s="36"/>
       <c r="D106" s="36"/>
       <c r="E106" s="47"/>
@@ -5591,18 +4778,14 @@
       <c r="G106" s="36"/>
       <c r="H106" s="37"/>
       <c r="I106" s="36"/>
-      <c r="J106" s="36" t="s">
-        <v>55</v>
-      </c>
+      <c r="J106" s="36"/>
       <c r="K106" s="36"/>
       <c r="L106" s="36"/>
       <c r="M106" s="37"/>
       <c r="N106" s="36"/>
       <c r="O106" s="36"/>
       <c r="P106" s="49"/>
-      <c r="Q106" s="47" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q106" s="47"/>
       <c r="R106" s="38"/>
       <c r="S106" s="38"/>
       <c r="T106" s="38"/>
@@ -5618,9 +4801,7 @@
     </row>
     <row r="107" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A107" s="48"/>
-      <c r="B107" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B107" s="35"/>
       <c r="C107" s="36"/>
       <c r="D107" s="36"/>
       <c r="E107" s="47"/>
@@ -5628,18 +4809,14 @@
       <c r="G107" s="36"/>
       <c r="H107" s="37"/>
       <c r="I107" s="36"/>
-      <c r="J107" s="36" t="s">
-        <v>57</v>
-      </c>
+      <c r="J107" s="36"/>
       <c r="K107" s="36"/>
       <c r="L107" s="36"/>
       <c r="M107" s="37"/>
       <c r="N107" s="36"/>
       <c r="O107" s="36"/>
       <c r="P107" s="49"/>
-      <c r="Q107" s="47" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q107" s="47"/>
       <c r="R107" s="38"/>
       <c r="S107" s="38"/>
       <c r="T107" s="38"/>
@@ -5655,9 +4832,7 @@
     </row>
     <row r="108" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A108" s="48"/>
-      <c r="B108" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B108" s="35"/>
       <c r="C108" s="36"/>
       <c r="D108" s="36"/>
       <c r="E108" s="47"/>
@@ -5665,18 +4840,14 @@
       <c r="G108" s="36"/>
       <c r="H108" s="37"/>
       <c r="I108" s="36"/>
-      <c r="J108" s="47" t="s">
-        <v>59</v>
-      </c>
+      <c r="J108" s="47"/>
       <c r="K108" s="36"/>
       <c r="L108" s="36"/>
       <c r="M108" s="37"/>
       <c r="N108" s="36"/>
       <c r="O108" s="36"/>
       <c r="P108" s="49"/>
-      <c r="Q108" s="47" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q108" s="47"/>
       <c r="R108" s="38"/>
       <c r="S108" s="38"/>
       <c r="T108" s="38"/>
@@ -5692,9 +4863,7 @@
     </row>
     <row r="109" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A109" s="48"/>
-      <c r="B109" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B109" s="35"/>
       <c r="C109" s="36"/>
       <c r="D109" s="36"/>
       <c r="E109" s="47"/>
@@ -5725,9 +4894,7 @@
     </row>
     <row r="110" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A110" s="48"/>
-      <c r="B110" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B110" s="35"/>
       <c r="C110" s="36"/>
       <c r="D110" s="36"/>
       <c r="E110" s="47"/>
@@ -5735,18 +4902,14 @@
       <c r="G110" s="36"/>
       <c r="H110" s="37"/>
       <c r="I110" s="36"/>
-      <c r="J110" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="J110" s="36"/>
       <c r="K110" s="36"/>
       <c r="L110" s="36"/>
       <c r="M110" s="37"/>
       <c r="N110" s="36"/>
       <c r="O110" s="36"/>
       <c r="P110" s="49"/>
-      <c r="Q110" s="47" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q110" s="47"/>
       <c r="R110" s="38"/>
       <c r="S110" s="38"/>
       <c r="T110" s="38"/>
@@ -5761,47 +4924,23 @@
       <c r="Z110" s="41"/>
     </row>
     <row r="111" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A111" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B111" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A111" s="48"/>
+      <c r="B111" s="35"/>
       <c r="C111" s="36"/>
       <c r="D111" s="36"/>
-      <c r="E111" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F111" s="49" t="s">
-        <v>65</v>
-      </c>
+      <c r="E111" s="47"/>
+      <c r="F111" s="49"/>
       <c r="G111" s="36"/>
       <c r="H111" s="37"/>
-      <c r="I111" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J111" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="K111" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="L111" s="36" t="s">
-        <v>69</v>
-      </c>
+      <c r="I111" s="36"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="36"/>
+      <c r="L111" s="36"/>
       <c r="M111" s="37"/>
-      <c r="N111" s="36">
-        <v>142</v>
-      </c>
-      <c r="O111" s="36">
-        <v>3139</v>
-      </c>
-      <c r="P111" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q111" s="47" t="s">
-        <v>70</v>
-      </c>
+      <c r="N111" s="36"/>
+      <c r="O111" s="36"/>
+      <c r="P111" s="49"/>
+      <c r="Q111" s="47"/>
       <c r="R111" s="38"/>
       <c r="S111" s="38"/>
       <c r="T111" s="38"/>
@@ -5816,37 +4955,23 @@
       <c r="Z111" s="45"/>
     </row>
     <row r="112" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A112" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B112" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A112" s="48"/>
+      <c r="B112" s="35"/>
       <c r="C112" s="36"/>
       <c r="D112" s="36"/>
-      <c r="E112" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F112" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E112" s="47"/>
+      <c r="F112" s="49"/>
       <c r="G112" s="36"/>
       <c r="H112" s="37"/>
       <c r="I112" s="36"/>
-      <c r="J112" s="47" t="s">
-        <v>39</v>
-      </c>
+      <c r="J112" s="47"/>
       <c r="K112" s="36"/>
       <c r="L112" s="36"/>
       <c r="M112" s="37"/>
       <c r="N112" s="36"/>
       <c r="O112" s="36"/>
-      <c r="P112" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q112" s="47" t="s">
-        <v>41</v>
-      </c>
+      <c r="P112" s="49"/>
+      <c r="Q112" s="47"/>
       <c r="R112" s="38"/>
       <c r="S112" s="38"/>
       <c r="T112" s="38"/>
@@ -5862,9 +4987,7 @@
     </row>
     <row r="113" spans="1:26" s="42" customFormat="1" ht="52.5" customHeight="1">
       <c r="A113" s="48"/>
-      <c r="B113" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B113" s="35"/>
       <c r="C113" s="36"/>
       <c r="D113" s="36"/>
       <c r="E113" s="47"/>
@@ -5895,9 +5018,7 @@
     </row>
     <row r="114" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A114" s="48"/>
-      <c r="B114" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B114" s="35"/>
       <c r="C114" s="36"/>
       <c r="D114" s="36"/>
       <c r="E114" s="47"/>
@@ -5905,18 +5026,14 @@
       <c r="G114" s="36"/>
       <c r="H114" s="37"/>
       <c r="I114" s="36"/>
-      <c r="J114" s="36" t="s">
-        <v>42</v>
-      </c>
+      <c r="J114" s="36"/>
       <c r="K114" s="36"/>
       <c r="L114" s="36"/>
       <c r="M114" s="37"/>
       <c r="N114" s="36"/>
       <c r="O114" s="36"/>
       <c r="P114" s="49"/>
-      <c r="Q114" s="43" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q114" s="43"/>
       <c r="R114" s="38"/>
       <c r="S114" s="38"/>
       <c r="T114" s="38"/>
@@ -5932,9 +5049,7 @@
     </row>
     <row r="115" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A115" s="48"/>
-      <c r="B115" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B115" s="35"/>
       <c r="C115" s="36"/>
       <c r="D115" s="36"/>
       <c r="E115" s="47"/>
@@ -5942,18 +5057,14 @@
       <c r="G115" s="36"/>
       <c r="H115" s="37"/>
       <c r="I115" s="36"/>
-      <c r="J115" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="J115" s="36"/>
       <c r="K115" s="36"/>
       <c r="L115" s="36"/>
       <c r="M115" s="37"/>
       <c r="N115" s="36"/>
       <c r="O115" s="36"/>
       <c r="P115" s="49"/>
-      <c r="Q115" s="43" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q115" s="43"/>
       <c r="R115" s="38"/>
       <c r="S115" s="38"/>
       <c r="T115" s="38"/>
@@ -5969,9 +5080,7 @@
     </row>
     <row r="116" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A116" s="48"/>
-      <c r="B116" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B116" s="35"/>
       <c r="C116" s="36"/>
       <c r="D116" s="36"/>
       <c r="E116" s="47"/>
@@ -5979,18 +5088,14 @@
       <c r="G116" s="44"/>
       <c r="H116" s="37"/>
       <c r="I116" s="36"/>
-      <c r="J116" s="36" t="s">
-        <v>45</v>
-      </c>
+      <c r="J116" s="36"/>
       <c r="K116" s="36"/>
       <c r="L116" s="36"/>
       <c r="M116" s="37"/>
       <c r="N116" s="36"/>
       <c r="O116" s="36"/>
       <c r="P116" s="49"/>
-      <c r="Q116" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q116" s="43"/>
       <c r="R116" s="38"/>
       <c r="S116" s="38"/>
       <c r="T116" s="38"/>
@@ -6006,9 +5111,7 @@
     </row>
     <row r="117" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A117" s="48"/>
-      <c r="B117" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B117" s="35"/>
       <c r="C117" s="36"/>
       <c r="D117" s="36"/>
       <c r="E117" s="47"/>
@@ -6016,18 +5119,14 @@
       <c r="G117" s="44"/>
       <c r="H117" s="37"/>
       <c r="I117" s="36"/>
-      <c r="J117" s="36" t="s">
-        <v>47</v>
-      </c>
+      <c r="J117" s="36"/>
       <c r="K117" s="36"/>
       <c r="L117" s="36"/>
       <c r="M117" s="37"/>
       <c r="N117" s="36"/>
       <c r="O117" s="36"/>
       <c r="P117" s="49"/>
-      <c r="Q117" s="43" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q117" s="43"/>
       <c r="R117" s="38"/>
       <c r="S117" s="38"/>
       <c r="T117" s="38"/>
@@ -6043,9 +5142,7 @@
     </row>
     <row r="118" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A118" s="48"/>
-      <c r="B118" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B118" s="35"/>
       <c r="C118" s="36"/>
       <c r="D118" s="36"/>
       <c r="E118" s="47"/>
@@ -6053,18 +5150,14 @@
       <c r="G118" s="44"/>
       <c r="H118" s="37"/>
       <c r="I118" s="36"/>
-      <c r="J118" s="47" t="s">
-        <v>49</v>
-      </c>
+      <c r="J118" s="47"/>
       <c r="K118" s="36"/>
       <c r="L118" s="36"/>
       <c r="M118" s="37"/>
       <c r="N118" s="36"/>
       <c r="O118" s="36"/>
       <c r="P118" s="49"/>
-      <c r="Q118" s="43" t="s">
-        <v>50</v>
-      </c>
+      <c r="Q118" s="43"/>
       <c r="R118" s="38"/>
       <c r="S118" s="38"/>
       <c r="T118" s="38"/>
@@ -6079,35 +5172,23 @@
       <c r="Z118" s="45"/>
     </row>
     <row r="119" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A119" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B119" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A119" s="48"/>
+      <c r="B119" s="35"/>
       <c r="C119" s="36"/>
       <c r="D119" s="36"/>
-      <c r="E119" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F119" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E119" s="47"/>
+      <c r="F119" s="49"/>
       <c r="G119" s="36"/>
       <c r="H119" s="37"/>
       <c r="I119" s="36"/>
-      <c r="J119" s="47" t="s">
-        <v>53</v>
-      </c>
+      <c r="J119" s="47"/>
       <c r="K119" s="36"/>
       <c r="L119" s="36"/>
       <c r="M119" s="37"/>
       <c r="N119" s="36"/>
       <c r="O119" s="36"/>
       <c r="P119" s="49"/>
-      <c r="Q119" s="43" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q119" s="43"/>
       <c r="R119" s="38"/>
       <c r="S119" s="38"/>
       <c r="T119" s="38"/>
@@ -6123,9 +5204,7 @@
     </row>
     <row r="120" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A120" s="48"/>
-      <c r="B120" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B120" s="35"/>
       <c r="C120" s="36"/>
       <c r="D120" s="36"/>
       <c r="E120" s="47"/>
@@ -6133,18 +5212,14 @@
       <c r="G120" s="36"/>
       <c r="H120" s="37"/>
       <c r="I120" s="36"/>
-      <c r="J120" s="36" t="s">
-        <v>55</v>
-      </c>
+      <c r="J120" s="36"/>
       <c r="K120" s="36"/>
       <c r="L120" s="36"/>
       <c r="M120" s="37"/>
       <c r="N120" s="36"/>
       <c r="O120" s="36"/>
       <c r="P120" s="49"/>
-      <c r="Q120" s="47" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q120" s="47"/>
       <c r="R120" s="38"/>
       <c r="S120" s="38"/>
       <c r="T120" s="38"/>
@@ -6160,9 +5235,7 @@
     </row>
     <row r="121" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A121" s="48"/>
-      <c r="B121" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B121" s="35"/>
       <c r="C121" s="36"/>
       <c r="D121" s="36"/>
       <c r="E121" s="47"/>
@@ -6170,18 +5243,14 @@
       <c r="G121" s="36"/>
       <c r="H121" s="37"/>
       <c r="I121" s="36"/>
-      <c r="J121" s="36" t="s">
-        <v>57</v>
-      </c>
+      <c r="J121" s="36"/>
       <c r="K121" s="36"/>
       <c r="L121" s="36"/>
       <c r="M121" s="37"/>
       <c r="N121" s="36"/>
       <c r="O121" s="36"/>
       <c r="P121" s="49"/>
-      <c r="Q121" s="47" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q121" s="47"/>
       <c r="R121" s="38"/>
       <c r="S121" s="38"/>
       <c r="T121" s="38"/>
@@ -6197,9 +5266,7 @@
     </row>
     <row r="122" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A122" s="48"/>
-      <c r="B122" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B122" s="35"/>
       <c r="C122" s="36"/>
       <c r="D122" s="36"/>
       <c r="E122" s="47"/>
@@ -6207,18 +5274,14 @@
       <c r="G122" s="36"/>
       <c r="H122" s="37"/>
       <c r="I122" s="36"/>
-      <c r="J122" s="47" t="s">
-        <v>59</v>
-      </c>
+      <c r="J122" s="47"/>
       <c r="K122" s="36"/>
       <c r="L122" s="36"/>
       <c r="M122" s="37"/>
       <c r="N122" s="36"/>
       <c r="O122" s="36"/>
       <c r="P122" s="49"/>
-      <c r="Q122" s="47" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q122" s="47"/>
       <c r="R122" s="38"/>
       <c r="S122" s="38"/>
       <c r="T122" s="38"/>
@@ -6234,9 +5297,7 @@
     </row>
     <row r="123" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A123" s="48"/>
-      <c r="B123" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B123" s="35"/>
       <c r="C123" s="36"/>
       <c r="D123" s="36"/>
       <c r="E123" s="47"/>
@@ -6267,9 +5328,7 @@
     </row>
     <row r="124" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A124" s="48"/>
-      <c r="B124" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B124" s="35"/>
       <c r="C124" s="36"/>
       <c r="D124" s="36"/>
       <c r="E124" s="47"/>
@@ -6277,18 +5336,14 @@
       <c r="G124" s="36"/>
       <c r="H124" s="37"/>
       <c r="I124" s="36"/>
-      <c r="J124" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="J124" s="36"/>
       <c r="K124" s="36"/>
       <c r="L124" s="36"/>
       <c r="M124" s="37"/>
       <c r="N124" s="36"/>
       <c r="O124" s="36"/>
       <c r="P124" s="49"/>
-      <c r="Q124" s="47" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q124" s="47"/>
       <c r="R124" s="38"/>
       <c r="S124" s="38"/>
       <c r="T124" s="38"/>
@@ -6303,47 +5358,23 @@
       <c r="Z124" s="41"/>
     </row>
     <row r="125" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A125" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B125" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A125" s="48"/>
+      <c r="B125" s="35"/>
       <c r="C125" s="36"/>
       <c r="D125" s="36"/>
-      <c r="E125" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F125" s="49" t="s">
-        <v>65</v>
-      </c>
+      <c r="E125" s="47"/>
+      <c r="F125" s="49"/>
       <c r="G125" s="36"/>
       <c r="H125" s="37"/>
-      <c r="I125" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J125" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="K125" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="L125" s="36" t="s">
-        <v>69</v>
-      </c>
+      <c r="I125" s="36"/>
+      <c r="J125" s="36"/>
+      <c r="K125" s="36"/>
+      <c r="L125" s="36"/>
       <c r="M125" s="37"/>
-      <c r="N125" s="36">
-        <v>142</v>
-      </c>
-      <c r="O125" s="36">
-        <v>3139</v>
-      </c>
-      <c r="P125" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q125" s="47" t="s">
-        <v>70</v>
-      </c>
+      <c r="N125" s="36"/>
+      <c r="O125" s="36"/>
+      <c r="P125" s="49"/>
+      <c r="Q125" s="47"/>
       <c r="R125" s="38"/>
       <c r="S125" s="38"/>
       <c r="T125" s="38"/>
@@ -6359,9 +5390,7 @@
     </row>
     <row r="126" spans="1:26" s="42" customFormat="1" ht="40.5" customHeight="1">
       <c r="A126" s="48"/>
-      <c r="B126" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B126" s="35"/>
       <c r="C126" s="36"/>
       <c r="D126" s="36"/>
       <c r="E126" s="47"/>
@@ -6369,18 +5398,14 @@
       <c r="G126" s="44"/>
       <c r="H126" s="37"/>
       <c r="I126" s="36"/>
-      <c r="J126" s="36" t="s">
-        <v>45</v>
-      </c>
+      <c r="J126" s="36"/>
       <c r="K126" s="36"/>
       <c r="L126" s="36"/>
       <c r="M126" s="37"/>
       <c r="N126" s="36"/>
       <c r="O126" s="36"/>
       <c r="P126" s="49"/>
-      <c r="Q126" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q126" s="43"/>
       <c r="R126" s="38"/>
       <c r="S126" s="38"/>
       <c r="T126" s="38"/>
@@ -6396,9 +5421,7 @@
     </row>
     <row r="127" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A127" s="48"/>
-      <c r="B127" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B127" s="35"/>
       <c r="C127" s="36"/>
       <c r="D127" s="36"/>
       <c r="E127" s="47"/>
@@ -6406,18 +5429,14 @@
       <c r="G127" s="44"/>
       <c r="H127" s="37"/>
       <c r="I127" s="36"/>
-      <c r="J127" s="36" t="s">
-        <v>47</v>
-      </c>
+      <c r="J127" s="36"/>
       <c r="K127" s="36"/>
       <c r="L127" s="36"/>
       <c r="M127" s="37"/>
       <c r="N127" s="36"/>
       <c r="O127" s="36"/>
       <c r="P127" s="49"/>
-      <c r="Q127" s="43" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q127" s="43"/>
       <c r="R127" s="38"/>
       <c r="S127" s="38"/>
       <c r="T127" s="38"/>
@@ -6433,9 +5452,7 @@
     </row>
     <row r="128" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A128" s="48"/>
-      <c r="B128" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B128" s="35"/>
       <c r="C128" s="36"/>
       <c r="D128" s="36"/>
       <c r="E128" s="47"/>
@@ -6443,18 +5460,14 @@
       <c r="G128" s="44"/>
       <c r="H128" s="37"/>
       <c r="I128" s="36"/>
-      <c r="J128" s="47" t="s">
-        <v>49</v>
-      </c>
+      <c r="J128" s="47"/>
       <c r="K128" s="36"/>
       <c r="L128" s="36"/>
       <c r="M128" s="37"/>
       <c r="N128" s="36"/>
       <c r="O128" s="36"/>
       <c r="P128" s="49"/>
-      <c r="Q128" s="43" t="s">
-        <v>50</v>
-      </c>
+      <c r="Q128" s="43"/>
       <c r="R128" s="38"/>
       <c r="S128" s="38"/>
       <c r="T128" s="38"/>
@@ -6469,35 +5482,23 @@
       <c r="Z128" s="45"/>
     </row>
     <row r="129" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A129" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B129" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A129" s="48"/>
+      <c r="B129" s="35"/>
       <c r="C129" s="36"/>
       <c r="D129" s="36"/>
-      <c r="E129" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F129" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="E129" s="47"/>
+      <c r="F129" s="49"/>
       <c r="G129" s="36"/>
       <c r="H129" s="37"/>
       <c r="I129" s="36"/>
-      <c r="J129" s="47" t="s">
-        <v>53</v>
-      </c>
+      <c r="J129" s="47"/>
       <c r="K129" s="36"/>
       <c r="L129" s="36"/>
       <c r="M129" s="37"/>
       <c r="N129" s="36"/>
       <c r="O129" s="36"/>
       <c r="P129" s="49"/>
-      <c r="Q129" s="43" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q129" s="43"/>
       <c r="R129" s="38"/>
       <c r="S129" s="38"/>
       <c r="T129" s="38"/>
@@ -6513,9 +5514,7 @@
     </row>
     <row r="130" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A130" s="48"/>
-      <c r="B130" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B130" s="35"/>
       <c r="C130" s="36"/>
       <c r="D130" s="36"/>
       <c r="E130" s="47"/>
@@ -6523,18 +5522,14 @@
       <c r="G130" s="36"/>
       <c r="H130" s="37"/>
       <c r="I130" s="36"/>
-      <c r="J130" s="36" t="s">
-        <v>55</v>
-      </c>
+      <c r="J130" s="36"/>
       <c r="K130" s="36"/>
       <c r="L130" s="36"/>
       <c r="M130" s="37"/>
       <c r="N130" s="36"/>
       <c r="O130" s="36"/>
       <c r="P130" s="49"/>
-      <c r="Q130" s="47" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q130" s="47"/>
       <c r="R130" s="38"/>
       <c r="S130" s="38"/>
       <c r="T130" s="38"/>
@@ -6550,9 +5545,7 @@
     </row>
     <row r="131" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A131" s="48"/>
-      <c r="B131" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B131" s="35"/>
       <c r="C131" s="36"/>
       <c r="D131" s="36"/>
       <c r="E131" s="47"/>
@@ -6560,18 +5553,14 @@
       <c r="G131" s="36"/>
       <c r="H131" s="37"/>
       <c r="I131" s="36"/>
-      <c r="J131" s="36" t="s">
-        <v>57</v>
-      </c>
+      <c r="J131" s="36"/>
       <c r="K131" s="36"/>
       <c r="L131" s="36"/>
       <c r="M131" s="37"/>
       <c r="N131" s="36"/>
       <c r="O131" s="36"/>
       <c r="P131" s="49"/>
-      <c r="Q131" s="47" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q131" s="47"/>
       <c r="R131" s="38"/>
       <c r="S131" s="38"/>
       <c r="T131" s="38"/>
@@ -6587,9 +5576,7 @@
     </row>
     <row r="132" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A132" s="48"/>
-      <c r="B132" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B132" s="35"/>
       <c r="C132" s="36"/>
       <c r="D132" s="36"/>
       <c r="E132" s="47"/>
@@ -6597,18 +5584,14 @@
       <c r="G132" s="36"/>
       <c r="H132" s="37"/>
       <c r="I132" s="36"/>
-      <c r="J132" s="47" t="s">
-        <v>59</v>
-      </c>
+      <c r="J132" s="47"/>
       <c r="K132" s="36"/>
       <c r="L132" s="36"/>
       <c r="M132" s="37"/>
       <c r="N132" s="36"/>
       <c r="O132" s="36"/>
       <c r="P132" s="49"/>
-      <c r="Q132" s="47" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q132" s="47"/>
       <c r="R132" s="38"/>
       <c r="S132" s="38"/>
       <c r="T132" s="38"/>
@@ -6624,9 +5607,7 @@
     </row>
     <row r="133" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A133" s="48"/>
-      <c r="B133" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B133" s="35"/>
       <c r="C133" s="36"/>
       <c r="D133" s="36"/>
       <c r="E133" s="47"/>
@@ -6657,9 +5638,7 @@
     </row>
     <row r="134" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A134" s="48"/>
-      <c r="B134" s="35">
-        <v>45929</v>
-      </c>
+      <c r="B134" s="35"/>
       <c r="C134" s="36"/>
       <c r="D134" s="36"/>
       <c r="E134" s="47"/>
@@ -6667,18 +5646,14 @@
       <c r="G134" s="36"/>
       <c r="H134" s="37"/>
       <c r="I134" s="36"/>
-      <c r="J134" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="J134" s="36"/>
       <c r="K134" s="36"/>
       <c r="L134" s="36"/>
       <c r="M134" s="37"/>
       <c r="N134" s="36"/>
       <c r="O134" s="36"/>
       <c r="P134" s="49"/>
-      <c r="Q134" s="47" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q134" s="47"/>
       <c r="R134" s="38"/>
       <c r="S134" s="38"/>
       <c r="T134" s="38"/>
@@ -6693,47 +5668,23 @@
       <c r="Z134" s="41"/>
     </row>
     <row r="135" spans="1:26" s="46" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A135" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B135" s="35">
-        <v>45929</v>
-      </c>
+      <c r="A135" s="48"/>
+      <c r="B135" s="35"/>
       <c r="C135" s="36"/>
       <c r="D135" s="36"/>
-      <c r="E135" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F135" s="49" t="s">
-        <v>65</v>
-      </c>
+      <c r="E135" s="47"/>
+      <c r="F135" s="49"/>
       <c r="G135" s="36"/>
       <c r="H135" s="37"/>
-      <c r="I135" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J135" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="K135" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="L135" s="36" t="s">
-        <v>69</v>
-      </c>
+      <c r="I135" s="36"/>
+      <c r="J135" s="36"/>
+      <c r="K135" s="36"/>
+      <c r="L135" s="36"/>
       <c r="M135" s="37"/>
-      <c r="N135" s="36">
-        <v>142</v>
-      </c>
-      <c r="O135" s="36">
-        <v>3139</v>
-      </c>
-      <c r="P135" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q135" s="47" t="s">
-        <v>70</v>
-      </c>
+      <c r="N135" s="36"/>
+      <c r="O135" s="36"/>
+      <c r="P135" s="49"/>
+      <c r="Q135" s="47"/>
       <c r="R135" s="38"/>
       <c r="S135" s="38"/>
       <c r="T135" s="38"/>
@@ -7182,25 +6133,25 @@
       <c r="Z149" s="45"/>
     </row>
     <row r="150" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A150" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="B150" s="77"/>
-      <c r="C150" s="77"/>
-      <c r="D150" s="77"/>
-      <c r="E150" s="77"/>
-      <c r="F150" s="77"/>
-      <c r="G150" s="77"/>
-      <c r="H150" s="77"/>
-      <c r="I150" s="77"/>
-      <c r="J150" s="77"/>
-      <c r="K150" s="77"/>
-      <c r="L150" s="77"/>
-      <c r="M150" s="77"/>
-      <c r="N150" s="77"/>
-      <c r="O150" s="77"/>
-      <c r="P150" s="77"/>
-      <c r="Q150" s="77"/>
+      <c r="A150" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="B150" s="94"/>
+      <c r="C150" s="94"/>
+      <c r="D150" s="94"/>
+      <c r="E150" s="94"/>
+      <c r="F150" s="94"/>
+      <c r="G150" s="94"/>
+      <c r="H150" s="94"/>
+      <c r="I150" s="94"/>
+      <c r="J150" s="94"/>
+      <c r="K150" s="94"/>
+      <c r="L150" s="94"/>
+      <c r="M150" s="94"/>
+      <c r="N150" s="94"/>
+      <c r="O150" s="94"/>
+      <c r="P150" s="94"/>
+      <c r="Q150" s="94"/>
       <c r="R150" s="50"/>
       <c r="S150" s="51"/>
       <c r="T150" s="51"/>
@@ -7245,15 +6196,15 @@
     <row r="152" spans="1:26" ht="25.5" customHeight="1">
       <c r="A152" s="55"/>
       <c r="B152" s="63" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C152" s="64"/>
       <c r="D152" s="65"/>
-      <c r="E152" s="78">
+      <c r="E152" s="95">
         <f>+E9+E10</f>
         <v>1899002428.4285715</v>
       </c>
-      <c r="F152" s="78"/>
+      <c r="F152" s="95"/>
       <c r="G152" s="64"/>
       <c r="H152" s="66">
         <f>+H9+H10</f>
@@ -7264,7 +6215,7 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
       <c r="M152" s="7" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="N152" s="8"/>
       <c r="O152" s="67"/>
@@ -7276,32 +6227,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="Q3:Z3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="Q4:Z4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="Q5:Z5"/>
-    <mergeCell ref="A6:Z6"/>
-    <mergeCell ref="A7:Z7"/>
-    <mergeCell ref="C8:Z8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
     <mergeCell ref="Y12:Y13"/>
     <mergeCell ref="Z12:Z13"/>
     <mergeCell ref="A150:Q150"/>
@@ -7317,6 +6242,32 @@
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="Q3:Z3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="Q4:Z4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="Q5:Z5"/>
+    <mergeCell ref="A6:Z6"/>
+    <mergeCell ref="A7:Z7"/>
+    <mergeCell ref="C8:Z8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{D88860E5-26A2-400E-9CD6-A0A7F92B8419}"/>

--- a/tmpA3.xlsx
+++ b/tmpA3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DaiLamMoc\KeToanDaiLamMoc\DaiLamMoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236286CE-D7F1-4D10-A770-212B7CB1D944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D34EB8-99FB-4934-A8FA-E5DCA6AF35E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="2430" windowWidth="19545" windowHeight="13770" xr2:uid="{7295F9C0-1D23-42CE-9F19-08E01B072D9F}"/>
   </bookViews>
@@ -722,7 +722,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -924,6 +924,72 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -945,70 +1011,22 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1434,11 +1452,11 @@
   <dimension ref="A1:Z152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q19" sqref="Q19:Q21"/>
       <selection pane="topRight" activeCell="Q19" sqref="Q19:Q21"/>
       <selection pane="bottomLeft" activeCell="Q19" sqref="Q19:Q21"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:Q135"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="25.5" customHeight="1"/>
@@ -1452,7 +1470,7 @@
     <col min="7" max="7" width="11.85546875" style="6" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14" style="71" customWidth="1"/>
+    <col min="10" max="10" width="14" style="107" customWidth="1"/>
     <col min="11" max="11" width="7.140625" style="6" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="6" customWidth="1"/>
     <col min="13" max="13" width="11" style="6" customWidth="1"/>
@@ -1484,231 +1502,231 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
+      <c r="J1" s="102"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="4"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
     </row>
     <row r="2" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
     </row>
     <row r="3" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
     </row>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
     </row>
     <row r="5" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
     </row>
     <row r="6" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="99"/>
     </row>
     <row r="7" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
     </row>
     <row r="8" spans="1:26" ht="25.5" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
     </row>
     <row r="9" spans="1:26" ht="25.5" customHeight="1">
       <c r="A9" s="14"/>
@@ -1717,15 +1735,15 @@
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="73">
+      <c r="E9" s="95">
         <f>+'[1]25.9'!E17:F17</f>
         <v>1899002428.4285715</v>
       </c>
-      <c r="F9" s="73"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
+      <c r="J9" s="104"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
@@ -1750,15 +1768,15 @@
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="80">
+      <c r="E10" s="91">
         <f>+Y150</f>
         <v>0</v>
       </c>
-      <c r="F10" s="80"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
+      <c r="J10" s="104"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
@@ -1786,7 +1804,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="28"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
@@ -1807,114 +1825,114 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="34" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="83" t="s">
+      <c r="D12" s="94"/>
+      <c r="E12" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="88" t="s">
+      <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="90" t="s">
+      <c r="H12" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="83" t="s">
+      <c r="I12" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="83" t="s">
+      <c r="J12" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="83" t="s">
+      <c r="K12" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="83" t="s">
+      <c r="L12" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="83" t="s">
+      <c r="M12" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="98" t="s">
+      <c r="N12" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="98" t="s">
+      <c r="O12" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="83" t="s">
+      <c r="P12" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="100" t="s">
+      <c r="Q12" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="R12" s="86" t="s">
+      <c r="R12" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="86" t="s">
+      <c r="S12" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="T12" s="96" t="s">
+      <c r="T12" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="V12" s="86" t="s">
+      <c r="V12" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="W12" s="86" t="s">
+      <c r="W12" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="X12" s="96" t="s">
+      <c r="X12" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="Y12" s="86" t="s">
+      <c r="Y12" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" s="92" t="s">
+      <c r="Z12" s="75" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="34" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A13" s="82"/>
-      <c r="B13" s="84"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="33" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="93"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="76"/>
     </row>
     <row r="14" spans="1:26" s="34" customFormat="1" ht="52.5" customHeight="1">
       <c r="A14" s="48"/>
@@ -1926,7 +1944,7 @@
       <c r="G14" s="36"/>
       <c r="H14" s="37"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="47"/>
+      <c r="J14" s="43"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="37"/>
@@ -1957,7 +1975,7 @@
       <c r="G15" s="36"/>
       <c r="H15" s="37"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="47"/>
+      <c r="J15" s="43"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="37"/>
@@ -1988,7 +2006,7 @@
       <c r="G16" s="36"/>
       <c r="H16" s="37"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
+      <c r="J16" s="43"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="37"/>
@@ -2019,7 +2037,7 @@
       <c r="G17" s="36"/>
       <c r="H17" s="37"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
       <c r="M17" s="37"/>
@@ -2050,7 +2068,7 @@
       <c r="G18" s="44"/>
       <c r="H18" s="37"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
+      <c r="J18" s="43"/>
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
       <c r="M18" s="37"/>
@@ -2081,7 +2099,7 @@
       <c r="G19" s="44"/>
       <c r="H19" s="37"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="37"/>
@@ -2112,7 +2130,7 @@
       <c r="G20" s="44"/>
       <c r="H20" s="37"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="47"/>
+      <c r="J20" s="43"/>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
       <c r="M20" s="37"/>
@@ -2143,7 +2161,7 @@
       <c r="G21" s="36"/>
       <c r="H21" s="37"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="47"/>
+      <c r="J21" s="43"/>
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
       <c r="M21" s="37"/>
@@ -2174,7 +2192,7 @@
       <c r="G22" s="36"/>
       <c r="H22" s="37"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
+      <c r="J22" s="43"/>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
       <c r="M22" s="37"/>
@@ -2205,7 +2223,7 @@
       <c r="G23" s="36"/>
       <c r="H23" s="37"/>
       <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="J23" s="43"/>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
       <c r="M23" s="37"/>
@@ -2236,7 +2254,7 @@
       <c r="G24" s="36"/>
       <c r="H24" s="37"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="47"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="37"/>
@@ -2267,7 +2285,7 @@
       <c r="G25" s="36"/>
       <c r="H25" s="37"/>
       <c r="I25" s="36"/>
-      <c r="J25" s="47"/>
+      <c r="J25" s="43"/>
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
       <c r="M25" s="37"/>
@@ -2298,7 +2316,7 @@
       <c r="G26" s="36"/>
       <c r="H26" s="37"/>
       <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
+      <c r="J26" s="43"/>
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
       <c r="M26" s="37"/>
@@ -2329,7 +2347,7 @@
       <c r="G27" s="36"/>
       <c r="H27" s="37"/>
       <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="J27" s="43"/>
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
       <c r="M27" s="37"/>
@@ -2360,7 +2378,7 @@
       <c r="G28" s="36"/>
       <c r="H28" s="37"/>
       <c r="I28" s="36"/>
-      <c r="J28" s="47"/>
+      <c r="J28" s="43"/>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
       <c r="M28" s="37"/>
@@ -2391,7 +2409,7 @@
       <c r="G29" s="36"/>
       <c r="H29" s="37"/>
       <c r="I29" s="36"/>
-      <c r="J29" s="47"/>
+      <c r="J29" s="43"/>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
       <c r="M29" s="37"/>
@@ -2422,7 +2440,7 @@
       <c r="G30" s="36"/>
       <c r="H30" s="37"/>
       <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
       <c r="M30" s="37"/>
@@ -2453,7 +2471,7 @@
       <c r="G31" s="36"/>
       <c r="H31" s="37"/>
       <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
+      <c r="J31" s="43"/>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
       <c r="M31" s="37"/>
@@ -2484,7 +2502,7 @@
       <c r="G32" s="44"/>
       <c r="H32" s="37"/>
       <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
+      <c r="J32" s="43"/>
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
       <c r="M32" s="37"/>
@@ -2515,7 +2533,7 @@
       <c r="G33" s="44"/>
       <c r="H33" s="37"/>
       <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="J33" s="43"/>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
       <c r="M33" s="37"/>
@@ -2546,7 +2564,7 @@
       <c r="G34" s="44"/>
       <c r="H34" s="37"/>
       <c r="I34" s="36"/>
-      <c r="J34" s="47"/>
+      <c r="J34" s="43"/>
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
       <c r="M34" s="37"/>
@@ -2577,7 +2595,7 @@
       <c r="G35" s="36"/>
       <c r="H35" s="37"/>
       <c r="I35" s="36"/>
-      <c r="J35" s="47"/>
+      <c r="J35" s="43"/>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
       <c r="M35" s="37"/>
@@ -2608,7 +2626,7 @@
       <c r="G36" s="36"/>
       <c r="H36" s="37"/>
       <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
+      <c r="J36" s="43"/>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
       <c r="M36" s="37"/>
@@ -2639,7 +2657,7 @@
       <c r="G37" s="36"/>
       <c r="H37" s="37"/>
       <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
+      <c r="J37" s="43"/>
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
       <c r="M37" s="37"/>
@@ -2670,7 +2688,7 @@
       <c r="G38" s="36"/>
       <c r="H38" s="37"/>
       <c r="I38" s="36"/>
-      <c r="J38" s="47"/>
+      <c r="J38" s="43"/>
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
       <c r="M38" s="37"/>
@@ -2701,7 +2719,7 @@
       <c r="G39" s="36"/>
       <c r="H39" s="37"/>
       <c r="I39" s="36"/>
-      <c r="J39" s="47"/>
+      <c r="J39" s="43"/>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
       <c r="M39" s="37"/>
@@ -2732,7 +2750,7 @@
       <c r="G40" s="36"/>
       <c r="H40" s="37"/>
       <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
+      <c r="J40" s="43"/>
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
       <c r="M40" s="37"/>
@@ -2763,7 +2781,7 @@
       <c r="G41" s="36"/>
       <c r="H41" s="37"/>
       <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
+      <c r="J41" s="43"/>
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
       <c r="M41" s="37"/>
@@ -2794,7 +2812,7 @@
       <c r="G42" s="36"/>
       <c r="H42" s="37"/>
       <c r="I42" s="36"/>
-      <c r="J42" s="47"/>
+      <c r="J42" s="43"/>
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
       <c r="M42" s="37"/>
@@ -2825,7 +2843,7 @@
       <c r="G43" s="36"/>
       <c r="H43" s="37"/>
       <c r="I43" s="36"/>
-      <c r="J43" s="47"/>
+      <c r="J43" s="43"/>
       <c r="K43" s="36"/>
       <c r="L43" s="36"/>
       <c r="M43" s="37"/>
@@ -2856,7 +2874,7 @@
       <c r="G44" s="36"/>
       <c r="H44" s="37"/>
       <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
+      <c r="J44" s="43"/>
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
       <c r="M44" s="37"/>
@@ -2887,7 +2905,7 @@
       <c r="G45" s="36"/>
       <c r="H45" s="37"/>
       <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
+      <c r="J45" s="43"/>
       <c r="K45" s="36"/>
       <c r="L45" s="36"/>
       <c r="M45" s="37"/>
@@ -2918,7 +2936,7 @@
       <c r="G46" s="44"/>
       <c r="H46" s="37"/>
       <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
+      <c r="J46" s="43"/>
       <c r="K46" s="36"/>
       <c r="L46" s="36"/>
       <c r="M46" s="37"/>
@@ -2949,7 +2967,7 @@
       <c r="G47" s="44"/>
       <c r="H47" s="37"/>
       <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
+      <c r="J47" s="43"/>
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="37"/>
@@ -2980,7 +2998,7 @@
       <c r="G48" s="44"/>
       <c r="H48" s="37"/>
       <c r="I48" s="36"/>
-      <c r="J48" s="47"/>
+      <c r="J48" s="43"/>
       <c r="K48" s="36"/>
       <c r="L48" s="36"/>
       <c r="M48" s="37"/>
@@ -3011,7 +3029,7 @@
       <c r="G49" s="36"/>
       <c r="H49" s="37"/>
       <c r="I49" s="36"/>
-      <c r="J49" s="47"/>
+      <c r="J49" s="43"/>
       <c r="K49" s="36"/>
       <c r="L49" s="36"/>
       <c r="M49" s="37"/>
@@ -3042,7 +3060,7 @@
       <c r="G50" s="36"/>
       <c r="H50" s="37"/>
       <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
+      <c r="J50" s="43"/>
       <c r="K50" s="36"/>
       <c r="L50" s="36"/>
       <c r="M50" s="37"/>
@@ -3073,7 +3091,7 @@
       <c r="G51" s="36"/>
       <c r="H51" s="37"/>
       <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
+      <c r="J51" s="43"/>
       <c r="K51" s="36"/>
       <c r="L51" s="36"/>
       <c r="M51" s="37"/>
@@ -3104,7 +3122,7 @@
       <c r="G52" s="36"/>
       <c r="H52" s="37"/>
       <c r="I52" s="36"/>
-      <c r="J52" s="47"/>
+      <c r="J52" s="43"/>
       <c r="K52" s="36"/>
       <c r="L52" s="36"/>
       <c r="M52" s="37"/>
@@ -3135,7 +3153,7 @@
       <c r="G53" s="36"/>
       <c r="H53" s="37"/>
       <c r="I53" s="36"/>
-      <c r="J53" s="47"/>
+      <c r="J53" s="43"/>
       <c r="K53" s="36"/>
       <c r="L53" s="36"/>
       <c r="M53" s="37"/>
@@ -3166,7 +3184,7 @@
       <c r="G54" s="36"/>
       <c r="H54" s="37"/>
       <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
+      <c r="J54" s="43"/>
       <c r="K54" s="36"/>
       <c r="L54" s="36"/>
       <c r="M54" s="37"/>
@@ -3197,7 +3215,7 @@
       <c r="G55" s="36"/>
       <c r="H55" s="37"/>
       <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
+      <c r="J55" s="43"/>
       <c r="K55" s="36"/>
       <c r="L55" s="36"/>
       <c r="M55" s="37"/>
@@ -3228,7 +3246,7 @@
       <c r="G56" s="36"/>
       <c r="H56" s="37"/>
       <c r="I56" s="36"/>
-      <c r="J56" s="47"/>
+      <c r="J56" s="43"/>
       <c r="K56" s="36"/>
       <c r="L56" s="36"/>
       <c r="M56" s="37"/>
@@ -3259,7 +3277,7 @@
       <c r="G57" s="36"/>
       <c r="H57" s="37"/>
       <c r="I57" s="36"/>
-      <c r="J57" s="47"/>
+      <c r="J57" s="43"/>
       <c r="K57" s="36"/>
       <c r="L57" s="36"/>
       <c r="M57" s="37"/>
@@ -3290,7 +3308,7 @@
       <c r="G58" s="36"/>
       <c r="H58" s="37"/>
       <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
+      <c r="J58" s="43"/>
       <c r="K58" s="36"/>
       <c r="L58" s="36"/>
       <c r="M58" s="37"/>
@@ -3321,7 +3339,7 @@
       <c r="G59" s="36"/>
       <c r="H59" s="37"/>
       <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
+      <c r="J59" s="43"/>
       <c r="K59" s="36"/>
       <c r="L59" s="36"/>
       <c r="M59" s="37"/>
@@ -3352,7 +3370,7 @@
       <c r="G60" s="44"/>
       <c r="H60" s="37"/>
       <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
+      <c r="J60" s="43"/>
       <c r="K60" s="36"/>
       <c r="L60" s="36"/>
       <c r="M60" s="37"/>
@@ -3383,7 +3401,7 @@
       <c r="G61" s="44"/>
       <c r="H61" s="37"/>
       <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
+      <c r="J61" s="43"/>
       <c r="K61" s="36"/>
       <c r="L61" s="36"/>
       <c r="M61" s="37"/>
@@ -3414,7 +3432,7 @@
       <c r="G62" s="44"/>
       <c r="H62" s="37"/>
       <c r="I62" s="36"/>
-      <c r="J62" s="47"/>
+      <c r="J62" s="43"/>
       <c r="K62" s="36"/>
       <c r="L62" s="36"/>
       <c r="M62" s="37"/>
@@ -3445,7 +3463,7 @@
       <c r="G63" s="36"/>
       <c r="H63" s="37"/>
       <c r="I63" s="36"/>
-      <c r="J63" s="47"/>
+      <c r="J63" s="43"/>
       <c r="K63" s="36"/>
       <c r="L63" s="36"/>
       <c r="M63" s="37"/>
@@ -3476,7 +3494,7 @@
       <c r="G64" s="36"/>
       <c r="H64" s="37"/>
       <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
+      <c r="J64" s="43"/>
       <c r="K64" s="36"/>
       <c r="L64" s="36"/>
       <c r="M64" s="37"/>
@@ -3507,7 +3525,7 @@
       <c r="G65" s="36"/>
       <c r="H65" s="37"/>
       <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
+      <c r="J65" s="43"/>
       <c r="K65" s="36"/>
       <c r="L65" s="36"/>
       <c r="M65" s="37"/>
@@ -3538,7 +3556,7 @@
       <c r="G66" s="36"/>
       <c r="H66" s="37"/>
       <c r="I66" s="36"/>
-      <c r="J66" s="47"/>
+      <c r="J66" s="43"/>
       <c r="K66" s="36"/>
       <c r="L66" s="36"/>
       <c r="M66" s="37"/>
@@ -3569,7 +3587,7 @@
       <c r="G67" s="36"/>
       <c r="H67" s="37"/>
       <c r="I67" s="36"/>
-      <c r="J67" s="47"/>
+      <c r="J67" s="43"/>
       <c r="K67" s="36"/>
       <c r="L67" s="36"/>
       <c r="M67" s="37"/>
@@ -3600,7 +3618,7 @@
       <c r="G68" s="36"/>
       <c r="H68" s="37"/>
       <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
+      <c r="J68" s="43"/>
       <c r="K68" s="36"/>
       <c r="L68" s="36"/>
       <c r="M68" s="37"/>
@@ -3631,7 +3649,7 @@
       <c r="G69" s="36"/>
       <c r="H69" s="37"/>
       <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
+      <c r="J69" s="43"/>
       <c r="K69" s="36"/>
       <c r="L69" s="36"/>
       <c r="M69" s="37"/>
@@ -3662,7 +3680,7 @@
       <c r="G70" s="36"/>
       <c r="H70" s="37"/>
       <c r="I70" s="36"/>
-      <c r="J70" s="47"/>
+      <c r="J70" s="43"/>
       <c r="K70" s="36"/>
       <c r="L70" s="36"/>
       <c r="M70" s="37"/>
@@ -3693,7 +3711,7 @@
       <c r="G71" s="36"/>
       <c r="H71" s="37"/>
       <c r="I71" s="36"/>
-      <c r="J71" s="47"/>
+      <c r="J71" s="43"/>
       <c r="K71" s="36"/>
       <c r="L71" s="36"/>
       <c r="M71" s="37"/>
@@ -3724,7 +3742,7 @@
       <c r="G72" s="36"/>
       <c r="H72" s="37"/>
       <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
+      <c r="J72" s="43"/>
       <c r="K72" s="36"/>
       <c r="L72" s="36"/>
       <c r="M72" s="37"/>
@@ -3755,7 +3773,7 @@
       <c r="G73" s="36"/>
       <c r="H73" s="37"/>
       <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
+      <c r="J73" s="43"/>
       <c r="K73" s="36"/>
       <c r="L73" s="36"/>
       <c r="M73" s="37"/>
@@ -3786,7 +3804,7 @@
       <c r="G74" s="44"/>
       <c r="H74" s="37"/>
       <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
+      <c r="J74" s="43"/>
       <c r="K74" s="36"/>
       <c r="L74" s="36"/>
       <c r="M74" s="37"/>
@@ -3817,7 +3835,7 @@
       <c r="G75" s="44"/>
       <c r="H75" s="37"/>
       <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
+      <c r="J75" s="43"/>
       <c r="K75" s="36"/>
       <c r="L75" s="36"/>
       <c r="M75" s="37"/>
@@ -3848,7 +3866,7 @@
       <c r="G76" s="44"/>
       <c r="H76" s="37"/>
       <c r="I76" s="36"/>
-      <c r="J76" s="47"/>
+      <c r="J76" s="43"/>
       <c r="K76" s="36"/>
       <c r="L76" s="36"/>
       <c r="M76" s="37"/>
@@ -3879,7 +3897,7 @@
       <c r="G77" s="36"/>
       <c r="H77" s="37"/>
       <c r="I77" s="36"/>
-      <c r="J77" s="47"/>
+      <c r="J77" s="43"/>
       <c r="K77" s="36"/>
       <c r="L77" s="36"/>
       <c r="M77" s="37"/>
@@ -3910,7 +3928,7 @@
       <c r="G78" s="36"/>
       <c r="H78" s="37"/>
       <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
+      <c r="J78" s="43"/>
       <c r="K78" s="36"/>
       <c r="L78" s="36"/>
       <c r="M78" s="37"/>
@@ -3941,7 +3959,7 @@
       <c r="G79" s="36"/>
       <c r="H79" s="37"/>
       <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
+      <c r="J79" s="43"/>
       <c r="K79" s="36"/>
       <c r="L79" s="36"/>
       <c r="M79" s="37"/>
@@ -3972,7 +3990,7 @@
       <c r="G80" s="36"/>
       <c r="H80" s="37"/>
       <c r="I80" s="36"/>
-      <c r="J80" s="47"/>
+      <c r="J80" s="43"/>
       <c r="K80" s="36"/>
       <c r="L80" s="36"/>
       <c r="M80" s="37"/>
@@ -4003,7 +4021,7 @@
       <c r="G81" s="36"/>
       <c r="H81" s="37"/>
       <c r="I81" s="36"/>
-      <c r="J81" s="47"/>
+      <c r="J81" s="43"/>
       <c r="K81" s="36"/>
       <c r="L81" s="36"/>
       <c r="M81" s="37"/>
@@ -4034,7 +4052,7 @@
       <c r="G82" s="36"/>
       <c r="H82" s="37"/>
       <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
+      <c r="J82" s="43"/>
       <c r="K82" s="36"/>
       <c r="L82" s="36"/>
       <c r="M82" s="37"/>
@@ -4065,7 +4083,7 @@
       <c r="G83" s="36"/>
       <c r="H83" s="37"/>
       <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
+      <c r="J83" s="43"/>
       <c r="K83" s="36"/>
       <c r="L83" s="36"/>
       <c r="M83" s="37"/>
@@ -4096,7 +4114,7 @@
       <c r="G84" s="36"/>
       <c r="H84" s="37"/>
       <c r="I84" s="36"/>
-      <c r="J84" s="47"/>
+      <c r="J84" s="43"/>
       <c r="K84" s="36"/>
       <c r="L84" s="36"/>
       <c r="M84" s="37"/>
@@ -4127,7 +4145,7 @@
       <c r="G85" s="36"/>
       <c r="H85" s="37"/>
       <c r="I85" s="36"/>
-      <c r="J85" s="47"/>
+      <c r="J85" s="43"/>
       <c r="K85" s="36"/>
       <c r="L85" s="36"/>
       <c r="M85" s="37"/>
@@ -4158,7 +4176,7 @@
       <c r="G86" s="36"/>
       <c r="H86" s="37"/>
       <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
+      <c r="J86" s="43"/>
       <c r="K86" s="36"/>
       <c r="L86" s="36"/>
       <c r="M86" s="37"/>
@@ -4189,7 +4207,7 @@
       <c r="G87" s="36"/>
       <c r="H87" s="37"/>
       <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
+      <c r="J87" s="43"/>
       <c r="K87" s="36"/>
       <c r="L87" s="36"/>
       <c r="M87" s="37"/>
@@ -4220,7 +4238,7 @@
       <c r="G88" s="44"/>
       <c r="H88" s="37"/>
       <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
+      <c r="J88" s="43"/>
       <c r="K88" s="36"/>
       <c r="L88" s="36"/>
       <c r="M88" s="37"/>
@@ -4251,7 +4269,7 @@
       <c r="G89" s="44"/>
       <c r="H89" s="37"/>
       <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
+      <c r="J89" s="43"/>
       <c r="K89" s="36"/>
       <c r="L89" s="36"/>
       <c r="M89" s="37"/>
@@ -4282,7 +4300,7 @@
       <c r="G90" s="44"/>
       <c r="H90" s="37"/>
       <c r="I90" s="36"/>
-      <c r="J90" s="47"/>
+      <c r="J90" s="43"/>
       <c r="K90" s="36"/>
       <c r="L90" s="36"/>
       <c r="M90" s="37"/>
@@ -4313,7 +4331,7 @@
       <c r="G91" s="36"/>
       <c r="H91" s="37"/>
       <c r="I91" s="36"/>
-      <c r="J91" s="47"/>
+      <c r="J91" s="43"/>
       <c r="K91" s="36"/>
       <c r="L91" s="36"/>
       <c r="M91" s="37"/>
@@ -4344,7 +4362,7 @@
       <c r="G92" s="36"/>
       <c r="H92" s="37"/>
       <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
+      <c r="J92" s="43"/>
       <c r="K92" s="36"/>
       <c r="L92" s="36"/>
       <c r="M92" s="37"/>
@@ -4375,7 +4393,7 @@
       <c r="G93" s="36"/>
       <c r="H93" s="37"/>
       <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
+      <c r="J93" s="43"/>
       <c r="K93" s="36"/>
       <c r="L93" s="36"/>
       <c r="M93" s="37"/>
@@ -4406,7 +4424,7 @@
       <c r="G94" s="36"/>
       <c r="H94" s="37"/>
       <c r="I94" s="36"/>
-      <c r="J94" s="47"/>
+      <c r="J94" s="43"/>
       <c r="K94" s="36"/>
       <c r="L94" s="36"/>
       <c r="M94" s="37"/>
@@ -4437,7 +4455,7 @@
       <c r="G95" s="36"/>
       <c r="H95" s="37"/>
       <c r="I95" s="36"/>
-      <c r="J95" s="47"/>
+      <c r="J95" s="43"/>
       <c r="K95" s="36"/>
       <c r="L95" s="36"/>
       <c r="M95" s="37"/>
@@ -4468,7 +4486,7 @@
       <c r="G96" s="36"/>
       <c r="H96" s="37"/>
       <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
+      <c r="J96" s="43"/>
       <c r="K96" s="36"/>
       <c r="L96" s="36"/>
       <c r="M96" s="37"/>
@@ -4499,7 +4517,7 @@
       <c r="G97" s="36"/>
       <c r="H97" s="37"/>
       <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
+      <c r="J97" s="43"/>
       <c r="K97" s="36"/>
       <c r="L97" s="36"/>
       <c r="M97" s="37"/>
@@ -4530,7 +4548,7 @@
       <c r="G98" s="36"/>
       <c r="H98" s="37"/>
       <c r="I98" s="36"/>
-      <c r="J98" s="47"/>
+      <c r="J98" s="43"/>
       <c r="K98" s="36"/>
       <c r="L98" s="36"/>
       <c r="M98" s="37"/>
@@ -4561,7 +4579,7 @@
       <c r="G99" s="36"/>
       <c r="H99" s="37"/>
       <c r="I99" s="36"/>
-      <c r="J99" s="47"/>
+      <c r="J99" s="43"/>
       <c r="K99" s="36"/>
       <c r="L99" s="36"/>
       <c r="M99" s="37"/>
@@ -4592,7 +4610,7 @@
       <c r="G100" s="36"/>
       <c r="H100" s="37"/>
       <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
+      <c r="J100" s="43"/>
       <c r="K100" s="36"/>
       <c r="L100" s="36"/>
       <c r="M100" s="37"/>
@@ -4623,7 +4641,7 @@
       <c r="G101" s="36"/>
       <c r="H101" s="37"/>
       <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
+      <c r="J101" s="43"/>
       <c r="K101" s="36"/>
       <c r="L101" s="36"/>
       <c r="M101" s="37"/>
@@ -4654,7 +4672,7 @@
       <c r="G102" s="44"/>
       <c r="H102" s="37"/>
       <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
+      <c r="J102" s="43"/>
       <c r="K102" s="36"/>
       <c r="L102" s="36"/>
       <c r="M102" s="37"/>
@@ -4685,7 +4703,7 @@
       <c r="G103" s="44"/>
       <c r="H103" s="37"/>
       <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
+      <c r="J103" s="43"/>
       <c r="K103" s="36"/>
       <c r="L103" s="36"/>
       <c r="M103" s="37"/>
@@ -4716,7 +4734,7 @@
       <c r="G104" s="44"/>
       <c r="H104" s="37"/>
       <c r="I104" s="36"/>
-      <c r="J104" s="47"/>
+      <c r="J104" s="43"/>
       <c r="K104" s="36"/>
       <c r="L104" s="36"/>
       <c r="M104" s="37"/>
@@ -4747,7 +4765,7 @@
       <c r="G105" s="36"/>
       <c r="H105" s="37"/>
       <c r="I105" s="36"/>
-      <c r="J105" s="47"/>
+      <c r="J105" s="43"/>
       <c r="K105" s="36"/>
       <c r="L105" s="36"/>
       <c r="M105" s="37"/>
@@ -4778,7 +4796,7 @@
       <c r="G106" s="36"/>
       <c r="H106" s="37"/>
       <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
+      <c r="J106" s="43"/>
       <c r="K106" s="36"/>
       <c r="L106" s="36"/>
       <c r="M106" s="37"/>
@@ -4809,7 +4827,7 @@
       <c r="G107" s="36"/>
       <c r="H107" s="37"/>
       <c r="I107" s="36"/>
-      <c r="J107" s="36"/>
+      <c r="J107" s="43"/>
       <c r="K107" s="36"/>
       <c r="L107" s="36"/>
       <c r="M107" s="37"/>
@@ -4840,7 +4858,7 @@
       <c r="G108" s="36"/>
       <c r="H108" s="37"/>
       <c r="I108" s="36"/>
-      <c r="J108" s="47"/>
+      <c r="J108" s="43"/>
       <c r="K108" s="36"/>
       <c r="L108" s="36"/>
       <c r="M108" s="37"/>
@@ -4871,7 +4889,7 @@
       <c r="G109" s="36"/>
       <c r="H109" s="37"/>
       <c r="I109" s="36"/>
-      <c r="J109" s="47"/>
+      <c r="J109" s="43"/>
       <c r="K109" s="36"/>
       <c r="L109" s="36"/>
       <c r="M109" s="37"/>
@@ -4902,7 +4920,7 @@
       <c r="G110" s="36"/>
       <c r="H110" s="37"/>
       <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
+      <c r="J110" s="43"/>
       <c r="K110" s="36"/>
       <c r="L110" s="36"/>
       <c r="M110" s="37"/>
@@ -4933,7 +4951,7 @@
       <c r="G111" s="36"/>
       <c r="H111" s="37"/>
       <c r="I111" s="36"/>
-      <c r="J111" s="36"/>
+      <c r="J111" s="43"/>
       <c r="K111" s="36"/>
       <c r="L111" s="36"/>
       <c r="M111" s="37"/>
@@ -4964,7 +4982,7 @@
       <c r="G112" s="36"/>
       <c r="H112" s="37"/>
       <c r="I112" s="36"/>
-      <c r="J112" s="47"/>
+      <c r="J112" s="43"/>
       <c r="K112" s="36"/>
       <c r="L112" s="36"/>
       <c r="M112" s="37"/>
@@ -4995,7 +5013,7 @@
       <c r="G113" s="36"/>
       <c r="H113" s="37"/>
       <c r="I113" s="36"/>
-      <c r="J113" s="47"/>
+      <c r="J113" s="43"/>
       <c r="K113" s="36"/>
       <c r="L113" s="36"/>
       <c r="M113" s="37"/>
@@ -5026,7 +5044,7 @@
       <c r="G114" s="36"/>
       <c r="H114" s="37"/>
       <c r="I114" s="36"/>
-      <c r="J114" s="36"/>
+      <c r="J114" s="43"/>
       <c r="K114" s="36"/>
       <c r="L114" s="36"/>
       <c r="M114" s="37"/>
@@ -5057,7 +5075,7 @@
       <c r="G115" s="36"/>
       <c r="H115" s="37"/>
       <c r="I115" s="36"/>
-      <c r="J115" s="36"/>
+      <c r="J115" s="43"/>
       <c r="K115" s="36"/>
       <c r="L115" s="36"/>
       <c r="M115" s="37"/>
@@ -5088,7 +5106,7 @@
       <c r="G116" s="44"/>
       <c r="H116" s="37"/>
       <c r="I116" s="36"/>
-      <c r="J116" s="36"/>
+      <c r="J116" s="43"/>
       <c r="K116" s="36"/>
       <c r="L116" s="36"/>
       <c r="M116" s="37"/>
@@ -5119,7 +5137,7 @@
       <c r="G117" s="44"/>
       <c r="H117" s="37"/>
       <c r="I117" s="36"/>
-      <c r="J117" s="36"/>
+      <c r="J117" s="43"/>
       <c r="K117" s="36"/>
       <c r="L117" s="36"/>
       <c r="M117" s="37"/>
@@ -5150,7 +5168,7 @@
       <c r="G118" s="44"/>
       <c r="H118" s="37"/>
       <c r="I118" s="36"/>
-      <c r="J118" s="47"/>
+      <c r="J118" s="43"/>
       <c r="K118" s="36"/>
       <c r="L118" s="36"/>
       <c r="M118" s="37"/>
@@ -5181,7 +5199,7 @@
       <c r="G119" s="36"/>
       <c r="H119" s="37"/>
       <c r="I119" s="36"/>
-      <c r="J119" s="47"/>
+      <c r="J119" s="43"/>
       <c r="K119" s="36"/>
       <c r="L119" s="36"/>
       <c r="M119" s="37"/>
@@ -5212,7 +5230,7 @@
       <c r="G120" s="36"/>
       <c r="H120" s="37"/>
       <c r="I120" s="36"/>
-      <c r="J120" s="36"/>
+      <c r="J120" s="43"/>
       <c r="K120" s="36"/>
       <c r="L120" s="36"/>
       <c r="M120" s="37"/>
@@ -5243,7 +5261,7 @@
       <c r="G121" s="36"/>
       <c r="H121" s="37"/>
       <c r="I121" s="36"/>
-      <c r="J121" s="36"/>
+      <c r="J121" s="43"/>
       <c r="K121" s="36"/>
       <c r="L121" s="36"/>
       <c r="M121" s="37"/>
@@ -5274,7 +5292,7 @@
       <c r="G122" s="36"/>
       <c r="H122" s="37"/>
       <c r="I122" s="36"/>
-      <c r="J122" s="47"/>
+      <c r="J122" s="43"/>
       <c r="K122" s="36"/>
       <c r="L122" s="36"/>
       <c r="M122" s="37"/>
@@ -5305,7 +5323,7 @@
       <c r="G123" s="36"/>
       <c r="H123" s="37"/>
       <c r="I123" s="36"/>
-      <c r="J123" s="47"/>
+      <c r="J123" s="43"/>
       <c r="K123" s="36"/>
       <c r="L123" s="36"/>
       <c r="M123" s="37"/>
@@ -5336,7 +5354,7 @@
       <c r="G124" s="36"/>
       <c r="H124" s="37"/>
       <c r="I124" s="36"/>
-      <c r="J124" s="36"/>
+      <c r="J124" s="43"/>
       <c r="K124" s="36"/>
       <c r="L124" s="36"/>
       <c r="M124" s="37"/>
@@ -5367,7 +5385,7 @@
       <c r="G125" s="36"/>
       <c r="H125" s="37"/>
       <c r="I125" s="36"/>
-      <c r="J125" s="36"/>
+      <c r="J125" s="43"/>
       <c r="K125" s="36"/>
       <c r="L125" s="36"/>
       <c r="M125" s="37"/>
@@ -5398,7 +5416,7 @@
       <c r="G126" s="44"/>
       <c r="H126" s="37"/>
       <c r="I126" s="36"/>
-      <c r="J126" s="36"/>
+      <c r="J126" s="43"/>
       <c r="K126" s="36"/>
       <c r="L126" s="36"/>
       <c r="M126" s="37"/>
@@ -5429,7 +5447,7 @@
       <c r="G127" s="44"/>
       <c r="H127" s="37"/>
       <c r="I127" s="36"/>
-      <c r="J127" s="36"/>
+      <c r="J127" s="43"/>
       <c r="K127" s="36"/>
       <c r="L127" s="36"/>
       <c r="M127" s="37"/>
@@ -5460,7 +5478,7 @@
       <c r="G128" s="44"/>
       <c r="H128" s="37"/>
       <c r="I128" s="36"/>
-      <c r="J128" s="47"/>
+      <c r="J128" s="43"/>
       <c r="K128" s="36"/>
       <c r="L128" s="36"/>
       <c r="M128" s="37"/>
@@ -5491,7 +5509,7 @@
       <c r="G129" s="36"/>
       <c r="H129" s="37"/>
       <c r="I129" s="36"/>
-      <c r="J129" s="47"/>
+      <c r="J129" s="43"/>
       <c r="K129" s="36"/>
       <c r="L129" s="36"/>
       <c r="M129" s="37"/>
@@ -5522,7 +5540,7 @@
       <c r="G130" s="36"/>
       <c r="H130" s="37"/>
       <c r="I130" s="36"/>
-      <c r="J130" s="36"/>
+      <c r="J130" s="43"/>
       <c r="K130" s="36"/>
       <c r="L130" s="36"/>
       <c r="M130" s="37"/>
@@ -5553,7 +5571,7 @@
       <c r="G131" s="36"/>
       <c r="H131" s="37"/>
       <c r="I131" s="36"/>
-      <c r="J131" s="36"/>
+      <c r="J131" s="43"/>
       <c r="K131" s="36"/>
       <c r="L131" s="36"/>
       <c r="M131" s="37"/>
@@ -5584,7 +5602,7 @@
       <c r="G132" s="36"/>
       <c r="H132" s="37"/>
       <c r="I132" s="36"/>
-      <c r="J132" s="47"/>
+      <c r="J132" s="43"/>
       <c r="K132" s="36"/>
       <c r="L132" s="36"/>
       <c r="M132" s="37"/>
@@ -5615,7 +5633,7 @@
       <c r="G133" s="36"/>
       <c r="H133" s="37"/>
       <c r="I133" s="36"/>
-      <c r="J133" s="47"/>
+      <c r="J133" s="43"/>
       <c r="K133" s="36"/>
       <c r="L133" s="36"/>
       <c r="M133" s="37"/>
@@ -5646,7 +5664,7 @@
       <c r="G134" s="36"/>
       <c r="H134" s="37"/>
       <c r="I134" s="36"/>
-      <c r="J134" s="36"/>
+      <c r="J134" s="43"/>
       <c r="K134" s="36"/>
       <c r="L134" s="36"/>
       <c r="M134" s="37"/>
@@ -5677,7 +5695,7 @@
       <c r="G135" s="36"/>
       <c r="H135" s="37"/>
       <c r="I135" s="36"/>
-      <c r="J135" s="36"/>
+      <c r="J135" s="43"/>
       <c r="K135" s="36"/>
       <c r="L135" s="36"/>
       <c r="M135" s="37"/>
@@ -5708,7 +5726,7 @@
       <c r="G136" s="36"/>
       <c r="H136" s="37"/>
       <c r="I136" s="36"/>
-      <c r="J136" s="47"/>
+      <c r="J136" s="43"/>
       <c r="K136" s="36"/>
       <c r="L136" s="36"/>
       <c r="M136" s="37"/>
@@ -5739,7 +5757,7 @@
       <c r="G137" s="36"/>
       <c r="H137" s="37"/>
       <c r="I137" s="36"/>
-      <c r="J137" s="47"/>
+      <c r="J137" s="43"/>
       <c r="K137" s="36"/>
       <c r="L137" s="36"/>
       <c r="M137" s="37"/>
@@ -5770,7 +5788,7 @@
       <c r="G138" s="36"/>
       <c r="H138" s="37"/>
       <c r="I138" s="36"/>
-      <c r="J138" s="36"/>
+      <c r="J138" s="43"/>
       <c r="K138" s="36"/>
       <c r="L138" s="36"/>
       <c r="M138" s="37"/>
@@ -5801,7 +5819,7 @@
       <c r="G139" s="36"/>
       <c r="H139" s="37"/>
       <c r="I139" s="36"/>
-      <c r="J139" s="36"/>
+      <c r="J139" s="43"/>
       <c r="K139" s="36"/>
       <c r="L139" s="36"/>
       <c r="M139" s="37"/>
@@ -5832,7 +5850,7 @@
       <c r="G140" s="44"/>
       <c r="H140" s="37"/>
       <c r="I140" s="36"/>
-      <c r="J140" s="36"/>
+      <c r="J140" s="43"/>
       <c r="K140" s="36"/>
       <c r="L140" s="36"/>
       <c r="M140" s="37"/>
@@ -5863,7 +5881,7 @@
       <c r="G141" s="44"/>
       <c r="H141" s="37"/>
       <c r="I141" s="36"/>
-      <c r="J141" s="36"/>
+      <c r="J141" s="43"/>
       <c r="K141" s="36"/>
       <c r="L141" s="36"/>
       <c r="M141" s="37"/>
@@ -5894,7 +5912,7 @@
       <c r="G142" s="44"/>
       <c r="H142" s="37"/>
       <c r="I142" s="36"/>
-      <c r="J142" s="47"/>
+      <c r="J142" s="43"/>
       <c r="K142" s="36"/>
       <c r="L142" s="36"/>
       <c r="M142" s="37"/>
@@ -5925,7 +5943,7 @@
       <c r="G143" s="36"/>
       <c r="H143" s="37"/>
       <c r="I143" s="36"/>
-      <c r="J143" s="47"/>
+      <c r="J143" s="43"/>
       <c r="K143" s="36"/>
       <c r="L143" s="36"/>
       <c r="M143" s="37"/>
@@ -5956,7 +5974,7 @@
       <c r="G144" s="36"/>
       <c r="H144" s="37"/>
       <c r="I144" s="36"/>
-      <c r="J144" s="36"/>
+      <c r="J144" s="43"/>
       <c r="K144" s="36"/>
       <c r="L144" s="36"/>
       <c r="M144" s="37"/>
@@ -5987,7 +6005,7 @@
       <c r="G145" s="36"/>
       <c r="H145" s="37"/>
       <c r="I145" s="36"/>
-      <c r="J145" s="36"/>
+      <c r="J145" s="43"/>
       <c r="K145" s="36"/>
       <c r="L145" s="36"/>
       <c r="M145" s="37"/>
@@ -6018,7 +6036,7 @@
       <c r="G146" s="36"/>
       <c r="H146" s="37"/>
       <c r="I146" s="36"/>
-      <c r="J146" s="47"/>
+      <c r="J146" s="43"/>
       <c r="K146" s="36"/>
       <c r="L146" s="36"/>
       <c r="M146" s="37"/>
@@ -6049,7 +6067,7 @@
       <c r="G147" s="36"/>
       <c r="H147" s="37"/>
       <c r="I147" s="36"/>
-      <c r="J147" s="47"/>
+      <c r="J147" s="43"/>
       <c r="K147" s="36"/>
       <c r="L147" s="36"/>
       <c r="M147" s="37"/>
@@ -6080,7 +6098,7 @@
       <c r="G148" s="36"/>
       <c r="H148" s="37"/>
       <c r="I148" s="36"/>
-      <c r="J148" s="36"/>
+      <c r="J148" s="43"/>
       <c r="K148" s="36"/>
       <c r="L148" s="36"/>
       <c r="M148" s="37"/>
@@ -6111,7 +6129,7 @@
       <c r="G149" s="36"/>
       <c r="H149" s="37"/>
       <c r="I149" s="36"/>
-      <c r="J149" s="36"/>
+      <c r="J149" s="43"/>
       <c r="K149" s="36"/>
       <c r="L149" s="36"/>
       <c r="M149" s="37"/>
@@ -6133,25 +6151,25 @@
       <c r="Z149" s="45"/>
     </row>
     <row r="150" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A150" s="94" t="s">
+      <c r="A150" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B150" s="94"/>
-      <c r="C150" s="94"/>
-      <c r="D150" s="94"/>
-      <c r="E150" s="94"/>
-      <c r="F150" s="94"/>
-      <c r="G150" s="94"/>
-      <c r="H150" s="94"/>
-      <c r="I150" s="94"/>
-      <c r="J150" s="94"/>
-      <c r="K150" s="94"/>
-      <c r="L150" s="94"/>
-      <c r="M150" s="94"/>
-      <c r="N150" s="94"/>
-      <c r="O150" s="94"/>
-      <c r="P150" s="94"/>
-      <c r="Q150" s="94"/>
+      <c r="B150" s="77"/>
+      <c r="C150" s="77"/>
+      <c r="D150" s="77"/>
+      <c r="E150" s="77"/>
+      <c r="F150" s="77"/>
+      <c r="G150" s="77"/>
+      <c r="H150" s="77"/>
+      <c r="I150" s="77"/>
+      <c r="J150" s="77"/>
+      <c r="K150" s="77"/>
+      <c r="L150" s="77"/>
+      <c r="M150" s="77"/>
+      <c r="N150" s="77"/>
+      <c r="O150" s="77"/>
+      <c r="P150" s="77"/>
+      <c r="Q150" s="77"/>
       <c r="R150" s="50"/>
       <c r="S150" s="51"/>
       <c r="T150" s="51"/>
@@ -6175,7 +6193,7 @@
       <c r="G151" s="58"/>
       <c r="H151" s="59"/>
       <c r="I151" s="58"/>
-      <c r="J151" s="58"/>
+      <c r="J151" s="105"/>
       <c r="K151" s="58"/>
       <c r="L151" s="58"/>
       <c r="M151" s="58"/>
@@ -6200,18 +6218,18 @@
       </c>
       <c r="C152" s="64"/>
       <c r="D152" s="65"/>
-      <c r="E152" s="95">
+      <c r="E152" s="78">
         <f>+E9+E10</f>
         <v>1899002428.4285715</v>
       </c>
-      <c r="F152" s="95"/>
+      <c r="F152" s="78"/>
       <c r="G152" s="64"/>
       <c r="H152" s="66">
         <f>+H9+H10</f>
         <v>0</v>
       </c>
       <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
+      <c r="J152" s="106"/>
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
       <c r="M152" s="7" t="s">
@@ -6227,6 +6245,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="Q3:Z3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="Q4:Z4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="Q5:Z5"/>
+    <mergeCell ref="A6:Z6"/>
+    <mergeCell ref="A7:Z7"/>
+    <mergeCell ref="C8:Z8"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
     <mergeCell ref="Y12:Y13"/>
     <mergeCell ref="Z12:Z13"/>
     <mergeCell ref="A150:Q150"/>
@@ -6243,31 +6286,6 @@
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="Q12:Q13"/>
     <mergeCell ref="R12:R13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="Q3:Z3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="Q4:Z4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="Q5:Z5"/>
-    <mergeCell ref="A6:Z6"/>
-    <mergeCell ref="A7:Z7"/>
-    <mergeCell ref="C8:Z8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{D88860E5-26A2-400E-9CD6-A0A7F92B8419}"/>
